--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -755,7 +755,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,9 +850,6 @@
       <c r="B9" s="4">
         <v>100</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D9" s="4" t="s">
         <v>78</v>
       </c>
@@ -870,9 +867,6 @@
       <c r="B10" s="4">
         <v>100</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D10" s="4" t="s">
         <v>79</v>
       </c>
@@ -890,9 +884,7 @@
       <c r="B11" s="4">
         <v>100</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
         <v>81</v>
       </c>
@@ -1425,7 +1417,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,9 +1501,6 @@
       <c r="B6" s="4">
         <v>100</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
@@ -1538,9 +1527,6 @@
       <c r="B7" s="4">
         <v>100</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
@@ -1588,9 +1574,6 @@
       <c r="B10" s="4">
         <v>100</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="D10" s="4" t="s">
         <v>101</v>
       </c>
@@ -1617,9 +1600,6 @@
       <c r="B11" s="4">
         <v>100</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D11" s="4" t="s">
         <v>103</v>
       </c>
@@ -1665,9 +1645,6 @@
       <c r="B14" s="4">
         <v>100</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D14" s="4" t="s">
         <v>105</v>
       </c>
@@ -1693,9 +1670,6 @@
       </c>
       <c r="B15" s="4">
         <v>100</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>105</v>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -102,12 +102,6 @@
     <t>WREMCPRI.SCADA01.00045850</t>
   </si>
   <si>
-    <t>arinsun</t>
-  </si>
-  <si>
-    <t>acme</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00045861</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>WREMCPRI.SCADA01.00045849</t>
   </si>
   <si>
-    <t>mahin</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
@@ -388,6 +379,21 @@
   </si>
   <si>
     <t>Total State Solar</t>
+  </si>
+  <si>
+    <t>Mahindra</t>
+  </si>
+  <si>
+    <t>ARINSUN</t>
+  </si>
+  <si>
+    <t>ACME</t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
   </si>
 </sst>
 </file>
@@ -754,15 +760,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="29" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -789,7 +796,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>19</v>
@@ -797,7 +804,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -805,7 +812,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
@@ -813,7 +820,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
@@ -821,7 +828,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
@@ -829,7 +836,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -837,7 +844,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
@@ -845,16 +852,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="B9" s="4">
-        <v>100</v>
+        <v>14848.26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -862,16 +869,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B10" s="4">
-        <v>100</v>
+        <v>6588.0749999999998</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -882,14 +889,15 @@
         <v>6</v>
       </c>
       <c r="B11" s="4">
-        <v>100</v>
+        <f>SUM(B9:B10)</f>
+        <v>21436.334999999999</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -897,7 +905,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>19</v>
@@ -905,7 +913,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>19</v>
@@ -921,18 +929,18 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
@@ -964,12 +972,12 @@
         <v>11</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
@@ -977,7 +985,7 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>19</v>
@@ -985,7 +993,7 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>19</v>
@@ -993,7 +1001,7 @@
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>19</v>
@@ -1001,7 +1009,7 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -1009,76 +1017,80 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1">
         <v>250</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1">
         <v>184.5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="B9" s="1">
+        <f>SUM(B7:B8)</f>
+        <v>434.5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>19</v>
@@ -1086,134 +1098,138 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11" s="4">
         <v>250</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4">
         <v>226.8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" s="4">
         <v>200</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4">
         <v>176.4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="B15" s="4">
+        <f>SUM(B11:B14)</f>
+        <v>853.19999999999993</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>19</v>
@@ -1221,7 +1237,7 @@
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>19</v>
@@ -1229,7 +1245,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B18" s="4">
         <v>250</v>
@@ -1247,92 +1263,95 @@
         <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="B19" s="4">
         <v>250</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B20" s="4">
         <v>250</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="B21" s="4">
+        <f>SUM(B18:B20)</f>
+        <v>750</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>19</v>
@@ -1341,9 +1360,12 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B21</f>
+        <v>750</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1359,7 +1381,10 @@
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4">
+        <f>B9+B15</f>
+        <v>1287.6999999999998</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1373,22 +1398,25 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="B25" s="4">
+        <f>SUM(B23:B24)</f>
+        <v>2037.6999999999998</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1417,7 +1445,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,18 +1481,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>19</v>
@@ -1472,7 +1500,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>19</v>
@@ -1480,7 +1508,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>19</v>
@@ -1488,7 +1516,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>19</v>
@@ -1496,72 +1524,76 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4">
-        <v>100</v>
+        <v>2248</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6265</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="4">
-        <v>100</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SUM(B6:B7)</f>
+        <v>8513</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>19</v>
@@ -1569,70 +1601,74 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4">
-        <v>100</v>
+        <v>1388</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4">
+        <v>4953</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="B12" s="4">
+        <f>SUM(B10:B11)</f>
+        <v>6341</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>19</v>
@@ -1640,70 +1676,74 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B14" s="4">
-        <v>100</v>
+        <v>2202.0749999999998</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B15" s="4">
-        <v>100</v>
+        <v>2442.56</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="B16" s="4">
+        <f>SUM(B14:B15)</f>
+        <v>4644.6350000000002</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>19</v>
@@ -1711,7 +1751,11 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="B18" s="4">
+        <f>B7+B11+B15</f>
+        <v>13660.56</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -1722,7 +1766,11 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="B19" s="4">
+        <f>B6+B10+B14</f>
+        <v>5838.0749999999998</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
@@ -1733,18 +1781,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="B20" s="4">
+        <f>SUM(B18:B19)</f>
+        <v>19498.634999999998</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>19</v>
@@ -1759,15 +1811,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -1786,7 +1839,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -1794,7 +1847,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -1802,7 +1855,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -1810,7 +1863,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -1818,13 +1871,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -1832,13 +1885,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -1846,13 +1899,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
@@ -1860,7 +1913,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -1868,7 +1921,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -1899,15 +1952,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
@@ -1918,7 +1971,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>16</v>
@@ -1929,7 +1982,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,14 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
     <sheet name="ists_gen" sheetId="2" r:id="rId2"/>
     <sheet name="state_gen" sheetId="3" r:id="rId3"/>
     <sheet name="volt_profile" sheetId="4" r:id="rId4"/>
-    <sheet name="graph_data" sheetId="5" r:id="rId5"/>
+    <sheet name="remc_regional_r0_error" sheetId="7" r:id="rId5"/>
+    <sheet name="remc_regional_r16_error" sheetId="8" r:id="rId6"/>
+    <sheet name="remc_ists_error" sheetId="6" r:id="rId7"/>
+    <sheet name="remc_state_error" sheetId="9" r:id="rId8"/>
+    <sheet name="ists_fsp_err_num_blks" sheetId="10" r:id="rId9"/>
+    <sheet name="state_fsp_err_num_blks" sheetId="11" r:id="rId10"/>
+    <sheet name="ists_fsp_rmse" sheetId="12" r:id="rId11"/>
+    <sheet name="state_fsp_rmse" sheetId="13" r:id="rId12"/>
+    <sheet name="regional_da_forecast" sheetId="14" r:id="rId13"/>
+    <sheet name="ists_da_forecast" sheetId="15" r:id="rId14"/>
+    <sheet name="graph_data" sheetId="5" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ists_gen!$A$1:$I$25</definedName>
@@ -31,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="254">
   <si>
     <t>name</t>
   </si>
@@ -394,6 +404,405 @@
   </si>
   <si>
     <t>SOLAR</t>
+  </si>
+  <si>
+    <t>r0_pnt</t>
+  </si>
+  <si>
+    <t>r16_pnt</t>
+  </si>
+  <si>
+    <t>Ostro Kutch Wind</t>
+  </si>
+  <si>
+    <t>Total ISTS Wind</t>
+  </si>
+  <si>
+    <t>Total ISTS Solar</t>
+  </si>
+  <si>
+    <t>Total WR ISTS RE</t>
+  </si>
+  <si>
+    <t>actual_pnt</t>
+  </si>
+  <si>
+    <t>avc_pnt</t>
+  </si>
+  <si>
+    <t>cuf_pnt</t>
+  </si>
+  <si>
+    <t>WR-ISTS_WR-ISTS_COMBINED_R0</t>
+  </si>
+  <si>
+    <t>WR-ISTS_WR-ISTS_COMBINED_16</t>
+  </si>
+  <si>
+    <t>WR-ISTS_WR-ISTS_COMBINED_Act</t>
+  </si>
+  <si>
+    <t>WR-ISTS_WR-ISTS_COMBINED_CUF</t>
+  </si>
+  <si>
+    <t>WR-ISTS_WR-ISTS_COMBINED_AVC</t>
+  </si>
+  <si>
+    <t>WR-ISTS_WR-ISTS_SOLAR _R0</t>
+  </si>
+  <si>
+    <t>WR-ISTS_WR-ISTS_SOLAR _16</t>
+  </si>
+  <si>
+    <t>WR-ISTS_WR-ISTS_SOLAR _Act</t>
+  </si>
+  <si>
+    <t>WR-ISTS_WR-ISTS_SOLAR _CUF</t>
+  </si>
+  <si>
+    <t>WR-ISTS_WR-ISTS_SOLAR _AVC</t>
+  </si>
+  <si>
+    <t>WR-ISTS_WR-ISTS_WIND _R0</t>
+  </si>
+  <si>
+    <t>WR-ISTS_WR-ISTS_WIND _16</t>
+  </si>
+  <si>
+    <t>WR-ISTS_WR-ISTS_WIND _Act</t>
+  </si>
+  <si>
+    <t>WR-ISTS_WR-ISTS_WIND _CUF</t>
+  </si>
+  <si>
+    <t>WR-ISTS_WR-ISTS_WIND _AVC</t>
+  </si>
+  <si>
+    <t>OKWPL_RE-WIND_WIND_R0</t>
+  </si>
+  <si>
+    <t>OKWPL_RE-WIND_WIND_16</t>
+  </si>
+  <si>
+    <t>OKWPL_RE-WIND_WIND_Act</t>
+  </si>
+  <si>
+    <t>OKWPL_RE-WIND_WIND_CUF</t>
+  </si>
+  <si>
+    <t>OKWPL_RE-WIND_WIND_AVC</t>
+  </si>
+  <si>
+    <t>Acme_RUMS-SOLAR_SOLAR_R0</t>
+  </si>
+  <si>
+    <t>Acme_RUMS-SOLAR_SOLAR_16</t>
+  </si>
+  <si>
+    <t>Acme_RUMS-SOLAR_SOLAR_Act</t>
+  </si>
+  <si>
+    <t>Acme_RUMS-SOLAR_SOLAR_CUF</t>
+  </si>
+  <si>
+    <t>Acme_RUMS-SOLAR_SOLAR_AVC</t>
+  </si>
+  <si>
+    <t>Arinsun_RUMS-SOLAR_SOLAR_R0</t>
+  </si>
+  <si>
+    <t>Arinsun_RUMS-SOLAR_SOLAR_16</t>
+  </si>
+  <si>
+    <t>Arinsun_RUMS-SOLAR_SOLAR_Act</t>
+  </si>
+  <si>
+    <t>Arinsun_RUMS-SOLAR_SOLAR_CUF</t>
+  </si>
+  <si>
+    <t>Arinsun_RUMS-SOLAR_SOLAR_AVC</t>
+  </si>
+  <si>
+    <t>Mahindra_RUMS-SOLAR_SOLAR_R0</t>
+  </si>
+  <si>
+    <t>Mahindra_RUMS-SOLAR_SOLAR_16</t>
+  </si>
+  <si>
+    <t>Mahindra_RUMS-SOLAR_SOLAR_Act</t>
+  </si>
+  <si>
+    <t>Mahindra_RUMS-SOLAR_SOLAR_CUF</t>
+  </si>
+  <si>
+    <t>Mahindra_RUMS-SOLAR_SOLAR_AVC</t>
+  </si>
+  <si>
+    <t>RPL_SECI-II_RE-WIND_WIND_R0</t>
+  </si>
+  <si>
+    <t>RPL_SECI-II_RE-WIND_WIND_16</t>
+  </si>
+  <si>
+    <t>RPL_SECI-II_RE-WIND_WIND_Act</t>
+  </si>
+  <si>
+    <t>RPL_SECI-II_RE-WIND_WIND_CUF</t>
+  </si>
+  <si>
+    <t>RPL_SECI-II_RE-WIND_WIND_AVC</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-II_RE-WIND_WIND_R0</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-II_RE-WIND_WIND_16</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-II_RE-WIND_WIND_Act</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-II_RE-WIND_WIND_CUF</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-II_RE-WIND_WIND_AVC</t>
+  </si>
+  <si>
+    <t>IWISL-WIND_WIND_R0</t>
+  </si>
+  <si>
+    <t>IWISL-WIND_WIND_16</t>
+  </si>
+  <si>
+    <t>IWISL-WIND_WIND_Act</t>
+  </si>
+  <si>
+    <t>IWISL-WIND_WIND_CUF</t>
+  </si>
+  <si>
+    <t>IWISL-WIND_WIND_AVC</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-III_RE-WIND_WIND_R0</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-III_RE-WIND_WIND_16</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-III_RE-WIND_WIND_Act</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-III_RE-WIND_WIND_CUF</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-III_RE-WIND_WIND_AVC</t>
+  </si>
+  <si>
+    <t>AGEMPL-WIND_WIND_R0</t>
+  </si>
+  <si>
+    <t>AGEMPL-WIND_WIND_16</t>
+  </si>
+  <si>
+    <t>AGEMPL-WIND_WIND_Act</t>
+  </si>
+  <si>
+    <t>AGEMPL-WIND_WIND_CUF</t>
+  </si>
+  <si>
+    <t>AGEMPL-WIND_WIND_AVC</t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t>WR_WR_COMBINED_R0</t>
+  </si>
+  <si>
+    <t>WR_WR_COMBINED_16</t>
+  </si>
+  <si>
+    <t>WR_WR_COMBINED_Act</t>
+  </si>
+  <si>
+    <t>WR_WR_COMBINED_CUF</t>
+  </si>
+  <si>
+    <t>WR_WR_COMBINED_AVC</t>
+  </si>
+  <si>
+    <t>WR_WR_SOLAR _R0</t>
+  </si>
+  <si>
+    <t>WR_WR_SOLAR _16</t>
+  </si>
+  <si>
+    <t>WR_WR_SOLAR _Act</t>
+  </si>
+  <si>
+    <t>WR_WR_SOLAR _CUF</t>
+  </si>
+  <si>
+    <t>WR_WR_SOLAR _AVC</t>
+  </si>
+  <si>
+    <t>WR_WR_WIND _R0</t>
+  </si>
+  <si>
+    <t>WR_WR_WIND _16</t>
+  </si>
+  <si>
+    <t>WR_WR_WIND _Act</t>
+  </si>
+  <si>
+    <t>WR_WR_WIND _CUF</t>
+  </si>
+  <si>
+    <t>WR_WR_WIND _AVC</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh_Madhya Pradesh_SOLAR _R0</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh_Madhya Pradesh_SOLAR _16</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh_Madhya Pradesh_SOLAR _Act</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh_Madhya Pradesh_SOLAR _CUF</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh_Madhya Pradesh_SOLAR _AVC</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh_Madhya Pradesh_WIND _R0</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh_Madhya Pradesh_WIND _16</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh_Madhya Pradesh_WIND _Act</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh_Madhya Pradesh_WIND _CUF</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh_Madhya Pradesh_WIND _AVC</t>
+  </si>
+  <si>
+    <t>Maharastra_Maharastra_SOLAR _R0</t>
+  </si>
+  <si>
+    <t>Maharastra_Maharastra_SOLAR _16</t>
+  </si>
+  <si>
+    <t>Maharastra_Maharastra_SOLAR _Act</t>
+  </si>
+  <si>
+    <t>Maharastra_Maharastra_SOLAR _CUF</t>
+  </si>
+  <si>
+    <t>Maharastra_Maharastra_SOLAR _AVC</t>
+  </si>
+  <si>
+    <t>Maharastra_Maharastra_WIND _R0</t>
+  </si>
+  <si>
+    <t>Maharastra_Maharastra_WIND _16</t>
+  </si>
+  <si>
+    <t>Maharastra_Maharastra_WIND _Act</t>
+  </si>
+  <si>
+    <t>Maharastra_Maharastra_WIND _CUF</t>
+  </si>
+  <si>
+    <t>Maharastra_Maharastra_WIND _AVC</t>
+  </si>
+  <si>
+    <t>Gujarat_Gujarat_SOLAR _R0</t>
+  </si>
+  <si>
+    <t>Gujarat_Gujarat_SOLAR _16</t>
+  </si>
+  <si>
+    <t>Gujarat_Gujarat_SOLAR _Act</t>
+  </si>
+  <si>
+    <t>Gujarat_Gujarat_SOLAR _CUF</t>
+  </si>
+  <si>
+    <t>Gujarat_Gujarat_SOLAR _AVC</t>
+  </si>
+  <si>
+    <t>Gujarat_Gujarat_WIND _R0</t>
+  </si>
+  <si>
+    <t>Gujarat_Gujarat_WIND _16</t>
+  </si>
+  <si>
+    <t>Gujarat_Gujarat_WIND _Act</t>
+  </si>
+  <si>
+    <t>Gujarat_Gujarat_WIND _CUF</t>
+  </si>
+  <si>
+    <t>Gujarat_Gujarat_WIND _AVC</t>
+  </si>
+  <si>
+    <t>gen_type_2</t>
+  </si>
+  <si>
+    <t>agg_gen_type_2</t>
+  </si>
+  <si>
+    <t>forecast_pnt</t>
+  </si>
+  <si>
+    <t>Regional Solar</t>
+  </si>
+  <si>
+    <t>Regional Wind</t>
+  </si>
+  <si>
+    <t>Regional RE</t>
+  </si>
+  <si>
+    <t>WR_COMBINED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WR_SOLAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WR_WIND </t>
+  </si>
+  <si>
+    <t>OKWPL_RE-WIND_WIND</t>
+  </si>
+  <si>
+    <t>Acme_RUMS-SOLAR_SOLAR</t>
+  </si>
+  <si>
+    <t>Arinsun_RUMS-SOLAR_SOLAR</t>
+  </si>
+  <si>
+    <t>Mahindra_RUMS-SOLAR_SOLAR</t>
+  </si>
+  <si>
+    <t>RPL_SECI-II_RE-WIND_WIND</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-II_RE-WIND_WIND</t>
+  </si>
+  <si>
+    <t>IWISL-WIND_WIND</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-III_RE-WIND_WIND</t>
+  </si>
+  <si>
+    <t>AGEMPL-WIND_WIND</t>
   </si>
 </sst>
 </file>
@@ -761,7 +1170,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,12 +1333,1214 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,8 +3422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,72 +3545,1641 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" t="s">
+        <v>220</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" t="s">
+        <v>237</v>
+      </c>
+      <c r="J30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet name="state_fsp_rmse" sheetId="13" r:id="rId12"/>
     <sheet name="regional_da_forecast" sheetId="14" r:id="rId13"/>
     <sheet name="ists_da_forecast" sheetId="15" r:id="rId14"/>
-    <sheet name="graph_data" sheetId="5" r:id="rId15"/>
+    <sheet name="state_da_forecast" sheetId="16" r:id="rId15"/>
+    <sheet name="graph_data" sheetId="5" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ists_gen!$A$1:$I$25</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="266">
   <si>
     <t>name</t>
   </si>
@@ -803,6 +804,42 @@
   </si>
   <si>
     <t>AGEMPL-WIND_WIND</t>
+  </si>
+  <si>
+    <t>WR-ISTS_COMBINED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WR-ISTS_SOLAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WR-ISTS_WIND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhya Pradesh_SOLAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhya Pradesh_WIND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharastra_SOLAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharastra_WIND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gujarat_SOLAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gujarat_WIND </t>
+  </si>
+  <si>
+    <t>ists_solar</t>
+  </si>
+  <si>
+    <t>ists_wind</t>
+  </si>
+  <si>
+    <t>ists_combined</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +1928,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A7" sqref="A7:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2456,12 +2493,323 @@
         <v>62</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3545,10 +3893,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A14" sqref="A14:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3745,6 +4093,66 @@
         <v>5</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3752,10 +4160,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,6 +4311,66 @@
         <v>5</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3913,7 +4381,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F20"/>
+      <selection activeCell="B23" sqref="B23:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="257">
   <si>
     <t>name</t>
   </si>
@@ -104,27 +104,18 @@
     <t>dummy</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045859</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00032758</t>
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00045850</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045861</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00032759</t>
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00045848</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045860</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00032413</t>
   </si>
   <si>
@@ -284,52 +275,34 @@
     <t>WREMCPRI.SCADA01.00032726</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00031527</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00046640</t>
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00046641</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045864</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00030482</t>
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00045845</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045863</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00037226</t>
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00045846</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045862</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00030481</t>
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00045847</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045865</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00045558</t>
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00045844</t>
-  </si>
-  <si>
-    <t>WREMCPRI.SCADA01.00045866</t>
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00032415</t>
@@ -1207,7 +1180,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1215,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>19</v>
@@ -1250,7 +1223,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -1258,7 +1231,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
@@ -1266,7 +1239,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
@@ -1274,7 +1247,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
@@ -1282,7 +1255,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -1290,7 +1263,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
@@ -1298,16 +1271,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B9" s="4">
         <v>14848.26</v>
       </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -1315,16 +1291,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B10" s="4">
         <v>6588.0749999999998</v>
       </c>
+      <c r="C10" t="s">
+        <v>191</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -1338,12 +1317,14 @@
         <f>SUM(B9:B10)</f>
         <v>21436.334999999999</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -1351,7 +1332,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>19</v>
@@ -1359,7 +1340,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>19</v>
@@ -1393,24 +1374,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -1418,7 +1399,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1426,7 +1407,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -1434,7 +1415,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1442,7 +1423,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -1450,7 +1431,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1458,58 +1439,58 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -1517,58 +1498,58 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
         <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D13" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -1576,53 +1557,53 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1652,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1666,7 +1647,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1674,7 +1655,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1682,7 +1663,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1690,7 +1671,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1698,7 +1679,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1706,7 +1687,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1714,52 +1695,52 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1769,86 +1750,86 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1858,64 +1839,64 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1945,21 +1926,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1967,7 +1948,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1975,7 +1956,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1983,7 +1964,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1991,7 +1972,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1999,52 +1980,52 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -2052,52 +2033,52 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
         <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -2105,47 +2086,47 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2175,12 +2156,12 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -2188,7 +2169,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -2196,7 +2177,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2204,7 +2185,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -2212,35 +2193,35 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2253,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -2280,7 +2261,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -2288,7 +2269,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -2296,7 +2277,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2304,7 +2285,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -2312,7 +2293,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -2320,46 +2301,46 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -2367,74 +2348,74 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>253</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -2442,60 +2423,60 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -2503,35 +2484,35 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2565,21 +2546,21 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -2587,7 +2568,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -2595,58 +2576,58 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -2654,58 +2635,58 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -2714,58 +2695,58 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -2773,7 +2754,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -2784,7 +2765,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -2795,13 +2776,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2829,15 +2810,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
@@ -2848,7 +2829,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>16</v>
@@ -2859,7 +2840,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
@@ -2888,7 +2869,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2931,12 +2912,12 @@
         <v>11</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
@@ -2944,7 +2925,7 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>19</v>
@@ -2952,7 +2933,7 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>19</v>
@@ -2960,7 +2941,7 @@
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>19</v>
@@ -2968,7 +2949,7 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -2976,80 +2957,80 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1">
         <v>250</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>95</v>
+      <c r="C7" t="s">
+        <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
         <v>184.5</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>92</v>
+      <c r="C8" t="s">
+        <v>160</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1">
         <f>SUM(B7:B8)</f>
         <v>434.5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>19</v>
@@ -3057,138 +3038,138 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="4">
         <v>250</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>89</v>
+      <c r="C11" t="s">
+        <v>165</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="4">
         <v>226.8</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>86</v>
+      <c r="C12" t="s">
+        <v>175</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" s="4">
         <v>200</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>83</v>
+      <c r="C13" t="s">
+        <v>170</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" s="4">
         <v>176.4</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>80</v>
+      <c r="C14" t="s">
+        <v>180</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B11:B14)</f>
         <v>853.19999999999993</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>19</v>
@@ -3196,7 +3177,7 @@
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>19</v>
@@ -3204,94 +3185,94 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B18" s="4">
         <v>250</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B19" s="4">
         <v>250</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B20" s="4">
         <v>250</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
+      <c r="C20" t="s">
+        <v>155</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21" s="4">
         <f>SUM(B18:B20)</f>
@@ -3301,16 +3282,16 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>19</v>
@@ -3319,7 +3300,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B23" s="4">
         <f>B21</f>
@@ -3357,7 +3338,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B25" s="4">
         <f>SUM(B23:B24)</f>
@@ -3367,15 +3348,15 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3403,8 +3384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3440,18 +3421,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>19</v>
@@ -3459,7 +3440,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>19</v>
@@ -3467,7 +3448,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>19</v>
@@ -3475,7 +3456,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>19</v>
@@ -3483,76 +3464,82 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4">
         <v>2248</v>
       </c>
+      <c r="C6" t="s">
+        <v>221</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4">
         <v>6265</v>
       </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B6:B7)</f>
         <v>8513</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>19</v>
@@ -3560,74 +3547,80 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="4">
         <v>1388</v>
       </c>
+      <c r="C10" t="s">
+        <v>211</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4">
         <v>4953</v>
       </c>
+      <c r="C11" t="s">
+        <v>216</v>
+      </c>
       <c r="D11" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" s="4">
         <f>SUM(B10:B11)</f>
         <v>6341</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>19</v>
@@ -3635,74 +3628,80 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B14" s="4">
         <v>2202.0749999999998</v>
       </c>
+      <c r="C14" t="s">
+        <v>201</v>
+      </c>
       <c r="D14" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15" s="4">
         <v>2442.56</v>
       </c>
+      <c r="C15" t="s">
+        <v>206</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B16" s="4">
         <f>SUM(B14:B15)</f>
         <v>4644.6350000000002</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>19</v>
@@ -3710,7 +3709,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B18" s="4">
         <f>B7+B11+B15</f>
@@ -3725,7 +3724,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B19" s="4">
         <f>B6+B10+B14</f>
@@ -3740,22 +3739,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B20" s="4">
         <f>SUM(B18:B19)</f>
         <v>19498.634999999998</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>19</v>
@@ -3787,10 +3786,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -3798,7 +3797,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -3806,7 +3805,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -3814,7 +3813,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -3822,7 +3821,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -3830,13 +3829,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -3844,13 +3843,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -3858,13 +3857,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
@@ -3872,7 +3871,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -3880,7 +3879,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -3914,16 +3913,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -3931,7 +3930,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>19</v>
@@ -3939,7 +3938,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3951,7 +3950,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3963,7 +3962,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3975,7 +3974,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3987,7 +3986,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3999,7 +3998,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4011,7 +4010,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4023,7 +4022,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4038,16 +4037,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -4058,16 +4057,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -4075,19 +4074,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
@@ -4095,19 +4094,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
@@ -4115,19 +4114,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>5</v>
@@ -4135,19 +4134,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>5</v>
@@ -4162,8 +4161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4181,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -4198,7 +4197,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>19</v>
@@ -4206,7 +4205,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4218,7 +4217,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4230,7 +4229,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4242,7 +4241,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -4256,16 +4255,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -4276,16 +4275,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
@@ -4293,19 +4292,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -4313,19 +4312,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -4333,19 +4332,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -4353,19 +4352,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -4401,19 +4400,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -4424,7 +4423,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
@@ -4432,7 +4431,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4445,7 +4444,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4458,7 +4457,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4471,7 +4470,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B6" s="4"/>
       <c r="D6" s="4"/>
@@ -4483,7 +4482,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4"/>
       <c r="D7" s="4"/>
@@ -4495,70 +4494,70 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4571,122 +4570,122 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F13" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4699,96 +4698,96 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -4801,22 +4800,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -4824,22 +4823,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -4847,22 +4846,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -4896,36 +4895,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -4933,7 +4932,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -4941,7 +4940,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -4949,7 +4948,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -4957,7 +4956,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -4965,7 +4964,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -4973,7 +4972,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -4981,7 +4980,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -4989,7 +4988,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -4997,7 +4996,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -5005,7 +5004,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -5013,7 +5012,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
@@ -5021,7 +5020,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -5029,7 +5028,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -5037,82 +5036,82 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F16" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E17" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F17" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
@@ -5120,82 +5119,82 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C20" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F20" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I20" t="s">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" t="s">
-        <v>219</v>
-      </c>
-      <c r="F21" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>68</v>
       </c>
       <c r="I21" t="s">
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G23" t="s">
         <v>19</v>
@@ -5203,82 +5202,82 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E24" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I24" t="s">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
@@ -5286,7 +5285,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -5295,12 +5294,12 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -5309,18 +5308,18 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G30" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="J30" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5351,13 +5350,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -5368,7 +5367,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -5376,7 +5375,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -5384,7 +5383,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -5392,7 +5391,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -5400,7 +5399,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -5408,7 +5407,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -5416,58 +5415,58 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5478,98 +5477,98 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5580,73 +5579,73 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,8 @@
     <sheet name="regional_da_forecast" sheetId="14" r:id="rId13"/>
     <sheet name="ists_da_forecast" sheetId="15" r:id="rId14"/>
     <sheet name="state_da_forecast" sheetId="16" r:id="rId15"/>
-    <sheet name="graph_data" sheetId="5" r:id="rId16"/>
+    <sheet name="remc_graph_data" sheetId="5" r:id="rId16"/>
+    <sheet name="scada_graph_data" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ists_gen!$A$1:$I$25</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="329">
   <si>
     <t>name</t>
   </si>
@@ -89,12 +90,6 @@
     <t>actual_point</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045937</t>
-  </si>
-  <si>
-    <t>WREMCPRI.SCADA01.00033184</t>
-  </si>
-  <si>
     <t>installed_capacity</t>
   </si>
   <si>
@@ -182,15 +177,6 @@
     <t>pnt</t>
   </si>
   <si>
-    <t xml:space="preserve">WR ISTS Total Schedule </t>
-  </si>
-  <si>
-    <t>WR ISTS  Total Actual</t>
-  </si>
-  <si>
-    <t>WR ISTS  Total Actual Prev</t>
-  </si>
-  <si>
     <t>GIWEL II (Vadva)</t>
   </si>
   <si>
@@ -813,6 +799,237 @@
   </si>
   <si>
     <t>ists_combined</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>Regional Forecast</t>
+  </si>
+  <si>
+    <t>Regional Actual</t>
+  </si>
+  <si>
+    <t>Regional Actual Prev</t>
+  </si>
+  <si>
+    <t>Regional Solar Forecast</t>
+  </si>
+  <si>
+    <t>Regional Solar Actual</t>
+  </si>
+  <si>
+    <t>Regional Solar Actual Prev</t>
+  </si>
+  <si>
+    <t>Regional Wind Forecast</t>
+  </si>
+  <si>
+    <t>Regional Wind Actual</t>
+  </si>
+  <si>
+    <t>Regional Wind Actual Prev</t>
+  </si>
+  <si>
+    <t>ISTS Solar Forecast</t>
+  </si>
+  <si>
+    <t>ISTS Solar Actual</t>
+  </si>
+  <si>
+    <t>ISTS Solar Actual Prev</t>
+  </si>
+  <si>
+    <t>ISTS Wind Forecast</t>
+  </si>
+  <si>
+    <t>ISTS Wind Actual</t>
+  </si>
+  <si>
+    <t>ISTS Wind Actual Prev</t>
+  </si>
+  <si>
+    <t>ISTS Renewable Forecast</t>
+  </si>
+  <si>
+    <t>ISTS Renewable Actual</t>
+  </si>
+  <si>
+    <t>ISTS Renewable Actual Prev</t>
+  </si>
+  <si>
+    <t>OKWPL_RE-WIND_WIND_Act,RPL_SECI-II_RE-WIND_WIND_Act</t>
+  </si>
+  <si>
+    <t>OKWPL_RE-WIND_WIND_16,RPL_SECI-II_RE-WIND_WIND_16</t>
+  </si>
+  <si>
+    <t>Bachau Pooling Forecast</t>
+  </si>
+  <si>
+    <t>Bachau Pooling Actual</t>
+  </si>
+  <si>
+    <t>Bachau Pooling Actual Prev</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-II_RE-WIND_WIND_16,GIWEL_SECI-III_RE-WIND_WIND_16,IWISL-WIND_WIND_16,AGEMPL-WIND_WIND_16</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-II_RE-WIND_WIND_Act,GIWEL_SECI-III_RE-WIND_WIND_Act,IWISL-WIND_WIND_Act,AGEMPL-WIND_WIND_Act</t>
+  </si>
+  <si>
+    <t>Bhuj Pooling Forecast</t>
+  </si>
+  <si>
+    <t>Bhuj Pooling Actual</t>
+  </si>
+  <si>
+    <t>Bhuj Pooling Actual Prev</t>
+  </si>
+  <si>
+    <t>Arinsun_RUMS-SOLAR_SOLAR_16,Acme_RUMS-SOLAR_SOLAR_16,Mahindra_RUMS-SOLAR_SOLAR_16</t>
+  </si>
+  <si>
+    <t>Arinsun_RUMS-SOLAR_SOLAR_Act,Acme_RUMS-SOLAR_SOLAR_Act,Mahindra_RUMS-SOLAR_SOLAR_Act</t>
+  </si>
+  <si>
+    <t>Rewa Pooling Forecast</t>
+  </si>
+  <si>
+    <t>Rewa Pooling Actual</t>
+  </si>
+  <si>
+    <t>Rewa Pooling Actual Prev</t>
+  </si>
+  <si>
+    <t>Gujarat Renewable Forecast</t>
+  </si>
+  <si>
+    <t>Gujarat Renewable Actual</t>
+  </si>
+  <si>
+    <t>Gujarat Renewable Actual Prev</t>
+  </si>
+  <si>
+    <t>Gujarat_Gujarat_WIND _16,Gujarat_Gujarat_SOLAR _16</t>
+  </si>
+  <si>
+    <t>Gujarat_Gujarat_WIND _Act,Gujarat_Gujarat_SOLAR _Act</t>
+  </si>
+  <si>
+    <t>Gujarat Wind Forecast</t>
+  </si>
+  <si>
+    <t>Gujarat Wind Actual</t>
+  </si>
+  <si>
+    <t>Gujarat Wind Actual Prev</t>
+  </si>
+  <si>
+    <t>Gujarat Solar Forecast</t>
+  </si>
+  <si>
+    <t>Gujarat Solar Actual</t>
+  </si>
+  <si>
+    <t>Gujarat Solar Actual Prev</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Renewable Forecast</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Renewable Actual</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Renewable Actual Prev</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Wind Forecast</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Wind Actual</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Wind Actual Prev</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Solar Forecast</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Solar Actual</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Solar Actual Prev</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh_Madhya Pradesh_WIND _16,Madhya Pradesh_Madhya Pradesh_SOLAR _16</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh_Madhya Pradesh_WIND _Act,Madhya Pradesh_Madhya Pradesh_SOLAR _Act</t>
+  </si>
+  <si>
+    <t>Maharashtra Renewable Forecast</t>
+  </si>
+  <si>
+    <t>Maharashtra Renewable Actual</t>
+  </si>
+  <si>
+    <t>Maharashtra Renewable Actual Prev</t>
+  </si>
+  <si>
+    <t>Maharashtra Wind Forecast</t>
+  </si>
+  <si>
+    <t>Maharashtra Wind Actual</t>
+  </si>
+  <si>
+    <t>Maharashtra Wind Actual Prev</t>
+  </si>
+  <si>
+    <t>Maharashtra Solar Forecast</t>
+  </si>
+  <si>
+    <t>Maharashtra Solar Actual</t>
+  </si>
+  <si>
+    <t>Maharashtra Solar Actual Prev</t>
+  </si>
+  <si>
+    <t>Maharastra_Maharastra_WIND _16,Maharastra_Maharastra_SOLAR _16</t>
+  </si>
+  <si>
+    <t>Maharastra_Maharastra_WIND _Act,Maharastra_Maharastra_SOLAR _Act</t>
+  </si>
+  <si>
+    <t>fcaForecastVsActualStore</t>
+  </si>
+  <si>
+    <t>BACHHAU Bus 1 Voltage</t>
+  </si>
+  <si>
+    <t>BACHHAU Bus 2 Voltage</t>
+  </si>
+  <si>
+    <t>BHUJ Bus 1 Voltage</t>
+  </si>
+  <si>
+    <t>BHUJ Bus 2 Voltage</t>
+  </si>
+  <si>
+    <t>REWA Bus 1 Voltage</t>
+  </si>
+  <si>
+    <t>REWA Bus 2 Voltage</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00038817</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00016242</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00016227</t>
   </si>
 </sst>
 </file>
@@ -854,7 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -862,6 +1079,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1180,14 +1403,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="29" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="4"/>
@@ -1198,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1215,75 +1438,75 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B9" s="4">
         <v>14848.26</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -1291,19 +1514,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B10" s="4">
         <v>6588.0749999999998</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -1318,13 +1541,13 @@
         <v>21436.334999999999</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -1332,18 +1555,18 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1356,17 +1579,17 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1374,236 +1597,236 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
         <v>113</v>
-      </c>
-      <c r="C1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" t="s">
-        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1615,16 +1838,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1633,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
         <v>113</v>
-      </c>
-      <c r="C1" t="s">
-        <v>118</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1647,256 +1870,256 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1908,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,8 +2140,8 @@
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1926,207 +2149,207 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
         <v>113</v>
-      </c>
-      <c r="C1" t="s">
-        <v>118</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2138,14 +2361,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2156,72 +2380,72 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +2458,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -2261,258 +2485,258 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2524,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,215 +2770,215 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -2765,7 +2989,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -2776,13 +3000,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2792,72 +3016,888 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" t="s">
+        <v>319</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" t="s">
+        <v>319</v>
+      </c>
+      <c r="D28">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D30" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" t="s">
+        <v>319</v>
+      </c>
+      <c r="D32" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" t="s">
+        <v>319</v>
+      </c>
+      <c r="D33" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" t="s">
+        <v>319</v>
+      </c>
+      <c r="D34">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D35" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" t="s">
+        <v>319</v>
+      </c>
+      <c r="D36" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" t="s">
+        <v>319</v>
+      </c>
+      <c r="D37">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C38" t="s">
+        <v>319</v>
+      </c>
+      <c r="D38" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C39" t="s">
+        <v>319</v>
+      </c>
+      <c r="D39" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" t="s">
+        <v>319</v>
+      </c>
+      <c r="D41" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" t="s">
+        <v>319</v>
+      </c>
+      <c r="D42" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" t="s">
+        <v>319</v>
+      </c>
+      <c r="D43">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" t="s">
+        <v>319</v>
+      </c>
+      <c r="D44" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" t="s">
+        <v>319</v>
+      </c>
+      <c r="D45" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" t="s">
+        <v>319</v>
+      </c>
+      <c r="D46">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D47" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C48" t="s">
+        <v>319</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C49" t="s">
+        <v>319</v>
+      </c>
+      <c r="D49">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" t="s">
+        <v>319</v>
+      </c>
+      <c r="D50" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" t="s">
+        <v>319</v>
+      </c>
+      <c r="D51" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" t="s">
+        <v>319</v>
+      </c>
+      <c r="D52">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" t="s">
+        <v>319</v>
+      </c>
+      <c r="D53" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" t="s">
+        <v>319</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" t="s">
+        <v>319</v>
+      </c>
+      <c r="D55">
+        <v>-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2">
         <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="A3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3">
         <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-2</v>
+      <c r="A4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2869,14 +3909,15 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -2891,13 +3932,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -2912,367 +3953,367 @@
         <v>11</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1">
         <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>184.5</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1">
         <f>SUM(B7:B8)</f>
         <v>434.5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4">
         <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4">
         <v>226.8</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4">
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4">
         <v>176.4</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B11:B14)</f>
         <v>853.19999999999993</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B18" s="4">
         <v>250</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B19" s="4">
         <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B20" s="4">
         <v>250</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B21" s="4">
         <f>SUM(B18:B20)</f>
@@ -3282,25 +4323,25 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4">
         <f>B21</f>
@@ -3338,7 +4379,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B25" s="4">
         <f>SUM(B23:B24)</f>
@@ -3348,22 +4389,22 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3384,15 +4425,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -3406,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>9</v>
@@ -3421,295 +4463,295 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4">
         <v>2248</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4">
         <v>6265</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B6:B7)</f>
         <v>8513</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4">
         <v>1388</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4">
         <v>4953</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B12" s="4">
         <f>SUM(B10:B11)</f>
         <v>6341</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B14" s="4">
         <v>2202.0749999999998</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B15" s="4">
         <v>2442.56</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B16" s="4">
         <f>SUM(B14:B15)</f>
         <v>4644.6350000000002</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B18" s="4">
         <f>B7+B11+B15</f>
@@ -3724,7 +4766,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B19" s="4">
         <f>B6+B10+B14</f>
@@ -3739,25 +4781,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B20" s="4">
         <f>SUM(B18:B19)</f>
         <v>19498.634999999998</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3770,7 +4812,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3786,10 +4828,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -3797,45 +4839,45 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -3843,13 +4885,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -3857,13 +4899,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
@@ -3871,18 +4913,18 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3895,17 +4937,17 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3913,16 +4955,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -3930,106 +4972,106 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4037,16 +5079,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -4057,16 +5099,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -4074,19 +5116,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" t="s">
         <v>181</v>
-      </c>
-      <c r="B13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" t="s">
-        <v>186</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
@@ -4094,19 +5136,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
@@ -4114,19 +5156,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>5</v>
@@ -4134,19 +5176,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>5</v>
@@ -4162,17 +5204,17 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4180,16 +5222,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" t="s">
-        <v>118</v>
-      </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -4197,57 +5239,57 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4255,16 +5297,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -4275,16 +5317,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
@@ -4292,19 +5334,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" t="s">
         <v>181</v>
-      </c>
-      <c r="B9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" t="s">
-        <v>186</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -4312,19 +5354,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -4332,19 +5374,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -4352,19 +5394,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -4380,7 +5422,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:F25"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4400,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" t="s">
-        <v>118</v>
-      </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -4423,15 +5465,15 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4439,12 +5481,12 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4452,12 +5494,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4465,99 +5507,99 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4565,127 +5607,127 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4693,101 +5735,101 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -4795,27 +5837,27 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -4823,22 +5865,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -4846,22 +5888,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
         <v>117</v>
       </c>
-      <c r="B25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" t="s">
-        <v>122</v>
-      </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -4877,13 +5919,17 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:J30"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="22" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -4895,397 +5941,397 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" t="s">
-        <v>118</v>
-      </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F16" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E17" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F17" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I21" t="s">
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I24" t="s">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E25" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I25" t="s">
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -5294,12 +6340,12 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -5308,18 +6354,18 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G30" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="J30" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5332,16 +6378,16 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5350,13 +6396,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
         <v>113</v>
-      </c>
-      <c r="C1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" t="s">
-        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -5367,285 +6413,285 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ists_gen!$A$1:$I$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">remc_graph_data!$A$1:$C$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="330">
   <si>
     <t>name</t>
   </si>
@@ -1030,6 +1031,9 @@
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00016227</t>
+  </si>
+  <si>
+    <t>fcaForecastVsActualPrevStore</t>
   </si>
 </sst>
 </file>
@@ -3016,22 +3020,21 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3041,11 +3044,8 @@
       <c r="C1" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>253</v>
       </c>
@@ -3055,11 +3055,8 @@
       <c r="C2" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>254</v>
       </c>
@@ -3069,11 +3066,8 @@
       <c r="C3" t="s">
         <v>319</v>
       </c>
-      <c r="D3" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>255</v>
       </c>
@@ -3081,13 +3075,10 @@
         <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>256</v>
       </c>
@@ -3097,11 +3088,8 @@
       <c r="C5" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>257</v>
       </c>
@@ -3111,11 +3099,8 @@
       <c r="C6" t="s">
         <v>319</v>
       </c>
-      <c r="D6" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>258</v>
       </c>
@@ -3123,13 +3108,10 @@
         <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D7">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>259</v>
       </c>
@@ -3139,11 +3121,8 @@
       <c r="C8" t="s">
         <v>319</v>
       </c>
-      <c r="D8" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>260</v>
       </c>
@@ -3153,11 +3132,8 @@
       <c r="C9" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>261</v>
       </c>
@@ -3165,13 +3141,10 @@
         <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>319</v>
-      </c>
-      <c r="D10">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>268</v>
       </c>
@@ -3181,11 +3154,8 @@
       <c r="C11" t="s">
         <v>319</v>
       </c>
-      <c r="D11" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>269</v>
       </c>
@@ -3195,11 +3165,8 @@
       <c r="C12" t="s">
         <v>319</v>
       </c>
-      <c r="D12" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>270</v>
       </c>
@@ -3207,13 +3174,10 @@
         <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
-      </c>
-      <c r="D13">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>262</v>
       </c>
@@ -3223,11 +3187,8 @@
       <c r="C14" t="s">
         <v>319</v>
       </c>
-      <c r="D14" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>263</v>
       </c>
@@ -3237,11 +3198,8 @@
       <c r="C15" t="s">
         <v>319</v>
       </c>
-      <c r="D15" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>264</v>
       </c>
@@ -3249,13 +3207,10 @@
         <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>265</v>
       </c>
@@ -3265,11 +3220,8 @@
       <c r="C17" t="s">
         <v>319</v>
       </c>
-      <c r="D17" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>266</v>
       </c>
@@ -3279,11 +3231,8 @@
       <c r="C18" t="s">
         <v>319</v>
       </c>
-      <c r="D18" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>267</v>
       </c>
@@ -3291,13 +3240,10 @@
         <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>319</v>
-      </c>
-      <c r="D19">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>273</v>
       </c>
@@ -3307,11 +3253,8 @@
       <c r="C20" t="s">
         <v>319</v>
       </c>
-      <c r="D20" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>274</v>
       </c>
@@ -3321,11 +3264,8 @@
       <c r="C21" t="s">
         <v>319</v>
       </c>
-      <c r="D21" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>275</v>
       </c>
@@ -3333,13 +3273,10 @@
         <v>271</v>
       </c>
       <c r="C22" t="s">
-        <v>319</v>
-      </c>
-      <c r="D22">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>278</v>
       </c>
@@ -3349,11 +3286,8 @@
       <c r="C23" t="s">
         <v>319</v>
       </c>
-      <c r="D23" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>279</v>
       </c>
@@ -3363,11 +3297,8 @@
       <c r="C24" t="s">
         <v>319</v>
       </c>
-      <c r="D24" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>280</v>
       </c>
@@ -3375,13 +3306,10 @@
         <v>277</v>
       </c>
       <c r="C25" t="s">
-        <v>319</v>
-      </c>
-      <c r="D25">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>283</v>
       </c>
@@ -3391,11 +3319,8 @@
       <c r="C26" t="s">
         <v>319</v>
       </c>
-      <c r="D26" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>284</v>
       </c>
@@ -3405,11 +3330,8 @@
       <c r="C27" t="s">
         <v>319</v>
       </c>
-      <c r="D27" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>285</v>
       </c>
@@ -3417,13 +3339,10 @@
         <v>282</v>
       </c>
       <c r="C28" t="s">
-        <v>319</v>
-      </c>
-      <c r="D28">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>286</v>
       </c>
@@ -3433,11 +3352,8 @@
       <c r="C29" t="s">
         <v>319</v>
       </c>
-      <c r="D29" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>287</v>
       </c>
@@ -3447,11 +3363,8 @@
       <c r="C30" t="s">
         <v>319</v>
       </c>
-      <c r="D30" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -3459,13 +3372,10 @@
         <v>290</v>
       </c>
       <c r="C31" t="s">
-        <v>319</v>
-      </c>
-      <c r="D31">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>291</v>
       </c>
@@ -3475,11 +3385,8 @@
       <c r="C32" t="s">
         <v>319</v>
       </c>
-      <c r="D32" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>292</v>
       </c>
@@ -3489,11 +3396,8 @@
       <c r="C33" t="s">
         <v>319</v>
       </c>
-      <c r="D33" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>293</v>
       </c>
@@ -3501,13 +3405,10 @@
         <v>219</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
-      </c>
-      <c r="D34">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>294</v>
       </c>
@@ -3517,11 +3418,8 @@
       <c r="C35" t="s">
         <v>319</v>
       </c>
-      <c r="D35" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>295</v>
       </c>
@@ -3531,11 +3429,8 @@
       <c r="C36" t="s">
         <v>319</v>
       </c>
-      <c r="D36" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>296</v>
       </c>
@@ -3543,13 +3438,10 @@
         <v>214</v>
       </c>
       <c r="C37" t="s">
-        <v>319</v>
-      </c>
-      <c r="D37">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>297</v>
       </c>
@@ -3559,11 +3451,8 @@
       <c r="C38" t="s">
         <v>319</v>
       </c>
-      <c r="D38" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>298</v>
       </c>
@@ -3573,11 +3462,8 @@
       <c r="C39" t="s">
         <v>319</v>
       </c>
-      <c r="D39" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>299</v>
       </c>
@@ -3585,13 +3471,10 @@
         <v>307</v>
       </c>
       <c r="C40" t="s">
-        <v>319</v>
-      </c>
-      <c r="D40">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>300</v>
       </c>
@@ -3601,11 +3484,8 @@
       <c r="C41" t="s">
         <v>319</v>
       </c>
-      <c r="D41" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>301</v>
       </c>
@@ -3615,11 +3495,8 @@
       <c r="C42" t="s">
         <v>319</v>
       </c>
-      <c r="D42" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>302</v>
       </c>
@@ -3627,13 +3504,10 @@
         <v>199</v>
       </c>
       <c r="C43" t="s">
-        <v>319</v>
-      </c>
-      <c r="D43">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>303</v>
       </c>
@@ -3643,11 +3517,8 @@
       <c r="C44" t="s">
         <v>319</v>
       </c>
-      <c r="D44" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>304</v>
       </c>
@@ -3657,11 +3528,8 @@
       <c r="C45" t="s">
         <v>319</v>
       </c>
-      <c r="D45" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>305</v>
       </c>
@@ -3669,13 +3537,10 @@
         <v>194</v>
       </c>
       <c r="C46" t="s">
-        <v>319</v>
-      </c>
-      <c r="D46">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>308</v>
       </c>
@@ -3685,11 +3550,8 @@
       <c r="C47" t="s">
         <v>319</v>
       </c>
-      <c r="D47" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>309</v>
       </c>
@@ -3699,11 +3561,8 @@
       <c r="C48" t="s">
         <v>319</v>
       </c>
-      <c r="D48" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>310</v>
       </c>
@@ -3711,13 +3570,10 @@
         <v>318</v>
       </c>
       <c r="C49" t="s">
-        <v>319</v>
-      </c>
-      <c r="D49">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>311</v>
       </c>
@@ -3727,11 +3583,8 @@
       <c r="C50" t="s">
         <v>319</v>
       </c>
-      <c r="D50" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>312</v>
       </c>
@@ -3741,11 +3594,8 @@
       <c r="C51" t="s">
         <v>319</v>
       </c>
-      <c r="D51" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>313</v>
       </c>
@@ -3753,13 +3603,10 @@
         <v>209</v>
       </c>
       <c r="C52" t="s">
-        <v>319</v>
-      </c>
-      <c r="D52">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>314</v>
       </c>
@@ -3769,11 +3616,8 @@
       <c r="C53" t="s">
         <v>319</v>
       </c>
-      <c r="D53" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>315</v>
       </c>
@@ -3783,11 +3627,8 @@
       <c r="C54" t="s">
         <v>319</v>
       </c>
-      <c r="D54" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>316</v>
       </c>
@@ -3795,10 +3636,7 @@
         <v>204</v>
       </c>
       <c r="C55" t="s">
-        <v>319</v>
-      </c>
-      <c r="D55">
-        <v>-2</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3811,7 +3649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ists_gen!$A$1:$I$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">remc_graph_data!$A$1:$C$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="334">
   <si>
     <t>name</t>
   </si>
@@ -1034,6 +1034,18 @@
   </si>
   <si>
     <t>fcaForecastVsActualPrevStore</t>
+  </si>
+  <si>
+    <t>Hrs</t>
+  </si>
+  <si>
+    <t>Time Stamp</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>HRS</t>
   </si>
 </sst>
 </file>
@@ -3020,10 +3032,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,10 +3059,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>178</v>
+        <v>330</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="C2" t="s">
         <v>319</v>
@@ -3058,10 +3070,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
         <v>319</v>
@@ -3069,32 +3081,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>179</v>
       </c>
       <c r="C4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
         <v>319</v>
@@ -3102,32 +3114,32 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>319</v>
@@ -3135,32 +3147,32 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>189</v>
       </c>
       <c r="C10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
         <v>319</v>
@@ -3168,32 +3180,32 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
         <v>319</v>
@@ -3201,32 +3213,32 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
         <v>319</v>
@@ -3234,32 +3246,32 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
         <v>319</v>
@@ -3267,32 +3279,32 @@
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>271</v>
       </c>
       <c r="C22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C23" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C24" t="s">
         <v>319</v>
@@ -3300,32 +3312,32 @@
     </row>
     <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C26" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C27" t="s">
         <v>319</v>
@@ -3333,32 +3345,32 @@
     </row>
     <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C29" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C30" t="s">
         <v>319</v>
@@ -3366,32 +3378,32 @@
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>290</v>
       </c>
       <c r="C31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C33" t="s">
         <v>319</v>
@@ -3399,32 +3411,32 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>219</v>
       </c>
       <c r="C34" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C35" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C36" t="s">
         <v>319</v>
@@ -3432,32 +3444,32 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>214</v>
       </c>
       <c r="C37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="C38" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="C39" t="s">
         <v>319</v>
@@ -3465,32 +3477,32 @@
     </row>
     <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>307</v>
       </c>
       <c r="C40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C41" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C41" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C42" t="s">
         <v>319</v>
@@ -3498,32 +3510,32 @@
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>199</v>
       </c>
       <c r="C43" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C44" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
         <v>319</v>
@@ -3531,32 +3543,32 @@
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>194</v>
       </c>
       <c r="C46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C47" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C48" t="s">
         <v>319</v>
@@ -3564,32 +3576,32 @@
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>318</v>
       </c>
       <c r="C49" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C50" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C50" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C51" t="s">
         <v>319</v>
@@ -3597,32 +3609,32 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C52" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C54" t="s">
         <v>319</v>
@@ -3630,12 +3642,23 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>204</v>
       </c>
       <c r="C55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3647,10 +3670,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3673,10 +3696,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>333</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -3684,10 +3707,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -3695,10 +3718,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>328</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -3706,10 +3729,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -3717,10 +3740,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>326</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -3728,12 +3751,23 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>325</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>327</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>-1</v>
       </c>
     </row>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="322">
   <si>
     <t>name</t>
   </si>
@@ -100,21 +100,12 @@
     <t>dummy</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00032758</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00045850</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00032759</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00045848</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00032413</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00045849</t>
   </si>
   <si>
@@ -247,52 +238,25 @@
     <t>WREMCPRI.SCADA01.00046856</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045838</t>
-  </si>
-  <si>
-    <t>WREMCPRI.SCADA01.00045839</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00046855</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045841</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00032726</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00046640</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00046641</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00030482</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00045845</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00037226</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00045846</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00030481</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00045847</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045558</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00045844</t>
-  </si>
-  <si>
-    <t>WREMCPRI.SCADA01.00032415</t>
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00045843</t>
@@ -1419,7 +1383,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1418,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
@@ -1462,7 +1426,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
@@ -1470,7 +1434,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>17</v>
@@ -1478,7 +1442,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>17</v>
@@ -1486,7 +1450,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>17</v>
@@ -1494,7 +1458,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>17</v>
@@ -1502,7 +1466,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>17</v>
@@ -1510,19 +1474,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B9" s="4">
         <v>14848.26</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>67</v>
+        <v>179</v>
+      </c>
+      <c r="D9" t="s">
+        <v>177</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -1530,19 +1494,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B10" s="4">
         <v>6588.0749999999998</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>68</v>
+        <v>174</v>
+      </c>
+      <c r="D10" t="s">
+        <v>172</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -1557,13 +1521,13 @@
         <v>21436.334999999999</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>169</v>
+      </c>
+      <c r="D11" t="s">
+        <v>167</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -1571,7 +1535,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>17</v>
@@ -1579,7 +1543,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>17</v>
@@ -1613,24 +1577,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1638,7 +1602,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1646,7 +1610,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -1654,7 +1618,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1662,7 +1626,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1670,7 +1634,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1678,58 +1642,58 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -1737,58 +1701,58 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -1796,53 +1760,53 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1872,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1886,7 +1850,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1894,7 +1858,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1902,7 +1866,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1910,7 +1874,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1918,7 +1882,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1926,7 +1890,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1934,52 +1898,52 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1989,86 +1953,86 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2078,64 +2042,64 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2165,21 +2129,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -2187,7 +2151,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -2195,7 +2159,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2203,7 +2167,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -2211,7 +2175,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -2219,52 +2183,52 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -2272,52 +2236,52 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -2325,47 +2289,47 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2396,12 +2360,12 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -2409,7 +2373,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -2417,7 +2381,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -2425,7 +2389,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -2433,35 +2397,35 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -2501,7 +2465,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -2509,7 +2473,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -2517,7 +2481,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -2525,7 +2489,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -2533,7 +2497,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -2541,46 +2505,46 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -2588,74 +2552,74 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -2663,60 +2627,60 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -2724,35 +2688,35 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2786,21 +2750,21 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -2808,7 +2772,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -2816,58 +2780,58 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -2875,58 +2839,58 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -2935,58 +2899,58 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -2994,7 +2958,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -3005,7 +2969,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -3016,13 +2980,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3051,615 +3015,615 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C21" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C22" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C23" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C24" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C27" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C28" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C30" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C31" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C32" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C35" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C36" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C38" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C39" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C40" t="s">
         <v>307</v>
-      </c>
-      <c r="C40" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C41" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C42" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C48" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C49" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C50" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C51" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C52" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C54" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C55" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C56" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3672,7 +3636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3688,18 +3652,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -3707,10 +3671,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -3718,10 +3682,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -3729,10 +3693,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -3740,10 +3704,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -3751,10 +3715,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -3762,10 +3726,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -3780,8 +3744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3789,7 +3753,8 @@
     <col min="1" max="1" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -3825,12 +3790,12 @@
         <v>11</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -3838,7 +3803,7 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>17</v>
@@ -3846,7 +3811,7 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>17</v>
@@ -3854,7 +3819,7 @@
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
@@ -3862,7 +3827,7 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>17</v>
@@ -3870,80 +3835,81 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
         <v>184.5</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>143</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <f>SUM(B7:B8)</f>
         <v>434.5</v>
       </c>
+      <c r="D9"/>
       <c r="F9" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>17</v>
@@ -3951,146 +3917,148 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" s="4">
         <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>78</v>
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4">
         <v>226.8</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>158</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4">
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>74</v>
+        <v>153</v>
+      </c>
+      <c r="D13" t="s">
+        <v>151</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4">
         <v>176.4</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>72</v>
+        <v>163</v>
+      </c>
+      <c r="D14" t="s">
+        <v>161</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B11:B14)</f>
         <v>853.19999999999993</v>
       </c>
+      <c r="D15"/>
       <c r="F15" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="F16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>17</v>
@@ -4098,94 +4066,94 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B18" s="4">
         <v>250</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B19" s="4">
         <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B20" s="4">
         <v>250</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>22</v>
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" s="4">
         <f>SUM(B18:B20)</f>
@@ -4195,17 +4163,18 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D22"/>
       <c r="F22" s="4" t="s">
         <v>17</v>
       </c>
@@ -4213,14 +4182,14 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B23" s="4">
         <f>B21</f>
         <v>750</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="D23"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
         <v>13</v>
@@ -4239,7 +4208,7 @@
         <v>1287.6999999999998</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
         <v>13</v>
@@ -4251,7 +4220,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B25" s="4">
         <f>SUM(B23:B24)</f>
@@ -4261,15 +4230,15 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -4335,18 +4304,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>17</v>
@@ -4354,7 +4323,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>17</v>
@@ -4362,7 +4331,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>17</v>
@@ -4370,7 +4339,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
@@ -4378,82 +4347,82 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4">
         <v>2248</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4">
         <v>6265</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B6:B7)</f>
         <v>8513</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>17</v>
@@ -4461,80 +4430,80 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4">
         <v>1388</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B11" s="4">
         <v>4953</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" s="4">
         <f>SUM(B10:B11)</f>
         <v>6341</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>17</v>
@@ -4542,80 +4511,80 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="4">
         <v>2202.0749999999998</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B15" s="4">
         <v>2442.56</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4">
         <f>SUM(B14:B15)</f>
         <v>4644.6350000000002</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>17</v>
@@ -4623,7 +4592,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B18" s="4">
         <f>B7+B11+B15</f>
@@ -4638,7 +4607,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B19" s="4">
         <f>B6+B10+B14</f>
@@ -4653,22 +4622,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B20" s="4">
         <f>SUM(B18:B19)</f>
         <v>19498.634999999998</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>17</v>
@@ -4700,10 +4669,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -4711,7 +4680,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -4719,7 +4688,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -4727,7 +4696,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -4735,7 +4704,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -4743,13 +4712,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -4757,13 +4726,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -4771,13 +4740,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
@@ -4785,7 +4754,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -4793,7 +4762,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -4827,16 +4796,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -4844,7 +4813,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
@@ -4852,7 +4821,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4864,7 +4833,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4876,7 +4845,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4888,7 +4857,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4900,7 +4869,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4912,7 +4881,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4924,7 +4893,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4936,7 +4905,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4951,16 +4920,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -4971,16 +4940,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -4988,19 +4957,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
@@ -5008,19 +4977,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
@@ -5028,19 +4997,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>5</v>
@@ -5048,19 +5017,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>5</v>
@@ -5076,7 +5045,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5094,16 +5063,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -5111,7 +5080,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
@@ -5119,7 +5088,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -5131,7 +5100,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5143,7 +5112,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5155,7 +5124,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -5169,16 +5138,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -5189,16 +5158,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
@@ -5206,19 +5175,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -5226,19 +5195,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -5246,19 +5215,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -5266,19 +5235,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -5294,7 +5263,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D8" sqref="D8:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5314,19 +5283,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -5337,7 +5306,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -5345,7 +5314,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -5358,7 +5327,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5371,7 +5340,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5384,7 +5353,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B6" s="4"/>
       <c r="D6" s="4"/>
@@ -5396,7 +5365,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B7" s="4"/>
       <c r="D7" s="4"/>
@@ -5408,70 +5377,70 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5484,122 +5453,122 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5612,96 +5581,96 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -5714,22 +5683,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -5737,22 +5706,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
         <v>111</v>
       </c>
-      <c r="B24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" t="s">
-        <v>123</v>
-      </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -5760,22 +5729,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -5813,36 +5782,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -5850,7 +5819,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -5858,7 +5827,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -5866,7 +5835,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -5874,7 +5843,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -5882,7 +5851,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -5890,7 +5859,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -5898,7 +5867,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -5906,7 +5875,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -5914,7 +5883,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -5922,7 +5891,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -5930,7 +5899,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -5938,7 +5907,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -5946,7 +5915,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -5954,82 +5923,82 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E16" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F16" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F17" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -6037,82 +6006,82 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I20" t="s">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
         <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" t="s">
-        <v>205</v>
-      </c>
-      <c r="F21" t="s">
-        <v>206</v>
-      </c>
-      <c r="G21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>60</v>
       </c>
       <c r="I21" t="s">
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
@@ -6120,82 +6089,82 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C24" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I24" t="s">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I25" t="s">
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -6203,7 +6172,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -6212,12 +6181,12 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -6226,18 +6195,18 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="J30" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6268,13 +6237,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -6285,7 +6254,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -6293,7 +6262,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -6301,7 +6270,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -6309,7 +6278,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -6317,7 +6286,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -6325,7 +6294,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -6333,58 +6302,58 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -6395,98 +6364,98 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -6497,73 +6466,73 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="322">
   <si>
     <t>name</t>
   </si>
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,22 +1816,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1839,64 +1840,72 @@
         <v>96</v>
       </c>
       <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1904,16 +1913,19 @@
         <v>120</v>
       </c>
       <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1921,37 +1933,41 @@
         <v>140</v>
       </c>
       <c r="C9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1959,16 +1975,19 @@
         <v>145</v>
       </c>
       <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1976,16 +1995,19 @@
         <v>155</v>
       </c>
       <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1993,16 +2015,19 @@
         <v>150</v>
       </c>
       <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2010,37 +2035,41 @@
         <v>160</v>
       </c>
       <c r="C15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -2048,16 +2077,19 @@
         <v>130</v>
       </c>
       <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
         <v>131</v>
       </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
       <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -2065,16 +2097,19 @@
         <v>125</v>
       </c>
       <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
         <v>126</v>
       </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
       <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -2082,25 +2117,31 @@
         <v>135</v>
       </c>
       <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
         <v>136</v>
       </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
       <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2109,22 +2150,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2132,56 +2174,59 @@
         <v>96</v>
       </c>
       <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2189,16 +2234,19 @@
         <v>206</v>
       </c>
       <c r="C7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" t="s">
         <v>207</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
       <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2206,35 +2254,38 @@
         <v>201</v>
       </c>
       <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" t="s">
         <v>202</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
       <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2242,16 +2293,19 @@
         <v>196</v>
       </c>
       <c r="C11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" t="s">
         <v>197</v>
       </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
       <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2259,35 +2313,38 @@
         <v>191</v>
       </c>
       <c r="C12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" t="s">
         <v>192</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
       <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -2295,16 +2352,19 @@
         <v>186</v>
       </c>
       <c r="C15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" t="s">
         <v>187</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
       <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>59</v>
       </c>
@@ -2312,23 +2372,26 @@
         <v>181</v>
       </c>
       <c r="C16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" t="s">
         <v>182</v>
       </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
       <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3744,7 +3807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -5263,7 +5326,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D25"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5760,7 +5823,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="322">
   <si>
     <t>name</t>
   </si>
@@ -2152,7 +2152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2789,10 +2789,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2843,39 +2843,27 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>82</v>
@@ -2883,58 +2871,58 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>81</v>
+      <c r="A7" t="s">
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>55</v>
+      <c r="A8" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>82</v>
@@ -2942,113 +2930,133 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>233</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>81</v>
+      <c r="A11" t="s">
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>232</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>231</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>61</v>
+      <c r="A14" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>231</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>81</v>
+      <c r="A15" t="s">
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>88</v>
+      <c r="A16" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>86</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>85</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>82</v>
       </c>
     </row>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ists_gen!$A$1:$I$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -769,54 +769,36 @@
     <t>store</t>
   </si>
   <si>
-    <t>Regional Forecast</t>
-  </si>
-  <si>
     <t>Regional Actual</t>
   </si>
   <si>
     <t>Regional Actual Prev</t>
   </si>
   <si>
-    <t>Regional Solar Forecast</t>
-  </si>
-  <si>
     <t>Regional Solar Actual</t>
   </si>
   <si>
     <t>Regional Solar Actual Prev</t>
   </si>
   <si>
-    <t>Regional Wind Forecast</t>
-  </si>
-  <si>
     <t>Regional Wind Actual</t>
   </si>
   <si>
     <t>Regional Wind Actual Prev</t>
   </si>
   <si>
-    <t>ISTS Solar Forecast</t>
-  </si>
-  <si>
     <t>ISTS Solar Actual</t>
   </si>
   <si>
     <t>ISTS Solar Actual Prev</t>
   </si>
   <si>
-    <t>ISTS Wind Forecast</t>
-  </si>
-  <si>
     <t>ISTS Wind Actual</t>
   </si>
   <si>
     <t>ISTS Wind Actual Prev</t>
   </si>
   <si>
-    <t>ISTS Renewable Forecast</t>
-  </si>
-  <si>
     <t>ISTS Renewable Actual</t>
   </si>
   <si>
@@ -829,9 +811,6 @@
     <t>OKWPL_RE-WIND_WIND_16,RPL_SECI-II_RE-WIND_WIND_16</t>
   </si>
   <si>
-    <t>Bachau Pooling Forecast</t>
-  </si>
-  <si>
     <t>Bachau Pooling Actual</t>
   </si>
   <si>
@@ -844,9 +823,6 @@
     <t>GIWEL_SECI-II_RE-WIND_WIND_Act,GIWEL_SECI-III_RE-WIND_WIND_Act,IWISL-WIND_WIND_Act,AGEMPL-WIND_WIND_Act</t>
   </si>
   <si>
-    <t>Bhuj Pooling Forecast</t>
-  </si>
-  <si>
     <t>Bhuj Pooling Actual</t>
   </si>
   <si>
@@ -859,18 +835,12 @@
     <t>Arinsun_RUMS-SOLAR_SOLAR_Act,Acme_RUMS-SOLAR_SOLAR_Act,Mahindra_RUMS-SOLAR_SOLAR_Act</t>
   </si>
   <si>
-    <t>Rewa Pooling Forecast</t>
-  </si>
-  <si>
     <t>Rewa Pooling Actual</t>
   </si>
   <si>
     <t>Rewa Pooling Actual Prev</t>
   </si>
   <si>
-    <t>Gujarat Renewable Forecast</t>
-  </si>
-  <si>
     <t>Gujarat Renewable Actual</t>
   </si>
   <si>
@@ -883,45 +853,30 @@
     <t>Gujarat_Gujarat_WIND _Act,Gujarat_Gujarat_SOLAR _Act</t>
   </si>
   <si>
-    <t>Gujarat Wind Forecast</t>
-  </si>
-  <si>
     <t>Gujarat Wind Actual</t>
   </si>
   <si>
     <t>Gujarat Wind Actual Prev</t>
   </si>
   <si>
-    <t>Gujarat Solar Forecast</t>
-  </si>
-  <si>
     <t>Gujarat Solar Actual</t>
   </si>
   <si>
     <t>Gujarat Solar Actual Prev</t>
   </si>
   <si>
-    <t>Madhya Pradesh Renewable Forecast</t>
-  </si>
-  <si>
     <t>Madhya Pradesh Renewable Actual</t>
   </si>
   <si>
     <t>Madhya Pradesh Renewable Actual Prev</t>
   </si>
   <si>
-    <t>Madhya Pradesh Wind Forecast</t>
-  </si>
-  <si>
     <t>Madhya Pradesh Wind Actual</t>
   </si>
   <si>
     <t>Madhya Pradesh Wind Actual Prev</t>
   </si>
   <si>
-    <t>Madhya Pradesh Solar Forecast</t>
-  </si>
-  <si>
     <t>Madhya Pradesh Solar Actual</t>
   </si>
   <si>
@@ -934,27 +889,18 @@
     <t>Madhya Pradesh_Madhya Pradesh_WIND _Act,Madhya Pradesh_Madhya Pradesh_SOLAR _Act</t>
   </si>
   <si>
-    <t>Maharashtra Renewable Forecast</t>
-  </si>
-  <si>
     <t>Maharashtra Renewable Actual</t>
   </si>
   <si>
     <t>Maharashtra Renewable Actual Prev</t>
   </si>
   <si>
-    <t>Maharashtra Wind Forecast</t>
-  </si>
-  <si>
     <t>Maharashtra Wind Actual</t>
   </si>
   <si>
     <t>Maharashtra Wind Actual Prev</t>
   </si>
   <si>
-    <t>Maharashtra Solar Forecast</t>
-  </si>
-  <si>
     <t>Maharashtra Solar Actual</t>
   </si>
   <si>
@@ -1010,6 +956,60 @@
   </si>
   <si>
     <t>HRS</t>
+  </si>
+  <si>
+    <t>Regional Forecast R16</t>
+  </si>
+  <si>
+    <t>Regional Solar Forecast R16</t>
+  </si>
+  <si>
+    <t>Regional Wind Forecast R16</t>
+  </si>
+  <si>
+    <t>ISTS Renewable Forecast R16</t>
+  </si>
+  <si>
+    <t>ISTS Solar Forecast R16</t>
+  </si>
+  <si>
+    <t>ISTS Wind Forecast R16</t>
+  </si>
+  <si>
+    <t>Bachau Pooling Forecast R16</t>
+  </si>
+  <si>
+    <t>Bhuj Pooling Forecast R16</t>
+  </si>
+  <si>
+    <t>Rewa Pooling Forecast R16</t>
+  </si>
+  <si>
+    <t>Gujarat Renewable Forecast R16</t>
+  </si>
+  <si>
+    <t>Gujarat Wind Forecast R16</t>
+  </si>
+  <si>
+    <t>Gujarat Solar Forecast R16</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Renewable Forecast R16</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Wind Forecast R16</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Solar Forecast R16</t>
+  </si>
+  <si>
+    <t>Maharashtra Renewable Forecast R16</t>
+  </si>
+  <si>
+    <t>Maharashtra Wind Forecast R16</t>
+  </si>
+  <si>
+    <t>Maharashtra Solar Forecast R16</t>
   </si>
 </sst>
 </file>
@@ -1382,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3070,7 +3070,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3094,607 +3094,607 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C21" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C22" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C24" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C25" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C26" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C27" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C28" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C29" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C31" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C32" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C33" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C34" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C35" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>201</v>
       </c>
       <c r="C36" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>202</v>
       </c>
       <c r="C38" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C39" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C40" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C41" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>186</v>
       </c>
       <c r="C42" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>187</v>
       </c>
       <c r="C44" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>181</v>
       </c>
       <c r="C45" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>182</v>
       </c>
       <c r="C47" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C48" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C49" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C50" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>196</v>
       </c>
       <c r="C51" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>197</v>
       </c>
       <c r="C52" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>197</v>
       </c>
       <c r="C53" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>191</v>
       </c>
       <c r="C54" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>192</v>
       </c>
       <c r="C55" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>192</v>
       </c>
       <c r="C56" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3731,10 +3731,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
         <v>79</v>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -3797,10 +3797,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -5116,7 +5116,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5269,7 +5269,7 @@
         <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
@@ -5289,7 +5289,7 @@
         <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
         <v>111</v>
@@ -5309,7 +5309,7 @@
         <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
         <v>106</v>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -1382,7 +1382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3816,7 +3816,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4020,7 +4020,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="4">
-        <v>226.8</v>
+        <v>300</v>
       </c>
       <c r="C12" t="s">
         <v>158</v>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="B15" s="4">
         <f>SUM(B11:B14)</f>
-        <v>853.19999999999993</v>
+        <v>926.4</v>
       </c>
       <c r="D15"/>
       <c r="F15" s="4" t="s">
@@ -4275,8 +4275,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="4">
-        <f>B9+B15</f>
-        <v>1287.6999999999998</v>
+        <v>1361</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24"/>
@@ -4295,7 +4294,7 @@
       </c>
       <c r="B25" s="4">
         <f>SUM(B23:B24)</f>
-        <v>2037.6999999999998</v>
+        <v>2111</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -4337,8 +4336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4533,7 +4532,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="4">
-        <v>4953</v>
+        <v>5000</v>
       </c>
       <c r="C11" t="s">
         <v>199</v>
@@ -4563,7 +4562,7 @@
       </c>
       <c r="B12" s="4">
         <f>SUM(B10:B11)</f>
-        <v>6341</v>
+        <v>6388</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>26</v>
@@ -4585,7 +4584,7 @@
         <v>59</v>
       </c>
       <c r="B14" s="4">
-        <v>2202.0749999999998</v>
+        <v>1530</v>
       </c>
       <c r="C14" t="s">
         <v>184</v>
@@ -4644,7 +4643,7 @@
       </c>
       <c r="B16" s="4">
         <f>SUM(B14:B15)</f>
-        <v>4644.6350000000002</v>
+        <v>3972.56</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>26</v>
@@ -4667,7 +4666,7 @@
       </c>
       <c r="B18" s="4">
         <f>B7+B11+B15</f>
-        <v>13660.56</v>
+        <v>13707.56</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -4682,7 +4681,7 @@
       </c>
       <c r="B19" s="4">
         <f>B6+B10+B14</f>
-        <v>5838.0749999999998</v>
+        <v>5166</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
@@ -4697,7 +4696,7 @@
       </c>
       <c r="B20" s="4">
         <f>SUM(B18:B19)</f>
-        <v>19498.634999999998</v>
+        <v>18873.559999999998</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>85</v>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ists_gen!$A$1:$I$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="317">
   <si>
     <t>name</t>
   </si>
@@ -130,15 +130,9 @@
     <t>WREMCPRI.SCADA01.00046848</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045129</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00046847</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045630</t>
-  </si>
-  <si>
     <t>400_kv_pnt</t>
   </si>
   <si>
@@ -262,19 +256,10 @@
     <t>WREMCPRI.SCADA01.00045843</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00037566</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00046845</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00037565</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00046846</t>
-  </si>
-  <si>
-    <t>WREMCPRI.SCADA01.00034364</t>
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00033787</t>
@@ -1418,7 +1403,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
@@ -1426,7 +1411,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
@@ -1434,7 +1419,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>17</v>
@@ -1442,7 +1427,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>17</v>
@@ -1450,7 +1435,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>17</v>
@@ -1458,7 +1443,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>17</v>
@@ -1466,7 +1451,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>17</v>
@@ -1474,19 +1459,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B9" s="4">
         <v>14848.26</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -1494,19 +1479,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B10" s="4">
         <v>6588.0749999999998</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -1521,13 +1506,13 @@
         <v>21436.334999999999</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -1535,7 +1520,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>17</v>
@@ -1543,7 +1528,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>17</v>
@@ -1577,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1594,7 +1579,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1602,7 +1587,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1610,7 +1595,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -1618,7 +1603,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1626,7 +1611,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1634,7 +1619,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1645,13 +1630,13 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -1665,13 +1650,13 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -1693,7 +1678,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -1701,58 +1686,58 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
         <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -1760,53 +1745,53 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1837,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1854,7 +1839,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1862,7 +1847,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" t="s">
@@ -1871,7 +1856,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" t="s">
@@ -1880,7 +1865,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" t="s">
@@ -1889,7 +1874,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4"/>
       <c r="E6" t="s">
@@ -1898,7 +1883,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C7" s="4"/>
       <c r="E7" t="s">
@@ -1907,58 +1892,58 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1969,98 +1954,98 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2071,73 +2056,73 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,13 +2156,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -2188,7 +2173,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -2196,7 +2181,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -2204,7 +2189,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -2212,7 +2197,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -2220,7 +2205,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -2231,13 +2216,13 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -2251,13 +2236,13 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -2279,7 +2264,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -2287,58 +2272,58 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
         <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -2346,53 +2331,53 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2423,12 +2408,12 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -2436,7 +2421,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -2444,7 +2429,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -2452,7 +2437,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -2460,35 +2445,35 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +2505,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -2528,7 +2513,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -2536,7 +2521,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -2544,7 +2529,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -2552,7 +2537,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -2560,7 +2545,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -2568,46 +2553,46 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -2615,74 +2600,74 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -2690,60 +2675,60 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -2751,35 +2736,35 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2813,7 +2798,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
@@ -2822,12 +2807,12 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -2835,7 +2820,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -2843,7 +2828,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -2857,7 +2842,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>22</v>
@@ -2866,7 +2851,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2877,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
@@ -2886,7 +2871,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2902,7 +2887,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -2910,58 +2895,58 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -2970,58 +2955,58 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -3029,7 +3014,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -3040,7 +3025,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -3051,13 +3036,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3086,615 +3071,615 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C21" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C22" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C24" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C26" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C27" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C28" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C29" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C30" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C31" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C32" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C33" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C38" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C39" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C40" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C41" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C46" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C47" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C48" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C49" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C50" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C51" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C53" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C54" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C56" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3723,18 +3708,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -3742,10 +3727,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -3753,10 +3738,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -3764,10 +3749,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -3775,10 +3760,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -3786,10 +3771,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -3797,10 +3782,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -3861,12 +3846,12 @@
         <v>11</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -3874,7 +3859,7 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>17</v>
@@ -3882,7 +3867,7 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>17</v>
@@ -3890,7 +3875,7 @@
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
@@ -3898,7 +3883,7 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>17</v>
@@ -3906,65 +3891,65 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1">
         <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <v>184.5</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1">
         <f>SUM(B7:B8)</f>
@@ -3972,15 +3957,15 @@
       </c>
       <c r="D9"/>
       <c r="F9" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>17</v>
@@ -3988,123 +3973,123 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="4">
         <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4">
         <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4">
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="4">
         <v>176.4</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B11:B14)</f>
@@ -4112,15 +4097,15 @@
       </c>
       <c r="D15"/>
       <c r="F15" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D16" s="4"/>
       <c r="F16" s="2" t="s">
@@ -4129,7 +4114,7 @@
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>17</v>
@@ -4137,16 +4122,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B18" s="4">
         <v>250</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>18</v>
@@ -4155,27 +4140,27 @@
         <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B19" s="4">
         <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>19</v>
@@ -4184,27 +4169,27 @@
         <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B20" s="4">
         <v>250</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>20</v>
@@ -4213,18 +4198,18 @@
         <v>5</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="4">
         <f>SUM(B18:B20)</f>
@@ -4234,16 +4219,16 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D22"/>
       <c r="F22" s="4" t="s">
@@ -4253,7 +4238,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="4">
         <f>B21</f>
@@ -4290,7 +4275,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B25" s="4">
         <f>SUM(B23:B24)</f>
@@ -4300,15 +4285,15 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -4337,7 +4322,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4345,7 +4330,8 @@
     <col min="1" max="1" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -4380,12 +4366,12 @@
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>17</v>
@@ -4393,7 +4379,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>17</v>
@@ -4401,7 +4387,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>17</v>
@@ -4409,7 +4395,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
@@ -4423,13 +4409,13 @@
         <v>2248</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>199</v>
+      </c>
+      <c r="D6" t="s">
+        <v>197</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>5</v>
@@ -4441,7 +4427,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4452,10 +4438,10 @@
         <v>6265</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>204</v>
+      </c>
+      <c r="D7" t="s">
+        <v>202</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>27</v>
@@ -4470,7 +4456,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4492,7 +4478,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>17</v>
@@ -4500,65 +4486,65 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="4">
         <v>1388</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>72</v>
+        <v>189</v>
+      </c>
+      <c r="D10" t="s">
+        <v>187</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="4">
         <v>5000</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>194</v>
+      </c>
+      <c r="D11" t="s">
+        <v>192</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="4">
         <f>SUM(B10:B11)</f>
@@ -4568,12 +4554,12 @@
         <v>26</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>17</v>
@@ -4581,65 +4567,65 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="4">
         <v>1530</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>179</v>
+      </c>
+      <c r="D14" t="s">
+        <v>177</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" s="4">
         <v>2442.56</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>184</v>
+      </c>
+      <c r="D15" t="s">
+        <v>182</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="4">
         <f>SUM(B14:B15)</f>
@@ -4649,12 +4635,12 @@
         <v>26</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>17</v>
@@ -4662,7 +4648,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B18" s="4">
         <f>B7+B11+B15</f>
@@ -4677,7 +4663,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B19" s="4">
         <f>B6+B10+B14</f>
@@ -4692,22 +4678,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B20" s="4">
         <f>SUM(B18:B19)</f>
         <v>18873.559999999998</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>17</v>
@@ -4739,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -4750,7 +4736,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -4758,7 +4744,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -4766,7 +4752,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -4774,7 +4760,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -4782,13 +4768,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -4796,13 +4782,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -4810,13 +4796,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
@@ -4824,7 +4810,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -4832,7 +4818,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -4866,16 +4852,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -4883,7 +4869,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
@@ -4891,7 +4877,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4903,7 +4889,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4915,7 +4901,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4927,7 +4913,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4939,7 +4925,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4951,7 +4937,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4963,7 +4949,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4975,7 +4961,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4990,16 +4976,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -5010,16 +4996,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -5027,19 +5013,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" t="s">
         <v>164</v>
-      </c>
-      <c r="B13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" t="s">
-        <v>169</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
@@ -5047,19 +5033,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
@@ -5067,19 +5053,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>5</v>
@@ -5087,19 +5073,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>5</v>
@@ -5133,16 +5119,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -5150,7 +5136,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
@@ -5158,7 +5144,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -5170,7 +5156,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5182,7 +5168,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5194,7 +5180,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -5208,16 +5194,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -5228,16 +5214,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
@@ -5245,19 +5231,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
         <v>164</v>
-      </c>
-      <c r="B9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" t="s">
-        <v>169</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -5265,19 +5251,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -5285,19 +5271,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -5305,19 +5291,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -5353,19 +5339,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -5376,7 +5362,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -5384,7 +5370,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -5397,7 +5383,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5410,7 +5396,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5423,7 +5409,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" s="4"/>
       <c r="D6" s="4"/>
@@ -5435,7 +5421,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4"/>
       <c r="D7" s="4"/>
@@ -5447,70 +5433,70 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5523,122 +5509,122 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5651,96 +5637,96 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -5753,22 +5739,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -5776,22 +5762,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -5799,22 +5785,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
         <v>100</v>
       </c>
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>105</v>
-      </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -5852,19 +5838,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -5876,12 +5862,12 @@
         <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -5889,7 +5875,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -5897,7 +5883,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -5905,7 +5891,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -5913,7 +5899,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -5921,7 +5907,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -5929,7 +5915,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -5937,7 +5923,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -5945,7 +5931,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -5953,7 +5939,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -5961,7 +5947,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -5969,7 +5955,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -5977,7 +5963,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -5985,7 +5971,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -5996,19 +5982,19 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F16" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -6020,7 +6006,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -6028,19 +6014,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -6052,7 +6038,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -6068,7 +6054,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -6076,82 +6062,82 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" t="s">
-        <v>198</v>
-      </c>
-      <c r="F20" t="s">
-        <v>199</v>
-      </c>
-      <c r="G20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" t="s">
-        <v>57</v>
       </c>
       <c r="I20" t="s">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
@@ -6159,82 +6145,82 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I24" t="s">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I25" t="s">
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G26" t="s">
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -6242,7 +6228,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -6251,12 +6237,12 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -6265,18 +6251,18 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -6307,13 +6293,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -6324,7 +6310,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -6332,7 +6318,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -6340,7 +6326,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -6348,7 +6334,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -6356,7 +6342,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -6364,7 +6350,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -6372,58 +6358,58 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -6434,98 +6420,98 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -6536,73 +6522,73 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -4322,7 +4322,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1462,7 @@
         <v>88</v>
       </c>
       <c r="B9" s="4">
-        <v>14848.26</v>
+        <v>14937.83</v>
       </c>
       <c r="C9" t="s">
         <v>174</v>
@@ -1482,7 +1482,7 @@
         <v>89</v>
       </c>
       <c r="B10" s="4">
-        <v>6588.0749999999998</v>
+        <v>5883</v>
       </c>
       <c r="C10" t="s">
         <v>169</v>
@@ -1502,8 +1502,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4">
-        <f>SUM(B9:B10)</f>
-        <v>21436.334999999999</v>
+        <v>20817</v>
       </c>
       <c r="C11" t="s">
         <v>164</v>
@@ -3801,7 +3800,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4260,7 +4259,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="4">
-        <v>1361</v>
+        <v>1360.8</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24"/>
@@ -4278,8 +4277,7 @@
         <v>79</v>
       </c>
       <c r="B25" s="4">
-        <f>SUM(B23:B24)</f>
-        <v>2111</v>
+        <v>2110.8000000000002</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -4322,7 +4320,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4489,7 +4487,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="4">
-        <v>1388</v>
+        <v>1410.98</v>
       </c>
       <c r="C10" t="s">
         <v>189</v>
@@ -4518,7 +4516,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="4">
-        <v>5000</v>
+        <v>5000.41</v>
       </c>
       <c r="C11" t="s">
         <v>194</v>
@@ -4547,8 +4545,7 @@
         <v>54</v>
       </c>
       <c r="B12" s="4">
-        <f>SUM(B10:B11)</f>
-        <v>6388</v>
+        <v>6411.39</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>26</v>
@@ -4570,7 +4567,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="4">
-        <v>1530</v>
+        <v>1540.17</v>
       </c>
       <c r="C14" t="s">
         <v>179</v>
@@ -4599,7 +4596,7 @@
         <v>58</v>
       </c>
       <c r="B15" s="4">
-        <v>2442.56</v>
+        <v>2411.88</v>
       </c>
       <c r="C15" t="s">
         <v>184</v>
@@ -4628,8 +4625,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="4">
-        <f>SUM(B14:B15)</f>
-        <v>3972.56</v>
+        <v>3952.05</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>26</v>
@@ -4652,7 +4648,7 @@
       </c>
       <c r="B18" s="4">
         <f>B7+B11+B15</f>
-        <v>13707.56</v>
+        <v>13677.29</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -4667,7 +4663,7 @@
       </c>
       <c r="B19" s="4">
         <f>B6+B10+B14</f>
-        <v>5166</v>
+        <v>5199.1499999999996</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
@@ -4682,7 +4678,7 @@
       </c>
       <c r="B20" s="4">
         <f>SUM(B18:B19)</f>
-        <v>18873.559999999998</v>
+        <v>18876.440000000002</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>80</v>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="334">
   <si>
     <t>name</t>
   </si>
@@ -995,6 +995,57 @@
   </si>
   <si>
     <t>Maharashtra Solar Forecast R16</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00032415</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045558</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00030481</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00037226</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00030482</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00046640</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00032758</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00032759</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00032413</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045841</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045838</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045839</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045630</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00045129</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00037566</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00037565</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00034364</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,7 +1519,7 @@
         <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>327</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>61</v>
@@ -1488,7 +1539,7 @@
         <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>328</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>62</v>
@@ -1508,7 +1559,7 @@
         <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>63</v>
@@ -3800,7 +3851,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3899,7 +3950,7 @@
         <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>317</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>69</v>
@@ -3928,7 +3979,7 @@
         <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>318</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>68</v>
@@ -3981,7 +4032,7 @@
         <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>319</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>67</v>
@@ -4010,7 +4061,7 @@
         <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>320</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>66</v>
@@ -4039,7 +4090,7 @@
         <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>65</v>
@@ -4068,7 +4119,7 @@
         <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>322</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>64</v>
@@ -4130,7 +4181,7 @@
         <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>323</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>18</v>
@@ -4159,7 +4210,7 @@
         <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>324</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>19</v>
@@ -4188,7 +4239,7 @@
         <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>325</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>20</v>
@@ -4259,7 +4310,8 @@
         <v>12</v>
       </c>
       <c r="B24" s="4">
-        <v>1360.8</v>
+        <f>B15+B9</f>
+        <v>1360.9</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24"/>
@@ -4277,7 +4329,8 @@
         <v>79</v>
       </c>
       <c r="B25" s="4">
-        <v>2110.8000000000002</v>
+        <f>B24+B23</f>
+        <v>2110.9</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -4319,8 +4372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4410,7 +4463,7 @@
         <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>329</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>28</v>
@@ -4439,7 +4492,7 @@
         <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>330</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>27</v>
@@ -4493,7 +4546,7 @@
         <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>70</v>
@@ -4522,7 +4575,7 @@
         <v>194</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>71</v>
@@ -4545,7 +4598,8 @@
         <v>54</v>
       </c>
       <c r="B12" s="4">
-        <v>6411.39</v>
+        <f>B10+B11</f>
+        <v>6411.3899999999994</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>26</v>
@@ -4573,7 +4627,7 @@
         <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>72</v>
@@ -4602,7 +4656,7 @@
         <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>333</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>73</v>
@@ -4625,6 +4679,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="4">
+        <f>B15+B14</f>
         <v>3952.05</v>
       </c>
       <c r="F16" s="4" t="s">

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="335">
   <si>
     <t>name</t>
   </si>
@@ -1046,6 +1046,9 @@
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00034364</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00034363</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1082,12 +1085,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1101,6 +1119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1418,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4372,8 +4391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4626,8 +4645,8 @@
       <c r="C14" t="s">
         <v>179</v>
       </c>
-      <c r="D14" t="s">
-        <v>333</v>
+      <c r="D14" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>72</v>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1532,7 @@
         <v>88</v>
       </c>
       <c r="B9" s="4">
-        <v>14937.83</v>
+        <v>21075</v>
       </c>
       <c r="C9" t="s">
         <v>174</v>
@@ -1552,7 +1552,7 @@
         <v>89</v>
       </c>
       <c r="B10" s="4">
-        <v>5883</v>
+        <v>5949</v>
       </c>
       <c r="C10" t="s">
         <v>169</v>
@@ -3870,7 +3870,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4391,8 +4391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4559,7 +4559,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="4">
-        <v>1410.98</v>
+        <v>1411</v>
       </c>
       <c r="C10" t="s">
         <v>189</v>
@@ -4588,7 +4588,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="4">
-        <v>5000.41</v>
+        <v>5000</v>
       </c>
       <c r="C11" t="s">
         <v>194</v>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="B12" s="4">
         <f>B10+B11</f>
-        <v>6411.3899999999994</v>
+        <v>6411</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>26</v>
@@ -4640,7 +4640,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="4">
-        <v>1540.17</v>
+        <v>1540</v>
       </c>
       <c r="C14" t="s">
         <v>179</v>
@@ -4669,7 +4669,7 @@
         <v>58</v>
       </c>
       <c r="B15" s="4">
-        <v>2411.88</v>
+        <v>2412</v>
       </c>
       <c r="C15" t="s">
         <v>184</v>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="B16" s="4">
         <f>B15+B14</f>
-        <v>3952.05</v>
+        <v>3952</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>26</v>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="B18" s="4">
         <f>B7+B11+B15</f>
-        <v>13677.29</v>
+        <v>13677</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B19" s="4">
         <f>B6+B10+B14</f>
-        <v>5199.1499999999996</v>
+        <v>5199</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="B20" s="4">
         <f>SUM(B18:B19)</f>
-        <v>18876.440000000002</v>
+        <v>18876</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>80</v>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -31,7 +31,7 @@
     <sheet name="scada_graph_data" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ists_gen!$A$1:$I$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ists_gen!$A$1:$I$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="338">
   <si>
     <t>name</t>
   </si>
@@ -1049,6 +1049,15 @@
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00034363</t>
+  </si>
+  <si>
+    <t>Alfanar</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00049203</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA02.00052857</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1086,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1085,27 +1094,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1119,7 +1113,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1438,7 +1431,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1525,7 @@
         <v>88</v>
       </c>
       <c r="B9" s="4">
-        <v>21075</v>
+        <v>15176</v>
       </c>
       <c r="C9" t="s">
         <v>174</v>
@@ -1572,7 +1565,8 @@
         <v>6</v>
       </c>
       <c r="B11" s="4">
-        <v>20817</v>
+        <f>B10+B9</f>
+        <v>21125</v>
       </c>
       <c r="C11" t="s">
         <v>164</v>
@@ -3867,10 +3861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4157,82 +4151,80 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="4">
-        <f>SUM(B11:B14)</f>
-        <v>926.4</v>
-      </c>
-      <c r="D15"/>
+      <c r="A15" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" s="2">
+        <v>138.6</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>336</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="F15" s="4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="F16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="B16" s="4">
+        <f>SUM(B11:B15)</f>
+        <v>1065</v>
+      </c>
+      <c r="D16"/>
+      <c r="F16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+      <c r="F17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="4">
-        <v>250</v>
-      </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" t="s">
-        <v>323</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4">
         <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>5</v>
@@ -4249,19 +4241,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" s="4">
         <v>250</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
@@ -4278,59 +4270,69 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B21" s="4">
-        <f>SUM(B18:B20)</f>
-        <v>750</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+        <v>250</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F21" s="4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22"/>
+        <v>50</v>
+      </c>
+      <c r="B22" s="4">
+        <f>SUM(B19:B21)</f>
+        <v>750</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>17</v>
+        <v>82</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="4">
-        <f>B21</f>
-        <v>750</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>76</v>
+      </c>
       <c r="D23"/>
-      <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B24" s="4">
-        <f>B15+B9</f>
-        <v>1360.9</v>
+        <f>B22</f>
+        <v>750</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24"/>
@@ -4340,46 +4342,65 @@
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B25" s="4">
-        <f>B24+B23</f>
-        <v>2110.9</v>
+        <f>B16+B9</f>
+        <v>1499.5</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="D25"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>77</v>
+        <v>13</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B25+B24</f>
+        <v>2249.5</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>17</v>
+        <v>80</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4392,7 +4413,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4645,7 +4666,7 @@
       <c r="C14" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" t="s">
         <v>334</v>
       </c>
       <c r="E14" s="4" t="s">

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1525,7 +1525,7 @@
         <v>88</v>
       </c>
       <c r="B9" s="4">
-        <v>15176</v>
+        <v>15184</v>
       </c>
       <c r="C9" t="s">
         <v>174</v>
@@ -1545,7 +1545,7 @@
         <v>89</v>
       </c>
       <c r="B10" s="4">
-        <v>5949</v>
+        <v>5983</v>
       </c>
       <c r="C10" t="s">
         <v>169</v>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B11" s="4">
         <f>B10+B9</f>
-        <v>21125</v>
+        <v>21167</v>
       </c>
       <c r="C11" t="s">
         <v>164</v>
@@ -4413,7 +4413,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4580,7 +4580,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="4">
-        <v>1411</v>
+        <v>1445</v>
       </c>
       <c r="C10" t="s">
         <v>189</v>
@@ -4609,7 +4609,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="4">
-        <v>5000</v>
+        <v>5008</v>
       </c>
       <c r="C11" t="s">
         <v>194</v>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B12" s="4">
         <f>B10+B11</f>
-        <v>6411</v>
+        <v>6453</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>26</v>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B18" s="4">
         <f>B7+B11+B15</f>
-        <v>13677</v>
+        <v>13685</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="B19" s="4">
         <f>B6+B10+B14</f>
-        <v>5199</v>
+        <v>5233</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B20" s="4">
         <f>SUM(B18:B19)</f>
-        <v>18876</v>
+        <v>18918</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>80</v>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\remc_report_generator\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REMC\remc_report_dist\index\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -1033,12 +1033,6 @@
     <t>WREMCPRI.SCADA01.00045839</t>
   </si>
   <si>
-    <t>WREMCPRI.SCADA01.00045630</t>
-  </si>
-  <si>
-    <t>WREMCPRI.SCADA01.00045129</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00037566</t>
   </si>
   <si>
@@ -1058,6 +1052,12 @@
   </si>
   <si>
     <t>WREMCPRI.SCADA02.00052857</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA02.00053767</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA02.00053737</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4152,17 +4152,17 @@
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B15" s="2">
         <v>138.6</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>5</v>
@@ -4412,8 +4412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4503,7 +4503,7 @@
         <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>28</v>
@@ -4532,7 +4532,7 @@
         <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>27</v>
@@ -4586,7 +4586,7 @@
         <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>70</v>
@@ -4615,7 +4615,7 @@
         <v>194</v>
       </c>
       <c r="D11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>71</v>
@@ -4667,7 +4667,7 @@
         <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>72</v>
@@ -4696,7 +4696,7 @@
         <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>73</v>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REMC\remc_report_dist\index\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -1430,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1525,7 +1525,7 @@
         <v>88</v>
       </c>
       <c r="B9" s="4">
-        <v>15184</v>
+        <v>15248</v>
       </c>
       <c r="C9" t="s">
         <v>174</v>
@@ -1545,7 +1545,7 @@
         <v>89</v>
       </c>
       <c r="B10" s="4">
-        <v>5983</v>
+        <v>6001</v>
       </c>
       <c r="C10" t="s">
         <v>169</v>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B11" s="4">
         <f>B10+B9</f>
-        <v>21167</v>
+        <v>21249</v>
       </c>
       <c r="C11" t="s">
         <v>164</v>
@@ -3864,7 +3864,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4126,7 +4126,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="4">
-        <v>176.4</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
         <v>158</v>
@@ -4155,7 +4155,7 @@
         <v>333</v>
       </c>
       <c r="B15" s="2">
-        <v>138.6</v>
+        <v>166</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="B16" s="4">
         <f>SUM(B11:B15)</f>
-        <v>1065</v>
+        <v>1128</v>
       </c>
       <c r="D16"/>
       <c r="F16" s="4" t="s">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B25" s="4">
         <f>B16+B9</f>
-        <v>1499.5</v>
+        <v>1562.5</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25"/>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="B26" s="4">
         <f>B25+B24</f>
-        <v>2249.5</v>
+        <v>2312.5</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -4412,8 +4412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4580,7 +4580,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="4">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="C10" t="s">
         <v>189</v>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B12" s="4">
         <f>B10+B11</f>
-        <v>6453</v>
+        <v>6456</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>26</v>
@@ -4661,7 +4661,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="4">
-        <v>1540</v>
+        <v>1555</v>
       </c>
       <c r="C14" t="s">
         <v>179</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="B16" s="4">
         <f>B15+B14</f>
-        <v>3952</v>
+        <v>3967</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>26</v>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="B19" s="4">
         <f>B6+B10+B14</f>
-        <v>5233</v>
+        <v>5251</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B20" s="4">
         <f>SUM(B18:B19)</f>
-        <v>18918</v>
+        <v>18936</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>80</v>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3863,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3986,7 +3986,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="1">
-        <v>184.5</v>
+        <v>212.1</v>
       </c>
       <c r="C8" t="s">
         <v>138</v>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B9" s="1">
         <f>SUM(B7:B8)</f>
-        <v>434.5</v>
+        <v>462.1</v>
       </c>
       <c r="D9"/>
       <c r="F9" s="1" t="s">
@@ -4126,7 +4126,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="4">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
         <v>158</v>
@@ -4155,7 +4155,7 @@
         <v>333</v>
       </c>
       <c r="B15" s="2">
-        <v>166</v>
+        <v>183.6</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="B16" s="4">
         <f>SUM(B11:B15)</f>
-        <v>1128</v>
+        <v>1109.5999999999999</v>
       </c>
       <c r="D16"/>
       <c r="F16" s="4" t="s">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B25" s="4">
         <f>B16+B9</f>
-        <v>1562.5</v>
+        <v>1571.6999999999998</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25"/>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="B26" s="4">
         <f>B25+B24</f>
-        <v>2312.5</v>
+        <v>2321.6999999999998</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -5,34 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\remc_report_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
     <sheet name="ists_gen" sheetId="2" r:id="rId2"/>
-    <sheet name="state_gen" sheetId="3" r:id="rId3"/>
-    <sheet name="volt_profile" sheetId="4" r:id="rId4"/>
-    <sheet name="remc_regional_r0_error" sheetId="7" r:id="rId5"/>
-    <sheet name="remc_regional_r16_error" sheetId="8" r:id="rId6"/>
-    <sheet name="remc_ists_error" sheetId="6" r:id="rId7"/>
-    <sheet name="remc_state_error" sheetId="9" r:id="rId8"/>
-    <sheet name="ists_fsp_err_num_blks" sheetId="10" r:id="rId9"/>
-    <sheet name="state_fsp_err_num_blks" sheetId="11" r:id="rId10"/>
-    <sheet name="ists_fsp_rmse" sheetId="12" r:id="rId11"/>
-    <sheet name="state_fsp_rmse" sheetId="13" r:id="rId12"/>
-    <sheet name="regional_da_forecast" sheetId="14" r:id="rId13"/>
-    <sheet name="ists_da_forecast" sheetId="15" r:id="rId14"/>
-    <sheet name="state_da_forecast" sheetId="16" r:id="rId15"/>
-    <sheet name="remc_graph_data" sheetId="5" r:id="rId16"/>
-    <sheet name="scada_graph_data" sheetId="17" r:id="rId17"/>
+    <sheet name="app_config" sheetId="18" r:id="rId3"/>
+    <sheet name="state_gen" sheetId="3" r:id="rId4"/>
+    <sheet name="volt_profile" sheetId="4" r:id="rId5"/>
+    <sheet name="remc_regional_r0_error" sheetId="7" r:id="rId6"/>
+    <sheet name="remc_regional_r16_error" sheetId="8" r:id="rId7"/>
+    <sheet name="remc_ists_error" sheetId="6" r:id="rId8"/>
+    <sheet name="remc_state_error" sheetId="9" r:id="rId9"/>
+    <sheet name="ists_fsp_err_num_blks" sheetId="10" r:id="rId10"/>
+    <sheet name="state_fsp_err_num_blks" sheetId="11" r:id="rId11"/>
+    <sheet name="ists_fsp_rmse" sheetId="12" r:id="rId12"/>
+    <sheet name="state_fsp_rmse" sheetId="13" r:id="rId13"/>
+    <sheet name="regional_da_forecast" sheetId="14" r:id="rId14"/>
+    <sheet name="ists_da_forecast" sheetId="15" r:id="rId15"/>
+    <sheet name="state_da_forecast" sheetId="16" r:id="rId16"/>
+    <sheet name="remc_graph_data" sheetId="5" r:id="rId17"/>
+    <sheet name="scada_graph_data" sheetId="17" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ists_gen!$A$1:$I$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="346">
   <si>
     <t>name</t>
   </si>
@@ -1058,6 +1059,30 @@
   </si>
   <si>
     <t>WREMCPRI.SCADA02.00053737</t>
+  </si>
+  <si>
+    <t>ftpHost</t>
+  </si>
+  <si>
+    <t>ftpUsername</t>
+  </si>
+  <si>
+    <t>ftpPassword</t>
+  </si>
+  <si>
+    <t>103.7.128.230</t>
+  </si>
+  <si>
+    <t>atc</t>
+  </si>
+  <si>
+    <t>atc12345</t>
+  </si>
+  <si>
+    <t>ftpDumpFolder</t>
+  </si>
+  <si>
+    <t>REMC Report/WR</t>
   </si>
 </sst>
 </file>
@@ -1604,6 +1629,332 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1862,7 +2213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -2196,7 +2547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -2448,7 +2799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2544,7 +2895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -2835,7 +3186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -3113,7 +3464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
@@ -3751,7 +4102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -3863,7 +4214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -4409,6 +4760,53 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -4795,7 +5193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -4920,7 +5318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -5187,7 +5585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -5405,7 +5803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -5902,7 +6300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
@@ -6359,330 +6757,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\remc_report_generator\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A16C06-4735-42C1-9C76-E6BB98A695E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="regional_profile" sheetId="1" r:id="rId1"/>
-    <sheet name="ists_gen" sheetId="2" r:id="rId2"/>
-    <sheet name="app_config" sheetId="18" r:id="rId3"/>
+    <sheet name="app_config" sheetId="18" r:id="rId1"/>
+    <sheet name="regional_profile" sheetId="1" r:id="rId2"/>
+    <sheet name="ists_gen" sheetId="2" r:id="rId3"/>
     <sheet name="state_gen" sheetId="3" r:id="rId4"/>
     <sheet name="volt_profile" sheetId="4" r:id="rId5"/>
     <sheet name="remc_regional_r0_error" sheetId="7" r:id="rId6"/>
@@ -32,10 +33,10 @@
     <sheet name="scada_graph_data" sheetId="17" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ists_gen!$A$1:$I$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ists_gen!$A$1:$I$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1088,7 +1089,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1141,7 +1142,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1452,174 +1453,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="29" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="4">
-        <v>15248</v>
-      </c>
-      <c r="C9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" t="s">
-        <v>327</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6001</v>
-      </c>
-      <c r="C10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" t="s">
-        <v>328</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4">
-        <f>B10+B9</f>
-        <v>21249</v>
-      </c>
-      <c r="C11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" t="s">
-        <v>326</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>17</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1954,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2214,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2548,7 +2420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -2800,7 +2672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -2896,7 +2768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3187,7 +3059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3465,7 +3337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4103,7 +3975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4211,11 +4083,187 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="29" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="4">
+        <v>15344</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6013</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <f>B10+B9</f>
+        <v>21357</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4506,7 +4554,7 @@
         <v>333</v>
       </c>
       <c r="B15" s="2">
-        <v>183.6</v>
+        <v>214</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
@@ -4534,7 +4582,7 @@
       </c>
       <c r="B16" s="4">
         <f>SUM(B11:B15)</f>
-        <v>1109.5999999999999</v>
+        <v>1140</v>
       </c>
       <c r="D16"/>
       <c r="F16" s="4" t="s">
@@ -4702,7 +4750,7 @@
       </c>
       <c r="B25" s="4">
         <f>B16+B9</f>
-        <v>1571.6999999999998</v>
+        <v>1602.1</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25"/>
@@ -4721,7 +4769,7 @@
       </c>
       <c r="B26" s="4">
         <f>B25+B24</f>
-        <v>2321.6999999999998</v>
+        <v>2352.1</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -4759,59 +4807,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4978,7 +4979,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="4">
-        <v>1448</v>
+        <v>1460</v>
       </c>
       <c r="C10" t="s">
         <v>189</v>
@@ -5037,7 +5038,7 @@
       </c>
       <c r="B12" s="4">
         <f>B10+B11</f>
-        <v>6456</v>
+        <v>6468</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>26</v>
@@ -5088,7 +5089,7 @@
         <v>58</v>
       </c>
       <c r="B15" s="4">
-        <v>2412</v>
+        <v>2418</v>
       </c>
       <c r="C15" t="s">
         <v>184</v>
@@ -5118,7 +5119,7 @@
       </c>
       <c r="B16" s="4">
         <f>B15+B14</f>
-        <v>3967</v>
+        <v>3973</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>26</v>
@@ -5141,7 +5142,7 @@
       </c>
       <c r="B18" s="4">
         <f>B7+B11+B15</f>
-        <v>13685</v>
+        <v>13691</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -5156,7 +5157,7 @@
       </c>
       <c r="B19" s="4">
         <f>B6+B10+B14</f>
-        <v>5251</v>
+        <v>5263</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
@@ -5171,7 +5172,7 @@
       </c>
       <c r="B20" s="4">
         <f>SUM(B18:B19)</f>
-        <v>18936</v>
+        <v>18954</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>80</v>
@@ -5194,7 +5195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5319,11 +5320,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5586,7 +5587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5804,7 +5805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6301,11 +6302,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\remc_report_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A16C06-4735-42C1-9C76-E6BB98A695E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -36,7 +35,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ists_gen!$A$1:$I$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="347">
   <si>
     <t>name</t>
   </si>
@@ -1084,12 +1083,15 @@
   </si>
   <si>
     <t>REMC Report/WR</t>
+  </si>
+  <si>
+    <t>Inox (Dayapar)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1142,7 +1144,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1453,7 +1455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1500,7 +1502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1826,7 +1828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2086,7 +2088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2420,7 +2422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -2672,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -2768,7 +2770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3059,7 +3061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3337,7 +3339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3975,7 +3977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4083,10 +4085,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4259,11 +4261,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4493,7 +4495,7 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="B13" s="4">
         <v>200</v>
@@ -4808,7 +4810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5195,7 +5197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5320,7 +5322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5587,7 +5589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5805,7 +5807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6302,7 +6304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -4089,7 +4089,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4264,8 +4264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5200,7 +5200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5326,7 +5326,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5528,16 +5528,16 @@
         <v>232</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
@@ -5548,16 +5548,16 @@
         <v>233</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>5</v>
@@ -5593,7 +5593,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5746,16 +5746,16 @@
         <v>232</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -5766,16 +5766,16 @@
         <v>233</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -5810,8 +5810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="14" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -758,39 +758,21 @@
     <t>Regional Actual</t>
   </si>
   <si>
-    <t>Regional Actual Prev</t>
-  </si>
-  <si>
     <t>Regional Solar Actual</t>
   </si>
   <si>
-    <t>Regional Solar Actual Prev</t>
-  </si>
-  <si>
     <t>Regional Wind Actual</t>
   </si>
   <si>
-    <t>Regional Wind Actual Prev</t>
-  </si>
-  <si>
     <t>ISTS Solar Actual</t>
   </si>
   <si>
-    <t>ISTS Solar Actual Prev</t>
-  </si>
-  <si>
     <t>ISTS Wind Actual</t>
   </si>
   <si>
-    <t>ISTS Wind Actual Prev</t>
-  </si>
-  <si>
     <t>ISTS Renewable Actual</t>
   </si>
   <si>
-    <t>ISTS Renewable Actual Prev</t>
-  </si>
-  <si>
     <t>OKWPL_RE-WIND_WIND_Act,RPL_SECI-II_RE-WIND_WIND_Act</t>
   </si>
   <si>
@@ -800,9 +782,6 @@
     <t>Bachau Pooling Actual</t>
   </si>
   <si>
-    <t>Bachau Pooling Actual Prev</t>
-  </si>
-  <si>
     <t>GIWEL_SECI-II_RE-WIND_WIND_16,GIWEL_SECI-III_RE-WIND_WIND_16,IWISL-WIND_WIND_16,AGEMPL-WIND_WIND_16</t>
   </si>
   <si>
@@ -812,9 +791,6 @@
     <t>Bhuj Pooling Actual</t>
   </si>
   <si>
-    <t>Bhuj Pooling Actual Prev</t>
-  </si>
-  <si>
     <t>Arinsun_RUMS-SOLAR_SOLAR_16,Acme_RUMS-SOLAR_SOLAR_16,Mahindra_RUMS-SOLAR_SOLAR_16</t>
   </si>
   <si>
@@ -824,15 +800,9 @@
     <t>Rewa Pooling Actual</t>
   </si>
   <si>
-    <t>Rewa Pooling Actual Prev</t>
-  </si>
-  <si>
     <t>Gujarat Renewable Actual</t>
   </si>
   <si>
-    <t>Gujarat Renewable Actual Prev</t>
-  </si>
-  <si>
     <t>Gujarat_Gujarat_WIND _16,Gujarat_Gujarat_SOLAR _16</t>
   </si>
   <si>
@@ -842,33 +812,18 @@
     <t>Gujarat Wind Actual</t>
   </si>
   <si>
-    <t>Gujarat Wind Actual Prev</t>
-  </si>
-  <si>
     <t>Gujarat Solar Actual</t>
   </si>
   <si>
-    <t>Gujarat Solar Actual Prev</t>
-  </si>
-  <si>
     <t>Madhya Pradesh Renewable Actual</t>
   </si>
   <si>
-    <t>Madhya Pradesh Renewable Actual Prev</t>
-  </si>
-  <si>
     <t>Madhya Pradesh Wind Actual</t>
   </si>
   <si>
-    <t>Madhya Pradesh Wind Actual Prev</t>
-  </si>
-  <si>
     <t>Madhya Pradesh Solar Actual</t>
   </si>
   <si>
-    <t>Madhya Pradesh Solar Actual Prev</t>
-  </si>
-  <si>
     <t>Madhya Pradesh_Madhya Pradesh_WIND _16,Madhya Pradesh_Madhya Pradesh_SOLAR _16</t>
   </si>
   <si>
@@ -878,21 +833,12 @@
     <t>Maharashtra Renewable Actual</t>
   </si>
   <si>
-    <t>Maharashtra Renewable Actual Prev</t>
-  </si>
-  <si>
     <t>Maharashtra Wind Actual</t>
   </si>
   <si>
-    <t>Maharashtra Wind Actual Prev</t>
-  </si>
-  <si>
     <t>Maharashtra Solar Actual</t>
   </si>
   <si>
-    <t>Maharashtra Solar Actual Prev</t>
-  </si>
-  <si>
     <t>Maharastra_Maharastra_WIND _16,Maharastra_Maharastra_SOLAR _16</t>
   </si>
   <si>
@@ -1086,6 +1032,60 @@
   </si>
   <si>
     <t>Inox (Dayapar)</t>
+  </si>
+  <si>
+    <t>Regional Actual for previous day</t>
+  </si>
+  <si>
+    <t>Regional Solar Actual for previous day</t>
+  </si>
+  <si>
+    <t>Regional Wind Actual for previous day</t>
+  </si>
+  <si>
+    <t>ISTS Renewable Actual for previous day</t>
+  </si>
+  <si>
+    <t>ISTS Solar Actual for previous day</t>
+  </si>
+  <si>
+    <t>ISTS Wind Actual for previous day</t>
+  </si>
+  <si>
+    <t>Bachau Pooling Actual for previous day</t>
+  </si>
+  <si>
+    <t>Bhuj Pooling Actual for previous day</t>
+  </si>
+  <si>
+    <t>Rewa Pooling Actual for previous day</t>
+  </si>
+  <si>
+    <t>Gujarat Renewable Actual for previous day</t>
+  </si>
+  <si>
+    <t>Gujarat Wind Actual for previous day</t>
+  </si>
+  <si>
+    <t>Gujarat Solar Actual for previous day</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Renewable Actual for previous day</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Wind Actual for previous day</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh Solar Actual for previous day</t>
+  </si>
+  <si>
+    <t>Maharashtra Renewable Actual for previous day</t>
+  </si>
+  <si>
+    <t>Maharashtra Wind Actual for previous day</t>
+  </si>
+  <si>
+    <t>Maharashtra Solar Actual for previous day</t>
   </si>
 </sst>
 </file>
@@ -1466,34 +1466,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3342,8 +3342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3367,24 +3367,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3395,579 +3395,579 @@
         <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>239</v>
+        <v>330</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>241</v>
+        <v>331</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>245</v>
+        <v>334</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C24" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C25" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>255</v>
+        <v>336</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C26" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>259</v>
+        <v>337</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C29" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C30" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C31" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C32" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>201</v>
       </c>
       <c r="C33" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>196</v>
       </c>
       <c r="C36" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>197</v>
       </c>
       <c r="C37" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>267</v>
+        <v>340</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>197</v>
       </c>
       <c r="C38" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C39" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C40" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C41" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C45" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C46" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C47" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C48" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C49" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>277</v>
+        <v>344</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C50" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>191</v>
       </c>
       <c r="C51" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>192</v>
       </c>
       <c r="C52" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>192</v>
       </c>
       <c r="C53" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>186</v>
       </c>
       <c r="C54" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>187</v>
       </c>
       <c r="C55" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>187</v>
       </c>
       <c r="C56" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4004,10 +4004,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -4026,10 +4026,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -4048,10 +4048,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -4059,7 +4059,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -4070,10 +4070,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -4189,7 +4189,7 @@
         <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>61</v>
@@ -4209,7 +4209,7 @@
         <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>62</v>
@@ -4230,7 +4230,7 @@
         <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>63</v>
@@ -4364,7 +4364,7 @@
         <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>69</v>
@@ -4393,7 +4393,7 @@
         <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>68</v>
@@ -4446,7 +4446,7 @@
         <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>67</v>
@@ -4475,7 +4475,7 @@
         <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>66</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="B13" s="4">
         <v>200</v>
@@ -4504,7 +4504,7 @@
         <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>65</v>
@@ -4533,7 +4533,7 @@
         <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>64</v>
@@ -4553,17 +4553,17 @@
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B15" s="2">
         <v>214</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>5</v>
@@ -4622,7 +4622,7 @@
         <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>18</v>
@@ -4651,7 +4651,7 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>19</v>
@@ -4680,7 +4680,7 @@
         <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>20</v>
@@ -4904,7 +4904,7 @@
         <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>28</v>
@@ -4933,7 +4933,7 @@
         <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>27</v>
@@ -4987,7 +4987,7 @@
         <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>70</v>
@@ -5016,7 +5016,7 @@
         <v>194</v>
       </c>
       <c r="D11" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>71</v>
@@ -5068,7 +5068,7 @@
         <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>72</v>
@@ -5097,7 +5097,7 @@
         <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>73</v>
@@ -5200,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="14" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="scada_graph_data" sheetId="17" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ists_gen!$A$1:$I$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ists_gen!$A$1:$I$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="362">
   <si>
     <t>name</t>
   </si>
@@ -1086,6 +1086,51 @@
   </si>
   <si>
     <t>Maharashtra Solar Actual for previous day</t>
+  </si>
+  <si>
+    <t>AlfanarWind_SECI-III-WIND_WIND_AVC</t>
+  </si>
+  <si>
+    <t>Renew(AP2)</t>
+  </si>
+  <si>
+    <t>AlfanarWind_SECI-III-WIND_WIND_R0</t>
+  </si>
+  <si>
+    <t>AlfanarWind_SECI-III-WIND_WIND_16</t>
+  </si>
+  <si>
+    <t>AlfanarWind_SECI-III-WIND_WIND_Act</t>
+  </si>
+  <si>
+    <t>AlfanarWind_SECI-III-WIND_WIND_CUF</t>
+  </si>
+  <si>
+    <t>RWE_AP2_SECI-III-WIND_WIND_R0</t>
+  </si>
+  <si>
+    <t>RWE_AP2_SECI-III-WIND_WIND_16</t>
+  </si>
+  <si>
+    <t>RWE_AP2_SECI-III-WIND_WIND_Act</t>
+  </si>
+  <si>
+    <t>RWE_AP2_SECI-III-WIND_WIND_CUF</t>
+  </si>
+  <si>
+    <t>RWE_AP2_SECI-III-WIND_WIND_AVC</t>
+  </si>
+  <si>
+    <t>AlfanarWind_SECI-III-WIND_WIND</t>
+  </si>
+  <si>
+    <t>RWE_AP2_SECI-III-WIND_WIND</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00047399</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA01.00046369</t>
   </si>
 </sst>
 </file>
@@ -1503,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,78 +1776,78 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>315</v>
+      </c>
+      <c r="B16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" t="s">
+        <v>351</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" t="s">
+        <v>357</v>
+      </c>
+      <c r="D17" t="s">
+        <v>355</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
+      <c r="A19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -1813,12 +1858,52 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>82</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2089,10 +2174,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,78 +2407,78 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>315</v>
+      </c>
+      <c r="B16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" t="s">
+        <v>351</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" t="s">
+        <v>357</v>
+      </c>
+      <c r="D17" t="s">
+        <v>355</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
+      <c r="A19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -2404,20 +2489,61 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2426,7 +2552,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,7 +2804,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,10 +2897,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,60 +3070,60 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>315</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>358</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>76</v>
+      <c r="A16" t="s">
+        <v>348</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
+        <v>82</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>87</v>
+      <c r="A18" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" t="s">
         <v>49</v>
@@ -3005,53 +3131,81 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
       </c>
       <c r="D20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>76</v>
+      <c r="A21" t="s">
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>225</v>
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>94</v>
+      <c r="A23" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>95</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3342,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3981,7 +4135,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4089,7 +4243,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4262,10 +4416,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4558,7 +4712,9 @@
       <c r="B15" s="2">
         <v>214</v>
       </c>
-      <c r="C15"/>
+      <c r="C15" t="s">
+        <v>347</v>
+      </c>
       <c r="D15" t="s">
         <v>316</v>
       </c>
@@ -4579,82 +4735,82 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="4">
-        <f>SUM(B11:B15)</f>
-        <v>1140</v>
-      </c>
-      <c r="D16"/>
+      <c r="A16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" t="s">
+        <v>360</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>361</v>
+      </c>
       <c r="F16" s="4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="F17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="B17" s="4">
+        <f>SUM(B11:B16)</f>
+        <v>1212.5</v>
+      </c>
+      <c r="D17"/>
+      <c r="F17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="4">
-        <v>250</v>
-      </c>
-      <c r="C19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" t="s">
-        <v>305</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="4">
         <v>250</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
@@ -4671,19 +4827,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B21" s="4">
         <v>250</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>5</v>
@@ -4700,59 +4856,69 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B22" s="4">
-        <f>SUM(B19:B21)</f>
-        <v>750</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+        <v>250</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F22" s="4" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23"/>
+        <v>50</v>
+      </c>
+      <c r="B23" s="4">
+        <f>SUM(B20:B22)</f>
+        <v>750</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>17</v>
+        <v>82</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="4">
-        <f>B22</f>
-        <v>750</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>76</v>
+      </c>
       <c r="D24"/>
-      <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B25" s="4">
-        <f>B16+B9</f>
-        <v>1602.1</v>
+        <f>B23</f>
+        <v>750</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25"/>
@@ -4762,46 +4928,65 @@
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B26" s="4">
-        <f>B25+B24</f>
-        <v>2352.1</v>
+        <f>B17+B9</f>
+        <v>1674.6</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>77</v>
+        <v>13</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="B27" s="4">
+        <f>B26+B25</f>
+        <v>2424.6</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>17</v>
+        <v>80</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5593,7 +5778,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5808,10 +5993,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6105,98 +6290,98 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>315</v>
+      </c>
+      <c r="B16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D16" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16" t="s">
+        <v>347</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="A17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C17" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E17" t="s">
+        <v>356</v>
+      </c>
+      <c r="F17" t="s">
+        <v>357</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>49</v>
+      <c r="A19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -6207,94 +6392,146 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="2" t="s">
-        <v>17</v>
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>82</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" t="s">
-        <v>5</v>
+      <c r="A24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>95</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>99</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>100</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>101</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>102</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F27" t="s">
         <v>103</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G27" t="s">
         <v>5</v>
       </c>
     </row>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="372">
   <si>
     <t>name</t>
   </si>
@@ -164,27 +164,9 @@
     <t>pnt</t>
   </si>
   <si>
-    <t>GIWEL II (Vadva)</t>
-  </si>
-  <si>
-    <t>Renew Power (Bhuvad)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ostro Kutch Wind </t>
-  </si>
-  <si>
     <t>Bachau Pooling</t>
   </si>
   <si>
-    <t>GIWEL III (Naranpar)</t>
-  </si>
-  <si>
-    <t>Inox (Vadva)</t>
-  </si>
-  <si>
-    <t>AGEMPL (Ratadiya)</t>
-  </si>
-  <si>
     <t>Bhuj Pooling</t>
   </si>
   <si>
@@ -302,15 +284,6 @@
     <t>Total State Solar</t>
   </si>
   <si>
-    <t>Mahindra</t>
-  </si>
-  <si>
-    <t>ARINSUN</t>
-  </si>
-  <si>
-    <t>ACME</t>
-  </si>
-  <si>
     <t>WIND</t>
   </si>
   <si>
@@ -323,9 +296,6 @@
     <t>r16_pnt</t>
   </si>
   <si>
-    <t>Ostro Kutch Wind</t>
-  </si>
-  <si>
     <t>Total ISTS Wind</t>
   </si>
   <si>
@@ -992,9 +962,6 @@
     <t>WREMCPRI.SCADA01.00034363</t>
   </si>
   <si>
-    <t>Alfanar</t>
-  </si>
-  <si>
     <t>WREMCPRI.SCADA01.00049203</t>
   </si>
   <si>
@@ -1031,9 +998,6 @@
     <t>REMC Report/WR</t>
   </si>
   <si>
-    <t>Inox (Dayapar)</t>
-  </si>
-  <si>
     <t>Regional Actual for previous day</t>
   </si>
   <si>
@@ -1091,9 +1055,6 @@
     <t>AlfanarWind_SECI-III-WIND_WIND_AVC</t>
   </si>
   <si>
-    <t>Renew(AP2)</t>
-  </si>
-  <si>
     <t>AlfanarWind_SECI-III-WIND_WIND_R0</t>
   </si>
   <si>
@@ -1131,6 +1092,75 @@
   </si>
   <si>
     <t>WREMCPRI.SCADA01.00046369</t>
+  </si>
+  <si>
+    <t>Acme (Ramnagar)_Rewa</t>
+  </si>
+  <si>
+    <t>Mahindra (Badwar)_Rewa</t>
+  </si>
+  <si>
+    <t>Arinsun (Barsaitadesh)_Rewa</t>
+  </si>
+  <si>
+    <t>Ostro Kutch_Bachau</t>
+  </si>
+  <si>
+    <t>Renew (Bhuvad)_Bachau</t>
+  </si>
+  <si>
+    <t>Inox (Dayapar)_Bhuj</t>
+  </si>
+  <si>
+    <t>GIWEL-2(Vadva)_Bhuj</t>
+  </si>
+  <si>
+    <t>GIWEL-3 (Naranpar)_Bhuj</t>
+  </si>
+  <si>
+    <t>Adani Green (Ratadiya)_Bhuj</t>
+  </si>
+  <si>
+    <t>Alfanar_Bhuj</t>
+  </si>
+  <si>
+    <t>Renew(AP2)_Bhuj</t>
+  </si>
+  <si>
+    <t>Ram nagar (ACME RUMS)-Solar</t>
+  </si>
+  <si>
+    <t>Badwar( Mahindra Rums)-Solar</t>
+  </si>
+  <si>
+    <t>Barsaita Desh (Arinsun)-Solar</t>
+  </si>
+  <si>
+    <t>Bhuvad(RPL SECI-2) Renew- Wind</t>
+  </si>
+  <si>
+    <t>Ostro-(OKWPL_RE)-Wind</t>
+  </si>
+  <si>
+    <t>Vadva(GIWEL-2)-WIND</t>
+  </si>
+  <si>
+    <t>Ratadiya(AGEMPL)-WIND</t>
+  </si>
+  <si>
+    <t>Alfanar-WIND</t>
+  </si>
+  <si>
+    <t>Renew(AP2)-Wind</t>
+  </si>
+  <si>
+    <t>Naranpar(GIWEL-3)-WIND</t>
+  </si>
+  <si>
+    <t>Dayapar(Inox-IWISL)-WIND</t>
+  </si>
+  <si>
+    <t>Badwar(Mahindra Rums)-Solar</t>
   </si>
 </sst>
 </file>
@@ -1511,34 +1541,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -1551,12 +1581,12 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
@@ -1569,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1586,7 +1616,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1594,7 +1624,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1602,7 +1632,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -1610,7 +1640,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1618,7 +1648,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1626,7 +1656,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1634,58 +1664,58 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1696,138 +1726,138 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="B16" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C16" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D16" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="B17" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C17" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D17" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1838,73 +1868,73 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>361</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1935,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1952,7 +1982,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1960,7 +1990,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1968,7 +1998,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -1976,7 +2006,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1984,7 +2014,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1992,7 +2022,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -2003,13 +2033,13 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -2023,13 +2053,13 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -2051,7 +2081,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -2059,58 +2089,58 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -2118,53 +2148,53 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2177,12 +2207,12 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
@@ -2195,13 +2225,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -2212,7 +2242,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -2220,7 +2250,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" t="s">
@@ -2229,7 +2259,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" t="s">
@@ -2238,7 +2268,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" t="s">
@@ -2247,7 +2277,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4"/>
       <c r="E6" t="s">
@@ -2256,7 +2286,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4"/>
       <c r="E7" t="s">
@@ -2265,58 +2295,58 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2327,138 +2357,138 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="B16" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C16" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D16" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="B17" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C17" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D17" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2469,73 +2499,73 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>371</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2570,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -2587,7 +2617,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -2595,7 +2625,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -2603,7 +2633,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -2611,7 +2641,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -2619,7 +2649,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -2630,13 +2660,13 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -2650,13 +2680,13 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -2678,7 +2708,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -2686,58 +2716,58 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -2745,53 +2775,53 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2822,12 +2852,12 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -2835,7 +2865,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -2843,7 +2873,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -2851,7 +2881,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -2859,35 +2889,35 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2900,12 +2930,12 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
@@ -2919,7 +2949,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -2927,7 +2957,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -2935,7 +2965,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -2943,7 +2973,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -2951,7 +2981,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -2959,7 +2989,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -2967,46 +2997,46 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>364</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -3014,102 +3044,102 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>369</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -3117,60 +3147,60 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>362</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>371</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -3178,35 +3208,35 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3240,7 +3270,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
@@ -3249,12 +3279,12 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -3262,7 +3292,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -3270,7 +3300,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -3284,7 +3314,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>22</v>
@@ -3293,7 +3323,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3304,7 +3334,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
@@ -3313,7 +3343,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3329,7 +3359,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -3337,58 +3367,58 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -3397,58 +3427,58 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -3456,7 +3486,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -3467,7 +3497,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -3478,13 +3508,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3516,612 +3546,612 @@
         <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C21" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C24" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C25" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C26" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C28" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C30" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C34" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C37" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C39" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C40" t="s">
         <v>256</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C40" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C48" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C49" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C50" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C54" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4158,10 +4188,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -4169,7 +4199,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -4180,10 +4210,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -4191,10 +4221,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -4202,10 +4232,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -4213,7 +4243,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -4224,10 +4254,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -4278,7 +4308,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
@@ -4286,7 +4316,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
@@ -4294,7 +4324,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>17</v>
@@ -4302,7 +4332,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>17</v>
@@ -4310,7 +4340,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>17</v>
@@ -4318,7 +4348,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>17</v>
@@ -4326,7 +4356,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>17</v>
@@ -4334,19 +4364,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4">
         <v>15344</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -4354,19 +4384,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B10" s="4">
         <v>6013</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -4381,13 +4411,13 @@
         <v>21357</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -4395,7 +4425,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>17</v>
@@ -4403,7 +4433,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>17</v>
@@ -4418,13 +4448,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -4464,12 +4494,12 @@
         <v>11</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -4477,7 +4507,7 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>17</v>
@@ -4485,7 +4515,7 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>17</v>
@@ -4493,7 +4523,7 @@
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
@@ -4501,7 +4531,7 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>17</v>
@@ -4509,65 +4539,65 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="B7" s="1">
         <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="B8" s="1">
         <v>212.1</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <f>SUM(B7:B8)</f>
@@ -4575,15 +4605,15 @@
       </c>
       <c r="D9"/>
       <c r="F9" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>17</v>
@@ -4591,181 +4621,181 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>355</v>
       </c>
       <c r="B11" s="4">
         <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>356</v>
       </c>
       <c r="B12" s="4">
         <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="B13" s="4">
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="B14" s="4">
         <v>176</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="B15" s="2">
         <v>214</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D15" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B16" s="2">
         <v>72.5</v>
       </c>
       <c r="C16" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D16" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
@@ -4773,15 +4803,15 @@
       </c>
       <c r="D17"/>
       <c r="F17" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D18" s="4"/>
       <c r="F18" s="2" t="s">
@@ -4790,7 +4820,7 @@
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>17</v>
@@ -4798,16 +4828,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
       <c r="B20" s="4">
         <v>250</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>18</v>
@@ -4816,27 +4846,27 @@
         <v>5</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>87</v>
+        <v>349</v>
       </c>
       <c r="B21" s="4">
         <v>250</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>19</v>
@@ -4845,27 +4875,27 @@
         <v>5</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="B22" s="4">
         <v>250</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>20</v>
@@ -4874,18 +4904,18 @@
         <v>5</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4">
         <f>SUM(B20:B22)</f>
@@ -4895,16 +4925,16 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D24"/>
       <c r="F24" s="4" t="s">
@@ -4914,7 +4944,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25" s="4">
         <f>B23</f>
@@ -4952,7 +4982,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
@@ -4962,15 +4992,15 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -5043,12 +5073,12 @@
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>17</v>
@@ -5056,7 +5086,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>17</v>
@@ -5064,7 +5094,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>17</v>
@@ -5072,7 +5102,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
@@ -5086,10 +5116,10 @@
         <v>2248</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>28</v>
@@ -5104,7 +5134,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5115,10 +5145,10 @@
         <v>6265</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>27</v>
@@ -5133,7 +5163,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5155,7 +5185,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>17</v>
@@ -5163,65 +5193,65 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4">
         <v>1460</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4">
         <v>5008</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4">
         <f>B10+B11</f>
@@ -5231,12 +5261,12 @@
         <v>26</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>17</v>
@@ -5244,65 +5274,65 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4">
         <v>1555</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4">
         <v>2418</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B16" s="4">
         <f>B15+B14</f>
@@ -5312,12 +5342,12 @@
         <v>26</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>17</v>
@@ -5325,7 +5355,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B18" s="4">
         <f>B7+B11+B15</f>
@@ -5340,7 +5370,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B19" s="4">
         <f>B6+B10+B14</f>
@@ -5355,22 +5385,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B20" s="4">
         <f>SUM(B18:B19)</f>
         <v>18954</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>17</v>
@@ -5413,7 +5443,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -5421,7 +5451,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -5429,7 +5459,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -5437,7 +5467,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -5459,13 +5489,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -5487,7 +5517,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -5495,7 +5525,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -5529,16 +5559,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -5546,7 +5576,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
@@ -5554,7 +5584,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -5566,7 +5596,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5578,7 +5608,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5590,7 +5620,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5602,7 +5632,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5614,7 +5644,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5626,7 +5656,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5638,7 +5668,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -5653,16 +5683,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -5673,16 +5703,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -5690,19 +5720,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
@@ -5710,19 +5740,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
@@ -5730,19 +5760,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>5</v>
@@ -5750,19 +5780,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>5</v>
@@ -5796,16 +5826,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -5813,7 +5843,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
@@ -5821,7 +5851,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -5833,7 +5863,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5845,7 +5875,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5857,7 +5887,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -5871,16 +5901,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -5891,16 +5921,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
@@ -5908,19 +5938,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -5928,19 +5958,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -5948,19 +5978,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -5968,19 +5998,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -5995,13 +6025,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
@@ -6016,19 +6046,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -6039,7 +6069,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -6047,7 +6077,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -6060,7 +6090,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6073,7 +6103,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -6086,7 +6116,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B6" s="4"/>
       <c r="D6" s="4"/>
@@ -6098,7 +6128,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B7" s="4"/>
       <c r="D7" s="4"/>
@@ -6110,70 +6140,70 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -6186,174 +6216,174 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="B16" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C16" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D16" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E16" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="F16" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="B17" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C17" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D17" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E17" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="F17" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -6366,96 +6396,96 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>361</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -6468,22 +6498,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -6491,22 +6521,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
         <v>94</v>
       </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
         <v>5</v>
@@ -6514,22 +6544,22 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
         <v>5</v>
@@ -6567,19 +6597,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -6591,12 +6621,12 @@
         <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -6604,7 +6634,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -6612,7 +6642,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -6620,7 +6650,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -6628,7 +6658,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -6636,7 +6666,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -6644,7 +6674,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -6652,7 +6682,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -6660,7 +6690,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -6668,7 +6698,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -6676,7 +6706,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -6684,7 +6714,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -6692,7 +6722,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -6700,7 +6730,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -6711,19 +6741,19 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -6735,7 +6765,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -6743,19 +6773,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F17" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -6767,7 +6797,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -6783,7 +6813,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -6791,82 +6821,82 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
@@ -6874,82 +6904,82 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F25" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -6957,7 +6987,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -6966,12 +6996,12 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -6980,18 +7010,18 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="J30" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -1533,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4448,8 +4448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4740,7 +4740,7 @@
         <v>358</v>
       </c>
       <c r="B15" s="2">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
         <v>335</v>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1212.5</v>
+        <v>1232.5</v>
       </c>
       <c r="D17"/>
       <c r="F17" s="4" t="s">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>1674.6</v>
+        <v>1694.6</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26"/>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2424.6</v>
+        <v>2444.6</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -1533,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4448,7 +4448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -4769,7 +4769,7 @@
         <v>359</v>
       </c>
       <c r="B16" s="2">
-        <v>72.5</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
         <v>344</v>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1232.5</v>
+        <v>1255</v>
       </c>
       <c r="D17"/>
       <c r="F17" s="4" t="s">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>1694.6</v>
+        <v>1717.1</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26"/>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2444.6</v>
+        <v>2467.1</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\remc_report_generator\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -4272,8 +4272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4367,7 +4367,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="4">
-        <v>15344</v>
+        <v>15491</v>
       </c>
       <c r="C9" t="s">
         <v>164</v>
@@ -4387,7 +4387,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="4">
-        <v>6013</v>
+        <v>6157</v>
       </c>
       <c r="C10" t="s">
         <v>159</v>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B11" s="4">
         <f>B10+B9</f>
-        <v>21357</v>
+        <v>21648</v>
       </c>
       <c r="C11" t="s">
         <v>154</v>
@@ -4448,8 +4448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4711,7 +4711,7 @@
         <v>357</v>
       </c>
       <c r="B14" s="4">
-        <v>176</v>
+        <v>176.4</v>
       </c>
       <c r="C14" t="s">
         <v>148</v>
@@ -4740,7 +4740,7 @@
         <v>358</v>
       </c>
       <c r="B15" s="2">
-        <v>234</v>
+        <v>234.6</v>
       </c>
       <c r="C15" t="s">
         <v>335</v>
@@ -4769,7 +4769,7 @@
         <v>359</v>
       </c>
       <c r="B16" s="2">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
         <v>344</v>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1255</v>
+        <v>1331</v>
       </c>
       <c r="D17"/>
       <c r="F17" s="4" t="s">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>1717.1</v>
+        <v>1793.1</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26"/>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2467.1</v>
+        <v>2543.1</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\remc_report_generator\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9491D0-D90E-43AF-B02A-185E8E738481}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ists_gen!$A$1:$I$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1185,7 +1186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1238,7 +1239,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1296,7 +1297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1348,7 +1349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1549,7 +1550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1596,7 +1597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2055,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -2421,7 +2422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2681,7 +2682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3056,7 +3057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3308,7 +3309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3404,7 +3405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3723,7 +3724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4001,7 +4002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4639,7 +4640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4747,11 +4748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4845,7 +4846,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="4">
-        <v>15491</v>
+        <v>15614</v>
       </c>
       <c r="C9" t="s">
         <v>164</v>
@@ -4865,7 +4866,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="4">
-        <v>6157</v>
+        <v>6382</v>
       </c>
       <c r="C10" t="s">
         <v>159</v>
@@ -4886,7 +4887,7 @@
       </c>
       <c r="B11" s="4">
         <f>B10+B9</f>
-        <v>21648</v>
+        <v>21996</v>
       </c>
       <c r="C11" t="s">
         <v>154</v>
@@ -4923,11 +4924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5247,7 +5248,7 @@
         <v>359</v>
       </c>
       <c r="B16" s="2">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
         <v>344</v>
@@ -5277,7 +5278,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1368.4</v>
+        <v>1419.4</v>
       </c>
       <c r="D17"/>
       <c r="F17" s="4" t="s">
@@ -5445,7 +5446,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>1830.5</v>
+        <v>1881.5</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26"/>
@@ -5464,7 +5465,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2580.5</v>
+        <v>2631.5</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -5503,11 +5504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5591,7 +5592,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="4">
-        <v>2248</v>
+        <v>2492</v>
       </c>
       <c r="C6" t="s">
         <v>189</v>
@@ -5620,7 +5621,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="4">
-        <v>6265</v>
+        <v>6299</v>
       </c>
       <c r="C7" t="s">
         <v>194</v>
@@ -5650,7 +5651,7 @@
       </c>
       <c r="B8" s="4">
         <f>SUM(B6:B7)</f>
-        <v>8513</v>
+        <v>8791</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>26</v>
@@ -5674,7 +5675,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="4">
-        <v>1460</v>
+        <v>1580</v>
       </c>
       <c r="C10" t="s">
         <v>179</v>
@@ -5703,7 +5704,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="4">
-        <v>5008</v>
+        <v>5010</v>
       </c>
       <c r="C11" t="s">
         <v>184</v>
@@ -5733,7 +5734,7 @@
       </c>
       <c r="B12" s="4">
         <f>B10+B11</f>
-        <v>6468</v>
+        <v>6590</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>26</v>
@@ -5755,7 +5756,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="4">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="C14" t="s">
         <v>169</v>
@@ -5784,7 +5785,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="4">
-        <v>2418</v>
+        <v>2424</v>
       </c>
       <c r="C15" t="s">
         <v>174</v>
@@ -5814,7 +5815,7 @@
       </c>
       <c r="B16" s="4">
         <f>B15+B14</f>
-        <v>3973</v>
+        <v>3984</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>26</v>
@@ -5837,7 +5838,7 @@
       </c>
       <c r="B18" s="4">
         <f>B7+B11+B15</f>
-        <v>13691</v>
+        <v>13733</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -5852,7 +5853,7 @@
       </c>
       <c r="B19" s="4">
         <f>B6+B10+B14</f>
-        <v>5263</v>
+        <v>5632</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
@@ -5867,7 +5868,7 @@
       </c>
       <c r="B20" s="4">
         <f>SUM(B18:B19)</f>
-        <v>18954</v>
+        <v>19365</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>74</v>
@@ -6138,11 +6139,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6440,7 +6441,7 @@
         <v>359</v>
       </c>
       <c r="B16" s="2">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
         <v>347</v>
@@ -6464,7 +6465,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1368.4</v>
+        <v>1419.4</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>76</v>
@@ -6623,7 +6624,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>1830.5</v>
+        <v>1881.5</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
@@ -6640,7 +6641,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2580.5</v>
+        <v>2631.5</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
@@ -6670,7 +6671,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="4">
-        <v>2248</v>
+        <v>2492</v>
       </c>
       <c r="C29" t="s">
         <v>307</v>
@@ -6693,7 +6694,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="4">
-        <v>6265</v>
+        <v>6299</v>
       </c>
       <c r="C30" t="s">
         <v>308</v>
@@ -6717,7 +6718,7 @@
       </c>
       <c r="B31" s="4">
         <f>SUM(B29:B30)</f>
-        <v>8513</v>
+        <v>8791</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
@@ -6747,7 +6748,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="4">
-        <v>1460</v>
+        <v>1580</v>
       </c>
       <c r="C33" t="s">
         <v>301</v>
@@ -6770,7 +6771,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="4">
-        <v>5008</v>
+        <v>5010</v>
       </c>
       <c r="C34" t="s">
         <v>302</v>
@@ -6794,7 +6795,7 @@
       </c>
       <c r="B35" s="4">
         <f>B33+B34</f>
-        <v>6468</v>
+        <v>6590</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
@@ -6824,7 +6825,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="4">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="C37" t="s">
         <v>304</v>
@@ -6847,7 +6848,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="4">
-        <v>2418</v>
+        <v>2424</v>
       </c>
       <c r="C38" t="s">
         <v>303</v>
@@ -6871,7 +6872,7 @@
       </c>
       <c r="B39" s="4">
         <f>B38+B37</f>
-        <v>3973</v>
+        <v>3984</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>76</v>
@@ -6900,7 +6901,7 @@
       </c>
       <c r="B41" s="4">
         <f>B30+B34+B38</f>
-        <v>13691</v>
+        <v>13733</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>13</v>
@@ -6917,7 +6918,7 @@
       </c>
       <c r="B42" s="4">
         <f>B29+B33+B37</f>
-        <v>5263</v>
+        <v>5632</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>13</v>
@@ -6934,7 +6935,7 @@
       </c>
       <c r="B43" s="4">
         <f>SUM(B41:B42)</f>
-        <v>18954</v>
+        <v>19365</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>74</v>
@@ -6961,7 +6962,7 @@
         <v>79</v>
       </c>
       <c r="B45" s="4">
-        <v>15491</v>
+        <v>15614</v>
       </c>
       <c r="C45" t="s">
         <v>299</v>
@@ -6975,7 +6976,7 @@
         <v>80</v>
       </c>
       <c r="B46" s="4">
-        <v>6157</v>
+        <v>6382</v>
       </c>
       <c r="C46" t="s">
         <v>300</v>
@@ -6990,7 +6991,7 @@
       </c>
       <c r="B47" s="4">
         <f>B46+B45</f>
-        <v>21648</v>
+        <v>21996</v>
       </c>
       <c r="C47" t="s">
         <v>298</v>
@@ -7282,7 +7283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7407,7 +7408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7674,7 +7675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7892,7 +7893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9491D0-D90E-43AF-B02A-185E8E738481}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5557D324-31C5-4DE7-B688-A544C9DBB445}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ists_gen!$A$1:$I$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -481,21 +481,6 @@
     <t>GIWEL_SECI-III_RE-WIND_WIND_AVC</t>
   </si>
   <si>
-    <t>AGEMPL-WIND_WIND_R0</t>
-  </si>
-  <si>
-    <t>AGEMPL-WIND_WIND_16</t>
-  </si>
-  <si>
-    <t>AGEMPL-WIND_WIND_Act</t>
-  </si>
-  <si>
-    <t>AGEMPL-WIND_WIND_CUF</t>
-  </si>
-  <si>
-    <t>AGEMPL-WIND_WIND_AVC</t>
-  </si>
-  <si>
     <t>combined</t>
   </si>
   <si>
@@ -685,9 +670,6 @@
     <t>GIWEL_SECI-III_RE-WIND_WIND</t>
   </si>
   <si>
-    <t>AGEMPL-WIND_WIND</t>
-  </si>
-  <si>
     <t>WR-ISTS_COMBINED</t>
   </si>
   <si>
@@ -754,12 +736,6 @@
     <t>Bachau Pooling Actual</t>
   </si>
   <si>
-    <t>GIWEL_SECI-II_RE-WIND_WIND_16,GIWEL_SECI-III_RE-WIND_WIND_16,IWISL-WIND_WIND_16,AGEMPL-WIND_WIND_16</t>
-  </si>
-  <si>
-    <t>GIWEL_SECI-II_RE-WIND_WIND_Act,GIWEL_SECI-III_RE-WIND_WIND_Act,IWISL-WIND_WIND_Act,AGEMPL-WIND_WIND_Act</t>
-  </si>
-  <si>
     <t>Bhuj Pooling Actual</t>
   </si>
   <si>
@@ -1120,9 +1096,6 @@
     <t>GIWEL-3 (Naranpar)_Bhuj</t>
   </si>
   <si>
-    <t>Adani Green (Ratadiya)_Bhuj</t>
-  </si>
-  <si>
     <t>Alfanar_Bhuj</t>
   </si>
   <si>
@@ -1147,9 +1120,6 @@
     <t>Vadva(GIWEL-2)-WIND</t>
   </si>
   <si>
-    <t>Ratadiya(AGEMPL)-WIND</t>
-  </si>
-  <si>
     <t>Alfanar-WIND</t>
   </si>
   <si>
@@ -1181,6 +1151,36 @@
   </si>
   <si>
     <t>state_wind</t>
+  </si>
+  <si>
+    <t>AWEK1L-WIND_WIND_AVC</t>
+  </si>
+  <si>
+    <t>AWEK1L-WIND_WIND_R0</t>
+  </si>
+  <si>
+    <t>AWEK1L-WIND_WIND_16</t>
+  </si>
+  <si>
+    <t>AWEK1L-WIND_WIND_Act</t>
+  </si>
+  <si>
+    <t>AWEK1L-WIND_WIND_CUF</t>
+  </si>
+  <si>
+    <t>AWEK1L-WIND_WIND</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-II_RE-WIND_WIND_16,GIWEL_SECI-III_RE-WIND_WIND_16,IWISL-WIND_WIND_16,AWEK1L-WIND_WIND_16</t>
+  </si>
+  <si>
+    <t>GIWEL_SECI-II_RE-WIND_WIND_Act,GIWEL_SECI-III_RE-WIND_WIND_Act,IWISL-WIND_WIND_Act,AWEK1L-WIND_WIND_Act</t>
+  </si>
+  <si>
+    <t>AWEK1L_Bhuj</t>
+  </si>
+  <si>
+    <t>AWEK1L-WIND</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1561,34 +1561,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1647,7 +1647,7 @@
         <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1767,19 +1767,19 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1799,19 +1799,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -1850,19 +1850,19 @@
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -1882,19 +1882,19 @@
         <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -1933,19 +1933,19 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -1965,19 +1965,19 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -2044,7 +2044,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="J30" t="s">
         <v>71</v>
@@ -2060,7 +2060,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
         <v>105</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
         <v>125</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
         <v>130</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
         <v>140</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
         <v>135</v>
@@ -2265,16 +2265,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>370</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>368</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>371</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
@@ -2285,16 +2285,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B16" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C16" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>5</v>
@@ -2305,16 +2305,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C17" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D17" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>5</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B20" t="s">
         <v>115</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B21" t="s">
         <v>110</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B22" t="s">
         <v>120</v>
@@ -2512,13 +2512,13 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -2532,13 +2532,13 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -2571,13 +2571,13 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -2591,13 +2591,13 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -2630,13 +2630,13 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -2650,13 +2650,13 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -2686,7 +2686,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
         <v>105</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
         <v>125</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
         <v>130</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
         <v>140</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
         <v>135</v>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>370</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>368</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>371</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
@@ -2916,16 +2916,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B16" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C16" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>5</v>
@@ -2936,16 +2936,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C17" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D17" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>5</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B20" t="s">
         <v>115</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B21" t="s">
         <v>110</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B22" t="s">
         <v>120</v>
@@ -3061,7 +3061,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3139,13 +3139,13 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -3159,13 +3159,13 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -3198,13 +3198,13 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -3218,13 +3218,13 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -3257,13 +3257,13 @@
         <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -3277,13 +3277,13 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -3331,7 +3331,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3368,35 +3368,35 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3409,7 +3409,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,7 +3428,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -3476,13 +3476,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>41</v>
@@ -3490,13 +3490,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>41</v>
@@ -3523,13 +3523,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>42</v>
@@ -3537,13 +3537,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>42</v>
@@ -3551,13 +3551,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>42</v>
@@ -3565,13 +3565,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>373</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>42</v>
@@ -3579,13 +3579,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>42</v>
@@ -3593,13 +3593,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>42</v>
@@ -3626,13 +3626,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -3640,13 +3640,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
         <v>43</v>
@@ -3654,13 +3654,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
@@ -3693,7 +3693,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3704,7 +3704,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3715,7 +3715,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3749,7 +3749,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
@@ -3793,7 +3793,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>22</v>
@@ -3813,7 +3813,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
@@ -3852,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
@@ -3872,7 +3872,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
@@ -3912,7 +3912,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>50</v>
@@ -3932,7 +3932,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>50</v>
@@ -4005,8 +4005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,7 +4014,11 @@
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4025,612 +4029,612 @@
         <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C21" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C22" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>235</v>
+        <v>374</v>
       </c>
       <c r="C24" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="C25" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
       <c r="C26" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C28" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C29" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C30" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C31" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C32" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C33" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C34" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C35" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C36" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C38" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C39" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C40" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C41" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C44" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" t="s">
         <v>248</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C48" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C49" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C50" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C53" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4667,10 +4671,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -4678,7 +4682,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -4689,10 +4693,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -4700,7 +4704,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -4711,10 +4715,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -4722,7 +4726,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -4733,10 +4737,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -4751,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4849,10 +4853,10 @@
         <v>15614</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>55</v>
@@ -4869,10 +4873,10 @@
         <v>6382</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>56</v>
@@ -4890,10 +4894,10 @@
         <v>21996</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>57</v>
@@ -4928,7 +4932,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5018,7 +5022,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B7" s="1">
         <v>250</v>
@@ -5027,7 +5031,7 @@
         <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>63</v>
@@ -5047,7 +5051,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B8" s="1">
         <v>212.1</v>
@@ -5056,7 +5060,7 @@
         <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>62</v>
@@ -5100,7 +5104,7 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B11" s="4">
         <v>250</v>
@@ -5109,7 +5113,7 @@
         <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>61</v>
@@ -5129,7 +5133,7 @@
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B12" s="4">
         <v>300</v>
@@ -5138,7 +5142,7 @@
         <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>60</v>
@@ -5158,7 +5162,7 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B13" s="4">
         <v>200</v>
@@ -5167,7 +5171,7 @@
         <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>59</v>
@@ -5187,16 +5191,16 @@
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="B14" s="4">
-        <v>176.4</v>
+        <v>292</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>58</v>
@@ -5216,19 +5220,19 @@
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B15" s="2">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D15" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>5</v>
@@ -5245,19 +5249,19 @@
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B16" s="2">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D16" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>5</v>
@@ -5278,7 +5282,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1419.4</v>
+        <v>1615</v>
       </c>
       <c r="D17"/>
       <c r="F17" s="4" t="s">
@@ -5307,7 +5311,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B20" s="4">
         <v>250</v>
@@ -5316,7 +5320,7 @@
         <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>18</v>
@@ -5336,7 +5340,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B21" s="4">
         <v>250</v>
@@ -5345,7 +5349,7 @@
         <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>19</v>
@@ -5365,7 +5369,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B22" s="4">
         <v>250</v>
@@ -5374,7 +5378,7 @@
         <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>20</v>
@@ -5446,7 +5450,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>1881.5</v>
+        <v>2077.1</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26"/>
@@ -5465,7 +5469,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2631.5</v>
+        <v>2827.1</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -5508,7 +5512,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5595,10 +5599,10 @@
         <v>2492</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>28</v>
@@ -5624,10 +5628,10 @@
         <v>6299</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>27</v>
@@ -5678,10 +5682,10 @@
         <v>1580</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>64</v>
@@ -5707,10 +5711,10 @@
         <v>5010</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>65</v>
@@ -5759,10 +5763,10 @@
         <v>1560</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>66</v>
@@ -5788,10 +5792,10 @@
         <v>2424</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>67</v>
@@ -6143,7 +6147,7 @@
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6247,13 +6251,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B7" s="4">
         <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -6262,21 +6266,21 @@
         <v>41</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B8" s="4">
         <v>212.1</v>
       </c>
       <c r="C8" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
@@ -6285,10 +6289,10 @@
         <v>41</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6323,13 +6327,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B11" s="4">
         <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>5</v>
@@ -6338,21 +6342,21 @@
         <v>42</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B12" s="4">
         <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>5</v>
@@ -6361,21 +6365,21 @@
         <v>42</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B13" s="4">
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>5</v>
@@ -6384,21 +6388,21 @@
         <v>42</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="B14" s="4">
-        <v>176.4</v>
+        <v>292</v>
       </c>
       <c r="C14" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>5</v>
@@ -6407,21 +6411,21 @@
         <v>42</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B15" s="2">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>5</v>
@@ -6430,21 +6434,21 @@
         <v>42</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B16" s="2">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>5</v>
@@ -6453,10 +6457,10 @@
         <v>42</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6465,7 +6469,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1419.4</v>
+        <v>1615</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>76</v>
@@ -6504,13 +6508,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B20" s="4">
         <v>250</v>
       </c>
       <c r="C20" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>5</v>
@@ -6519,21 +6523,21 @@
         <v>43</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B21" s="4">
         <v>250</v>
       </c>
       <c r="C21" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>5</v>
@@ -6542,21 +6546,21 @@
         <v>43</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B22" s="4">
         <v>250</v>
       </c>
       <c r="C22" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>5</v>
@@ -6565,10 +6569,10 @@
         <v>43</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6603,7 +6607,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B25" s="4">
         <f>B23</f>
@@ -6614,24 +6618,24 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>1881.5</v>
+        <v>2077.1</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -6641,7 +6645,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2631.5</v>
+        <v>2827.1</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
@@ -6650,7 +6654,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6674,7 +6678,7 @@
         <v>2492</v>
       </c>
       <c r="C29" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>5</v>
@@ -6683,10 +6687,10 @@
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6697,7 +6701,7 @@
         <v>6299</v>
       </c>
       <c r="C30" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>5</v>
@@ -6706,10 +6710,10 @@
         <v>22</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6751,7 +6755,7 @@
         <v>1580</v>
       </c>
       <c r="C33" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>5</v>
@@ -6760,10 +6764,10 @@
         <v>49</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -6774,7 +6778,7 @@
         <v>5010</v>
       </c>
       <c r="C34" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>5</v>
@@ -6783,10 +6787,10 @@
         <v>49</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -6828,7 +6832,7 @@
         <v>1560</v>
       </c>
       <c r="C37" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>5</v>
@@ -6837,10 +6841,10 @@
         <v>50</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6851,7 +6855,7 @@
         <v>2424</v>
       </c>
       <c r="C38" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>5</v>
@@ -6860,10 +6864,10 @@
         <v>50</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6908,7 +6912,7 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G41" s="4"/>
     </row>
@@ -6925,7 +6929,7 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G42" s="4"/>
     </row>
@@ -6943,7 +6947,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -6965,7 +6969,7 @@
         <v>15614</v>
       </c>
       <c r="C45" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>5</v>
@@ -6979,7 +6983,7 @@
         <v>6382</v>
       </c>
       <c r="C46" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>5</v>
@@ -6994,7 +6998,7 @@
         <v>21996</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>5</v>
@@ -7412,7 +7416,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7554,16 +7558,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -7574,16 +7578,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -7591,19 +7595,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" t="s">
         <v>149</v>
-      </c>
-      <c r="B13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" t="s">
-        <v>154</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
@@ -7611,7 +7615,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B14" t="s">
         <v>94</v>
@@ -7631,7 +7635,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
@@ -7651,7 +7655,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
         <v>89</v>
@@ -7772,16 +7776,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -7792,16 +7796,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
@@ -7809,19 +7813,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" t="s">
         <v>149</v>
-      </c>
-      <c r="B9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" t="s">
-        <v>154</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -7829,7 +7833,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
@@ -7849,7 +7853,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
         <v>100</v>
@@ -7869,7 +7873,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
         <v>90</v>
@@ -8011,7 +8015,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
         <v>104</v>
@@ -8037,7 +8041,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
@@ -8087,7 +8091,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
         <v>129</v>
@@ -8113,7 +8117,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
         <v>139</v>
@@ -8139,7 +8143,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
         <v>134</v>
@@ -8165,22 +8169,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>369</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>370</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>371</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>372</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>368</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>5</v>
@@ -8191,22 +8195,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B16" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E16" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F16" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>5</v>
@@ -8217,22 +8221,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D17" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E17" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F17" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>5</v>
@@ -8267,7 +8271,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B20" t="s">
         <v>114</v>
@@ -8293,7 +8297,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B21" t="s">
         <v>109</v>
@@ -8319,7 +8323,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5557D324-31C5-4DE7-B688-A544C9DBB445}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A1EEC-6C19-43AD-9D66-EA9ED6BA783E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -1553,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4755,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4932,7 +4932,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5054,7 +5054,7 @@
         <v>345</v>
       </c>
       <c r="B8" s="1">
-        <v>212.1</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
         <v>128</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="B9" s="1">
         <f>SUM(B7:B8)</f>
-        <v>462.1</v>
+        <v>480</v>
       </c>
       <c r="D9"/>
       <c r="F9" s="1" t="s">
@@ -5194,7 +5194,7 @@
         <v>376</v>
       </c>
       <c r="B14" s="4">
-        <v>292</v>
+        <v>322.8</v>
       </c>
       <c r="C14" t="s">
         <v>368</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1615</v>
+        <v>1645.8</v>
       </c>
       <c r="D17"/>
       <c r="F17" s="4" t="s">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>2077.1</v>
+        <v>2125.8000000000002</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26"/>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2827.1</v>
+        <v>2875.8</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -6147,7 +6147,7 @@
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6277,7 +6277,7 @@
         <v>345</v>
       </c>
       <c r="B8" s="4">
-        <v>212.1</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
         <v>282</v>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="B9" s="4">
         <f>SUM(B7:B8)</f>
-        <v>462.1</v>
+        <v>480</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>76</v>
@@ -6399,7 +6399,7 @@
         <v>376</v>
       </c>
       <c r="B14" s="4">
-        <v>292</v>
+        <v>322.8</v>
       </c>
       <c r="C14" t="s">
         <v>286</v>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1615</v>
+        <v>1645.8</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>76</v>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>2077.1</v>
+        <v>2125.8000000000002</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2827.1</v>
+        <v>2875.8</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A1EEC-6C19-43AD-9D66-EA9ED6BA783E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10511F66-45D6-4B94-A887-53F8EEDE9FEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -1557,9 +1557,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>301</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -1604,21 +1604,21 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>70</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2059,21 +2059,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>356</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>359</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>377</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>353</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>351</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>352</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2429,17 +2429,17 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -2685,21 +2685,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>356</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>359</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>377</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>353</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>351</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>361</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C24" s="4"/>
     </row>
   </sheetData>
@@ -3064,17 +3064,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -3316,14 +3316,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -3412,15 +3412,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>355</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>354</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>356</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>359</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>360</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>377</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>357</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>358</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>353</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>351</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>361</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3731,17 +3731,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -4005,23 +4005,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>259</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>263</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>220</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>309</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>264</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>221</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>310</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>265</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>222</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>266</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>225</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>312</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>267</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>223</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>313</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>268</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>224</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>314</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>269</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>228</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>315</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>270</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>229</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>316</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>271</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>232</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>317</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>272</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>233</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>318</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>273</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>236</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>319</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>274</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>237</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>320</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>275</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>238</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>321</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>276</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>239</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>322</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>277</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>240</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>323</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>278</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>243</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>324</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>279</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>244</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>325</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>280</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>245</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>326</v>
       </c>
@@ -4651,14 +4651,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>261</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>253</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -4756,20 +4756,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="29" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="6" max="6" width="7.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
@@ -4845,12 +4845,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B9" s="4">
-        <v>15614</v>
+        <v>15859</v>
       </c>
       <c r="C9" t="s">
         <v>159</v>
@@ -4865,7 +4865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>80</v>
       </c>
@@ -4885,13 +4885,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4">
         <f>B10+B9</f>
-        <v>21996</v>
+        <v>22241</v>
       </c>
       <c r="C11" t="s">
         <v>149</v>
@@ -4906,7 +4906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
@@ -4931,27 +4931,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>344</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>345</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>347</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>348</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>346</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>376</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>349</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>350</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>343</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>341</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>342</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>73</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -5512,25 +5512,25 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="44.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -5666,7 +5666,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>77</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>75</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>70</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>70</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>70</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>70</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>70</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>70</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>70</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>70</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>70</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>70</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>70</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>70</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>70</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>70</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>70</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>70</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>70</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>70</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>70</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>70</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>70</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>70</v>
       </c>
@@ -6146,22 +6146,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -6210,7 +6210,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -6223,7 +6223,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -6236,7 +6236,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -6249,7 +6249,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>344</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>345</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -6312,7 +6312,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -6325,7 +6325,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>347</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>348</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>346</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>376</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>349</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>350</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -6480,7 +6480,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -6493,7 +6493,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -6506,7 +6506,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>343</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>341</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>342</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -6593,7 +6593,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>363</v>
       </c>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>364</v>
       </c>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>73</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -6670,7 +6670,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -6734,7 +6734,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
@@ -6811,7 +6811,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
@@ -6824,7 +6824,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>51</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>52</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>53</v>
       </c>
@@ -6887,7 +6887,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
@@ -6899,7 +6899,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>75</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>70</v>
       </c>
@@ -6961,7 +6961,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>79</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>80</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>70</v>
       </c>
@@ -7013,272 +7013,272 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="4"/>
     </row>
   </sheetData>
@@ -7294,15 +7294,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -7419,17 +7419,17 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>218</v>
       </c>
@@ -7686,17 +7686,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -7904,19 +7904,19 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>356</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>359</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>377</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>353</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>351</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>352</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>85</v>
       </c>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10511F66-45D6-4B94-A887-53F8EEDE9FEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495DFA3B-8596-49FA-B580-30F391B1D5BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -1557,9 +1557,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>301</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -1604,21 +1604,21 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>70</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2063,17 +2063,17 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>356</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>359</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>377</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>353</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>351</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>352</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2429,17 +2429,17 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -2689,17 +2689,17 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>356</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>359</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>377</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>353</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>351</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>361</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
     </row>
   </sheetData>
@@ -3064,17 +3064,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -3316,14 +3316,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -3412,15 +3412,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>355</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>354</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>356</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>359</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>360</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>377</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>357</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>358</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>353</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>351</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>361</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3731,17 +3731,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -4009,19 +4009,19 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7265625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>259</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>263</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>220</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>309</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>264</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>221</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>310</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>265</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>222</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>266</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>225</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>312</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>267</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>223</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>313</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>268</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>224</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>314</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>269</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>228</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>315</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>270</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>229</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>316</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>271</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>232</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>317</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>272</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>233</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>318</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>273</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>236</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>319</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>274</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>237</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>320</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>275</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>238</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>321</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>276</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>239</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>322</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>277</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>240</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>323</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>278</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>243</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>324</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>279</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>244</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>325</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>280</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>245</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>326</v>
       </c>
@@ -4651,14 +4651,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>261</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>253</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -4755,21 +4755,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="29" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="4"/>
+    <col min="6" max="6" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>79</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>80</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
@@ -4935,23 +4935,23 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="1"/>
-    <col min="11" max="11" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>344</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>345</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>347</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>348</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>346</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>376</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>349</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>350</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>343</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>341</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>342</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>73</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -5515,22 +5515,22 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="4"/>
+    <col min="3" max="3" width="44.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -5666,7 +5666,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>77</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>75</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>70</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>70</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>70</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>70</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>70</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>70</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>70</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>70</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>70</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>70</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>70</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>70</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>70</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>70</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>70</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>70</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>70</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>70</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>70</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>70</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>70</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>70</v>
       </c>
@@ -6146,22 +6146,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -6210,7 +6210,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -6223,7 +6223,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -6236,7 +6236,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -6249,7 +6249,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>344</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>345</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -6312,7 +6312,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -6325,7 +6325,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>347</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>348</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>346</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>376</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>349</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>350</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -6480,7 +6480,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -6493,7 +6493,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -6506,7 +6506,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>343</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>341</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>342</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -6593,7 +6593,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>363</v>
       </c>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>364</v>
       </c>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>73</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -6670,7 +6670,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -6734,7 +6734,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
@@ -6811,7 +6811,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
@@ -6824,7 +6824,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>51</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>52</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>53</v>
       </c>
@@ -6887,7 +6887,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
@@ -6899,7 +6899,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>75</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>70</v>
       </c>
@@ -6961,12 +6961,13 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B45" s="4">
-        <v>15614</v>
+        <f>regional_profile!B9</f>
+        <v>15859</v>
       </c>
       <c r="C45" t="s">
         <v>291</v>
@@ -6975,11 +6976,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B46" s="4">
+        <f>regional_profile!B10</f>
         <v>6382</v>
       </c>
       <c r="C46" t="s">
@@ -6989,13 +6991,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="4">
         <f>B46+B45</f>
-        <v>21996</v>
+        <v>22241</v>
       </c>
       <c r="C47" t="s">
         <v>290</v>
@@ -7004,7 +7006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>70</v>
       </c>
@@ -7013,272 +7015,272 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
     </row>
   </sheetData>
@@ -7294,15 +7296,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7316,7 +7318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7324,7 +7326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7332,7 +7334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7340,7 +7342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7348,7 +7350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -7362,7 +7364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
@@ -7376,7 +7378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
@@ -7390,7 +7392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -7398,7 +7400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -7419,17 +7421,17 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7449,7 +7451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7457,7 +7459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7469,7 +7471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7481,7 +7483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7493,7 +7495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -7505,7 +7507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -7517,7 +7519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -7529,7 +7531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -7541,7 +7543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -7553,7 +7555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -7573,7 +7575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -7593,7 +7595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -7613,7 +7615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -7633,7 +7635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -7653,7 +7655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>218</v>
       </c>
@@ -7686,17 +7688,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7716,7 +7718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7724,7 +7726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7736,7 +7738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7748,7 +7750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7760,7 +7762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -7771,7 +7773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -7791,7 +7793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -7811,7 +7813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -7831,7 +7833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -7851,7 +7853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -7871,7 +7873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -7904,19 +7906,19 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7942,7 +7944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7950,7 +7952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7963,7 +7965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7976,7 +7978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7989,7 +7991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -8013,7 +8015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -8039,7 +8041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -8065,7 +8067,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -8076,7 +8078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -8089,7 +8091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>356</v>
       </c>
@@ -8115,7 +8117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>359</v>
       </c>
@@ -8141,7 +8143,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -8167,7 +8169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>377</v>
       </c>
@@ -8193,7 +8195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -8219,7 +8221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -8245,7 +8247,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -8256,7 +8258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -8269,7 +8271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>353</v>
       </c>
@@ -8295,7 +8297,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>351</v>
       </c>
@@ -8321,7 +8323,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>352</v>
       </c>
@@ -8347,7 +8349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -8358,7 +8360,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -8371,7 +8373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -8394,7 +8396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -8417,7 +8419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495DFA3B-8596-49FA-B580-30F391B1D5BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653AA8DB-030A-4856-AB3A-9CFDF3986C0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -4755,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4850,7 +4850,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="4">
-        <v>15859</v>
+        <v>15883</v>
       </c>
       <c r="C9" t="s">
         <v>159</v>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B11" s="4">
         <f>B10+B9</f>
-        <v>22241</v>
+        <v>22265</v>
       </c>
       <c r="C11" t="s">
         <v>149</v>
@@ -4931,8 +4931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5194,7 +5194,7 @@
         <v>376</v>
       </c>
       <c r="B14" s="4">
-        <v>322.8</v>
+        <v>320</v>
       </c>
       <c r="C14" t="s">
         <v>368</v>
@@ -5223,7 +5223,7 @@
         <v>349</v>
       </c>
       <c r="B15" s="2">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s">
         <v>327</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1645.8</v>
+        <v>1670</v>
       </c>
       <c r="D17"/>
       <c r="F17" s="4" t="s">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>2125.8000000000002</v>
+        <v>2150</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26"/>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2875.8</v>
+        <v>2900</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -5512,7 +5512,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6146,8 +6146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6399,7 +6399,7 @@
         <v>376</v>
       </c>
       <c r="B14" s="4">
-        <v>322.8</v>
+        <v>320</v>
       </c>
       <c r="C14" t="s">
         <v>286</v>
@@ -6422,7 +6422,7 @@
         <v>349</v>
       </c>
       <c r="B15" s="2">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s">
         <v>297</v>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1645.8</v>
+        <v>1670</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>76</v>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>2125.8000000000002</v>
+        <v>2150</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2875.8</v>
+        <v>2900</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="B45" s="4">
         <f>regional_profile!B9</f>
-        <v>15859</v>
+        <v>15883</v>
       </c>
       <c r="C45" t="s">
         <v>291</v>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="B47" s="4">
         <f>B46+B45</f>
-        <v>22241</v>
+        <v>22265</v>
       </c>
       <c r="C47" t="s">
         <v>290</v>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653AA8DB-030A-4856-AB3A-9CFDF3986C0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC67149F-2735-4660-9DE7-420A45A28F76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -1557,9 +1557,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>301</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -1604,21 +1604,21 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>70</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2063,17 +2063,17 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>356</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>359</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>377</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>353</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>351</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>352</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2429,17 +2429,17 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -2685,21 +2685,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>356</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>359</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>377</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>353</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>351</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>361</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C24" s="4"/>
     </row>
   </sheetData>
@@ -3064,17 +3064,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -3316,14 +3316,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -3412,15 +3412,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>355</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>354</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>356</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>359</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>360</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>377</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>357</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>358</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>353</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>351</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>361</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3731,17 +3731,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -4009,19 +4009,19 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>259</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>263</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>220</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>309</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>264</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>221</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>310</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>265</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>222</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>266</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>225</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>312</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>267</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>223</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>313</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>268</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>224</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>314</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>269</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>228</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>315</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>270</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>229</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>316</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>271</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>232</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>317</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>272</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>233</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>318</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>273</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>236</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>319</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>274</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>237</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>320</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>275</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>238</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>321</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>276</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>239</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>322</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>277</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>240</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>323</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>278</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>243</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>324</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>279</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>244</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>325</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>280</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>245</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>326</v>
       </c>
@@ -4651,14 +4651,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>261</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>253</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -4756,20 +4756,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="29" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="6" max="6" width="7.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
@@ -4845,12 +4845,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B9" s="4">
-        <v>15883</v>
+        <v>16053</v>
       </c>
       <c r="C9" t="s">
         <v>159</v>
@@ -4865,7 +4865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>80</v>
       </c>
@@ -4885,13 +4885,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4">
         <f>B10+B9</f>
-        <v>22265</v>
+        <v>22435</v>
       </c>
       <c r="C11" t="s">
         <v>149</v>
@@ -4906,7 +4906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
@@ -4931,27 +4931,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>344</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>345</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>347</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>348</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>346</v>
       </c>
@@ -5189,12 +5189,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>376</v>
       </c>
       <c r="B14" s="4">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="C14" t="s">
         <v>368</v>
@@ -5218,7 +5218,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>349</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>350</v>
       </c>
@@ -5276,13 +5276,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1670</v>
+        <v>1714</v>
       </c>
       <c r="D17"/>
       <c r="F17" s="4" t="s">
@@ -5292,7 +5292,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>343</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>341</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>342</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
@@ -5444,13 +5444,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>2150</v>
+        <v>2194</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26"/>
@@ -5463,13 +5463,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2900</v>
+        <v>2944</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -5481,7 +5481,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -5512,25 +5512,25 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="44.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -5620,12 +5620,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="4">
-        <v>6299</v>
+        <v>6425</v>
       </c>
       <c r="C7" t="s">
         <v>189</v>
@@ -5649,13 +5649,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B6:B7)</f>
-        <v>8791</v>
+        <v>8917</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>26</v>
@@ -5666,7 +5666,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
@@ -5836,13 +5836,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B18" s="4">
         <f>B7+B11+B15</f>
-        <v>13733</v>
+        <v>13859</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -5851,7 +5851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -5866,13 +5866,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B20" s="4">
         <f>SUM(B18:B19)</f>
-        <v>19365</v>
+        <v>19491</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>74</v>
@@ -5881,7 +5881,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>70</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>70</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>70</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>70</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>70</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>70</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>70</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>70</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>70</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>70</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>70</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>70</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>70</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>70</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>70</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>70</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>70</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>70</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>70</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>70</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>70</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>70</v>
       </c>
@@ -6146,22 +6146,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -6210,7 +6210,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -6223,7 +6223,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -6236,7 +6236,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -6249,7 +6249,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>344</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>345</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -6312,7 +6312,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -6325,7 +6325,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>347</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>348</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>346</v>
       </c>
@@ -6394,12 +6394,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>376</v>
       </c>
       <c r="B14" s="4">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="C14" t="s">
         <v>286</v>
@@ -6417,7 +6417,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>349</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>350</v>
       </c>
@@ -6463,13 +6463,13 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1670</v>
+        <v>1714</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>76</v>
@@ -6480,7 +6480,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -6493,7 +6493,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -6506,7 +6506,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>343</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>341</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>342</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -6593,7 +6593,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>363</v>
       </c>
@@ -6622,13 +6622,13 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>364</v>
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>2150</v>
+        <v>2194</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
@@ -6639,13 +6639,13 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2900</v>
+        <v>2944</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
@@ -6657,7 +6657,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -6670,7 +6670,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -6693,12 +6693,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="4">
-        <v>6299</v>
+        <v>6425</v>
       </c>
       <c r="C30" t="s">
         <v>300</v>
@@ -6716,13 +6716,13 @@
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="4">
         <f>SUM(B29:B30)</f>
-        <v>8791</v>
+        <v>8917</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
@@ -6734,7 +6734,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
@@ -6811,7 +6811,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
@@ -6824,7 +6824,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>51</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>52</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>53</v>
       </c>
@@ -6887,7 +6887,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
@@ -6899,13 +6899,13 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="4">
         <f>B30+B34+B38</f>
-        <v>13733</v>
+        <v>13859</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>13</v>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
@@ -6933,13 +6933,13 @@
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B43" s="4">
         <f>SUM(B41:B42)</f>
-        <v>19365</v>
+        <v>19491</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>74</v>
@@ -6950,7 +6950,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>70</v>
       </c>
@@ -6961,13 +6961,13 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B45" s="4">
         <f>regional_profile!B9</f>
-        <v>15883</v>
+        <v>16053</v>
       </c>
       <c r="C45" t="s">
         <v>291</v>
@@ -6976,7 +6976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>80</v>
       </c>
@@ -6991,13 +6991,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="4">
         <f>B46+B45</f>
-        <v>22265</v>
+        <v>22435</v>
       </c>
       <c r="C47" t="s">
         <v>290</v>
@@ -7006,7 +7006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>70</v>
       </c>
@@ -7015,272 +7015,272 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="4"/>
     </row>
   </sheetData>
@@ -7296,15 +7296,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -7421,17 +7421,17 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>218</v>
       </c>
@@ -7688,17 +7688,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -7906,19 +7906,19 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>356</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>359</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>377</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>353</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>351</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>352</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>85</v>
       </c>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC67149F-2735-4660-9DE7-420A45A28F76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E81EB-37FB-4166-A5A6-5146218521A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4850,7 +4850,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="4">
-        <v>16053</v>
+        <v>16085</v>
       </c>
       <c r="C9" t="s">
         <v>159</v>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B11" s="4">
         <f>B10+B9</f>
-        <v>22435</v>
+        <v>22467</v>
       </c>
       <c r="C11" t="s">
         <v>149</v>
@@ -4932,7 +4932,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5165,7 +5165,7 @@
         <v>346</v>
       </c>
       <c r="B13" s="4">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
         <v>138</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1714</v>
+        <v>1746</v>
       </c>
       <c r="D17"/>
       <c r="F17" s="4" t="s">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>2194</v>
+        <v>2226</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26"/>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2944</v>
+        <v>2976</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -6147,7 +6147,7 @@
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6376,7 +6376,7 @@
         <v>346</v>
       </c>
       <c r="B13" s="4">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
         <v>285</v>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1714</v>
+        <v>1746</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>76</v>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>2194</v>
+        <v>2226</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2944</v>
+        <v>2976</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="B45" s="4">
         <f>regional_profile!B9</f>
-        <v>16053</v>
+        <v>16085</v>
       </c>
       <c r="C45" t="s">
         <v>291</v>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="B47" s="4">
         <f>B46+B45</f>
-        <v>22435</v>
+        <v>22467</v>
       </c>
       <c r="C47" t="s">
         <v>290</v>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E81EB-37FB-4166-A5A6-5146218521A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8428D55F-8FCC-47A0-9C3F-0C5D87669A8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -1557,9 +1557,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>301</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -1604,21 +1604,21 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>70</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2063,17 +2063,17 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>356</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>359</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>377</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>353</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>351</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>352</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2429,17 +2429,17 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -2689,17 +2689,17 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>356</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>359</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>377</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>353</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>351</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>361</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
     </row>
   </sheetData>
@@ -3064,17 +3064,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -3316,14 +3316,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -3412,15 +3412,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>355</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>354</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>356</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>359</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>360</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>377</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>357</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>358</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>353</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>351</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>361</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3731,17 +3731,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -4009,19 +4009,19 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7265625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>259</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>263</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>220</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>309</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>264</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>221</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>310</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>265</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>222</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>266</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>225</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>312</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>267</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>223</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>313</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>268</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>224</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>314</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>269</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>228</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>315</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>270</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>229</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>316</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>271</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>232</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>317</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>272</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>233</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>318</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>273</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>236</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>319</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>274</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>237</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>320</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>275</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>238</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>321</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>276</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>239</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>322</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>277</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>240</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>323</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>278</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>243</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>324</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>279</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>244</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>325</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>280</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>245</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>326</v>
       </c>
@@ -4651,14 +4651,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>261</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>251</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>252</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>253</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -4756,20 +4756,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="29" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="4"/>
+    <col min="6" max="6" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>79</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>80</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
@@ -4931,27 +4931,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="1"/>
-    <col min="11" max="11" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>344</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>345</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>347</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>348</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>346</v>
       </c>
@@ -5189,12 +5189,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>376</v>
       </c>
       <c r="B14" s="4">
-        <v>364</v>
+        <v>394.4</v>
       </c>
       <c r="C14" t="s">
         <v>368</v>
@@ -5218,7 +5218,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>349</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>350</v>
       </c>
@@ -5276,13 +5276,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1746</v>
+        <v>1776.4</v>
       </c>
       <c r="D17"/>
       <c r="F17" s="4" t="s">
@@ -5292,7 +5292,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>343</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>341</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>342</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
@@ -5444,13 +5444,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>2226</v>
+        <v>2256.4</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26"/>
@@ -5463,13 +5463,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2976</v>
+        <v>3006.4</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -5481,7 +5481,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -5515,22 +5515,22 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="4"/>
+    <col min="3" max="3" width="44.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -5666,7 +5666,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>77</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>75</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>70</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>70</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>70</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>70</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>70</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>70</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>70</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>70</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>70</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>70</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>70</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>70</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>70</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>70</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>70</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>70</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>70</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>70</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>70</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>70</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>70</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>70</v>
       </c>
@@ -6146,22 +6146,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -6210,7 +6210,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -6223,7 +6223,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -6236,7 +6236,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -6249,7 +6249,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>344</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>345</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -6312,7 +6312,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -6325,7 +6325,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>347</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>348</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>346</v>
       </c>
@@ -6394,12 +6394,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>376</v>
       </c>
       <c r="B14" s="4">
-        <v>364</v>
+        <v>394.4</v>
       </c>
       <c r="C14" t="s">
         <v>286</v>
@@ -6417,7 +6417,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>349</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>350</v>
       </c>
@@ -6463,13 +6463,13 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1746</v>
+        <v>1776.4</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>76</v>
@@ -6480,7 +6480,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -6493,7 +6493,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -6506,7 +6506,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>343</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>341</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>342</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -6593,7 +6593,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>363</v>
       </c>
@@ -6622,13 +6622,13 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>364</v>
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>2226</v>
+        <v>2256.4</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
@@ -6639,13 +6639,13 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>2976</v>
+        <v>3006.4</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
@@ -6657,7 +6657,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -6670,7 +6670,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -6734,7 +6734,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
@@ -6811,7 +6811,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
@@ -6824,7 +6824,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>51</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>52</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>53</v>
       </c>
@@ -6887,7 +6887,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
@@ -6899,7 +6899,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>75</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>70</v>
       </c>
@@ -6961,7 +6961,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>79</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>80</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>70</v>
       </c>
@@ -7015,272 +7015,272 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
     </row>
   </sheetData>
@@ -7296,15 +7296,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="28.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -7421,17 +7421,17 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>218</v>
       </c>
@@ -7688,17 +7688,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -7906,19 +7906,19 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>356</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>359</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>377</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>357</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>353</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>351</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>352</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8428D55F-8FCC-47A0-9C3F-0C5D87669A8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -37,7 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ists_gen!$A$1:$I$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1186,7 +1185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1239,7 +1238,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1550,7 +1549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1597,7 +1596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2056,7 +2055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2422,7 +2421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2682,7 +2681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3057,7 +3056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3309,7 +3308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3405,7 +3404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3724,7 +3723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4002,11 +4001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4644,7 +4643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4752,11 +4751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4928,7 +4927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -5508,7 +5507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6143,7 +6142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -7289,7 +7288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7414,7 +7413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7681,7 +7680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7899,7 +7898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wrldc_remc_reports_generator\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA5D4F-7A01-43D3-B7B3-A283A683A061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ists_gen!$A$1:$I$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1185,7 +1186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1238,7 +1239,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1549,7 +1550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1596,7 +1597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2055,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2421,7 +2422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2681,7 +2682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3056,7 +3057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3308,7 +3309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3404,7 +3405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3723,7 +3724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4001,11 +4002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4643,7 +4644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4751,7 +4752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4927,7 +4928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -5507,7 +5508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6142,7 +6143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -7288,7 +7289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7413,7 +7414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7680,7 +7681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7898,7 +7899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\wrldc_remc_reports_generator\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA5D4F-7A01-43D3-B7B3-A283A683A061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -37,7 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ists_gen!$A$1:$I$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1186,7 +1185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1239,7 +1238,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1550,10 +1549,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1597,7 +1596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2056,7 +2055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2422,7 +2421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2682,7 +2681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3057,7 +3056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3309,7 +3308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3405,7 +3404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3724,7 +3723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4002,11 +4001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4644,7 +4643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4752,7 +4751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4928,11 +4927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5165,7 +5164,7 @@
         <v>346</v>
       </c>
       <c r="B13" s="4">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s">
         <v>138</v>
@@ -5194,7 +5193,7 @@
         <v>376</v>
       </c>
       <c r="B14" s="4">
-        <v>394.4</v>
+        <v>427.8</v>
       </c>
       <c r="C14" t="s">
         <v>368</v>
@@ -5282,7 +5281,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1776.4</v>
+        <v>1827.8</v>
       </c>
       <c r="D17"/>
       <c r="F17" s="4" t="s">
@@ -5450,7 +5449,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>2256.4</v>
+        <v>2307.8000000000002</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26"/>
@@ -5469,7 +5468,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>3006.4</v>
+        <v>3057.8</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -5508,7 +5507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6143,11 +6142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6376,7 +6375,7 @@
         <v>346</v>
       </c>
       <c r="B13" s="4">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s">
         <v>285</v>
@@ -6399,7 +6398,7 @@
         <v>376</v>
       </c>
       <c r="B14" s="4">
-        <v>394.4</v>
+        <v>427.8</v>
       </c>
       <c r="C14" t="s">
         <v>286</v>
@@ -6469,7 +6468,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1776.4</v>
+        <v>1827.8</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>76</v>
@@ -6628,7 +6627,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>2256.4</v>
+        <v>2307.8000000000002</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
@@ -6645,7 +6644,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>3006.4</v>
+        <v>3057.8</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
@@ -7289,7 +7288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7414,7 +7413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7681,7 +7680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7899,7 +7898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wrldc_remc_reports_generator\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656AE231-8201-449C-8EF9-BA6F421F7B3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ists_gen!$A$1:$I$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1185,7 +1186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1238,7 +1239,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1549,11 +1550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,7 +1597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2055,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2421,7 +2422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2681,7 +2682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3056,7 +3057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3308,7 +3309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3404,7 +3405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3723,7 +3724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4001,7 +4002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4643,7 +4644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4751,11 +4752,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4849,7 +4850,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="4">
-        <v>16085</v>
+        <v>16202</v>
       </c>
       <c r="C9" t="s">
         <v>159</v>
@@ -4869,7 +4870,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="4">
-        <v>6382</v>
+        <v>7593</v>
       </c>
       <c r="C10" t="s">
         <v>154</v>
@@ -4890,7 +4891,7 @@
       </c>
       <c r="B11" s="4">
         <f>B10+B9</f>
-        <v>22467</v>
+        <v>23795</v>
       </c>
       <c r="C11" t="s">
         <v>149</v>
@@ -4927,11 +4928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5193,7 +5194,7 @@
         <v>376</v>
       </c>
       <c r="B14" s="4">
-        <v>427.8</v>
+        <v>425</v>
       </c>
       <c r="C14" t="s">
         <v>368</v>
@@ -5281,7 +5282,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1827.8</v>
+        <v>1825</v>
       </c>
       <c r="D17"/>
       <c r="F17" s="4" t="s">
@@ -5449,7 +5450,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>2307.8000000000002</v>
+        <v>2305</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26"/>
@@ -5468,7 +5469,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>3057.8</v>
+        <v>3055</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -5507,11 +5508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5595,7 +5596,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="4">
-        <v>2492</v>
+        <v>3703</v>
       </c>
       <c r="C6" t="s">
         <v>184</v>
@@ -5624,7 +5625,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="4">
-        <v>6425</v>
+        <v>6471</v>
       </c>
       <c r="C7" t="s">
         <v>189</v>
@@ -5654,7 +5655,7 @@
       </c>
       <c r="B8" s="4">
         <f>SUM(B6:B7)</f>
-        <v>8917</v>
+        <v>10174</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>26</v>
@@ -5759,7 +5760,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="4">
-        <v>1560</v>
+        <v>1580</v>
       </c>
       <c r="C14" t="s">
         <v>164</v>
@@ -5788,7 +5789,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="4">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="C15" t="s">
         <v>169</v>
@@ -5818,7 +5819,7 @@
       </c>
       <c r="B16" s="4">
         <f>B15+B14</f>
-        <v>3984</v>
+        <v>3996</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>26</v>
@@ -5841,7 +5842,7 @@
       </c>
       <c r="B18" s="4">
         <f>B7+B11+B15</f>
-        <v>13859</v>
+        <v>13897</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="B19" s="4">
         <f>B6+B10+B14</f>
-        <v>5632</v>
+        <v>6863</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
@@ -5871,7 +5872,7 @@
       </c>
       <c r="B20" s="4">
         <f>SUM(B18:B19)</f>
-        <v>19491</v>
+        <v>20760</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>74</v>
@@ -6142,11 +6143,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6398,7 +6399,7 @@
         <v>376</v>
       </c>
       <c r="B14" s="4">
-        <v>427.8</v>
+        <v>425</v>
       </c>
       <c r="C14" t="s">
         <v>286</v>
@@ -6468,7 +6469,7 @@
       </c>
       <c r="B17" s="4">
         <f>SUM(B11:B16)</f>
-        <v>1827.8</v>
+        <v>1825</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>76</v>
@@ -6627,7 +6628,7 @@
       </c>
       <c r="B26" s="4">
         <f>B17+B9</f>
-        <v>2307.8000000000002</v>
+        <v>2305</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
@@ -6644,7 +6645,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26+B25</f>
-        <v>3057.8</v>
+        <v>3055</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
@@ -6674,7 +6675,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="4">
-        <v>2492</v>
+        <v>3703</v>
       </c>
       <c r="C29" t="s">
         <v>299</v>
@@ -6697,7 +6698,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="4">
-        <v>6425</v>
+        <v>6471</v>
       </c>
       <c r="C30" t="s">
         <v>300</v>
@@ -6721,7 +6722,7 @@
       </c>
       <c r="B31" s="4">
         <f>SUM(B29:B30)</f>
-        <v>8917</v>
+        <v>10174</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
@@ -6851,7 +6852,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="4">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="C38" t="s">
         <v>295</v>
@@ -6875,7 +6876,7 @@
       </c>
       <c r="B39" s="4">
         <f>B38+B37</f>
-        <v>3984</v>
+        <v>3976</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>76</v>
@@ -6904,7 +6905,7 @@
       </c>
       <c r="B41" s="4">
         <f>B30+B34+B38</f>
-        <v>13859</v>
+        <v>13897</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>13</v>
@@ -6921,7 +6922,7 @@
       </c>
       <c r="B42" s="4">
         <f>B29+B33+B37</f>
-        <v>5632</v>
+        <v>6843</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>13</v>
@@ -6938,7 +6939,7 @@
       </c>
       <c r="B43" s="4">
         <f>SUM(B41:B42)</f>
-        <v>19491</v>
+        <v>20740</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>74</v>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="B45" s="4">
         <f>regional_profile!B9</f>
-        <v>16085</v>
+        <v>16202</v>
       </c>
       <c r="C45" t="s">
         <v>291</v>
@@ -6981,7 +6982,7 @@
       </c>
       <c r="B46" s="4">
         <f>regional_profile!B10</f>
-        <v>6382</v>
+        <v>7593</v>
       </c>
       <c r="C46" t="s">
         <v>292</v>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="B47" s="4">
         <f>B46+B45</f>
-        <v>22467</v>
+        <v>23795</v>
       </c>
       <c r="C47" t="s">
         <v>290</v>
@@ -7288,7 +7289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7413,7 +7414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7680,7 +7681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7898,7 +7899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656AE231-8201-449C-8EF9-BA6F421F7B3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -34,10 +33,10 @@
     <sheet name="scada_graph_data" sheetId="17" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ists_gen!$A$1:$I$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ists_gen!$A$1:$I$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="407">
   <si>
     <t>name</t>
   </si>
@@ -1181,12 +1180,99 @@
   </si>
   <si>
     <t>AWEK1L-WIND</t>
+  </si>
+  <si>
+    <t>TPREL_RSP</t>
+  </si>
+  <si>
+    <t>TPREL_RSP-SOLAR_SOLAR_AVC</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA02.00056861</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA02.00056231</t>
+  </si>
+  <si>
+    <t>GIPCL_RSP</t>
+  </si>
+  <si>
+    <t>GIPCL_RSP-SOLAR_SOLAR_AVC</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA02.00056860</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA02.00056233</t>
+  </si>
+  <si>
+    <t>ESPL_RSP</t>
+  </si>
+  <si>
+    <t>ESPL_RSP-SOLAR_SOLAR_AVC</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA02.00056862</t>
+  </si>
+  <si>
+    <t>WREMCPRI.SCADA02.00056232</t>
+  </si>
+  <si>
+    <t>Radhaneshda Pooling</t>
+  </si>
+  <si>
+    <t>Radhaneshda</t>
+  </si>
+  <si>
+    <t>TPREL_RSP-SOLAR_SOLAR_R0</t>
+  </si>
+  <si>
+    <t>TPREL_RSP-SOLAR_SOLAR_16</t>
+  </si>
+  <si>
+    <t>TPREL_RSP-SOLAR_SOLAR_Act</t>
+  </si>
+  <si>
+    <t>TPREL_RSP-SOLAR_SOLAR_CUF</t>
+  </si>
+  <si>
+    <t>GIPCL_RSP-SOLAR_SOLAR_R0</t>
+  </si>
+  <si>
+    <t>GIPCL_RSP-SOLAR_SOLAR_16</t>
+  </si>
+  <si>
+    <t>GIPCL_RSP-SOLAR_SOLAR_Act</t>
+  </si>
+  <si>
+    <t>GIPCL_RSP-SOLAR_SOLAR_CUF</t>
+  </si>
+  <si>
+    <t>ESPL_RSP-SOLAR_SOLAR_R0</t>
+  </si>
+  <si>
+    <t>ESPL_RSP-SOLAR_SOLAR_16</t>
+  </si>
+  <si>
+    <t>ESPL_RSP-SOLAR_SOLAR_Act</t>
+  </si>
+  <si>
+    <t>ESPL_RSP-SOLAR_SOLAR_CUF</t>
+  </si>
+  <si>
+    <t>TPREL_RSP-SOLAR_SOLAR</t>
+  </si>
+  <si>
+    <t>GIPCL_RSP-SOLAR_SOLAR</t>
+  </si>
+  <si>
+    <t>ESPL_RSP-SOLAR_SOLAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1239,7 +1325,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1550,7 +1636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1597,7 +1683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2056,11 +2142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2416,13 +2502,93 @@
         <v>43</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25" t="s">
+        <v>394</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" t="s">
+        <v>397</v>
+      </c>
+      <c r="C26" t="s">
+        <v>383</v>
+      </c>
+      <c r="D26" t="s">
+        <v>398</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B27" t="s">
+        <v>401</v>
+      </c>
+      <c r="C27" t="s">
+        <v>387</v>
+      </c>
+      <c r="D27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>390</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2682,11 +2848,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,7 +3214,86 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25" t="s">
+        <v>394</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" t="s">
+        <v>397</v>
+      </c>
+      <c r="C26" t="s">
+        <v>383</v>
+      </c>
+      <c r="D26" t="s">
+        <v>398</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B27" t="s">
+        <v>401</v>
+      </c>
+      <c r="C27" t="s">
+        <v>387</v>
+      </c>
+      <c r="D27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>390</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>391</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3057,7 +3302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3309,7 +3554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3405,11 +3650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3686,35 +3931,96 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>404</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>405</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>406</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>390</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>83</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>84</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>85</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3724,7 +4030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4002,7 +4308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4644,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4752,11 +5058,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4928,11 +5234,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5425,81 +5731,195 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="B25" s="4">
-        <f>B23</f>
-        <v>750</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25"/>
-      <c r="E25" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25" t="s">
+        <v>380</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>381</v>
+      </c>
       <c r="F25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>391</v>
+      </c>
       <c r="H25" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D26" t="s">
+        <v>384</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B27" s="4">
+        <v>200</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>390</v>
+      </c>
+      <c r="B28" s="2">
+        <f>SUM(B25:B27)</f>
+        <v>400</v>
+      </c>
+      <c r="D28"/>
+      <c r="F28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29"/>
+      <c r="F29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="4">
+        <f>B23+B28</f>
+        <v>1150</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B31" s="4">
         <f>B17+B9</f>
         <v>2305</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="4">
-        <f>B26+B25</f>
-        <v>3055</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
+      <c r="B32" s="4">
+        <f>B31+B30</f>
+        <v>3455</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5508,7 +5928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6143,11 +6563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6607,187 +7027,185 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" s="4">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>384</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B27" s="4">
+        <v>200</v>
+      </c>
+      <c r="C27" t="s">
+        <v>388</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>390</v>
+      </c>
+      <c r="B28" s="2">
+        <f>SUM(B25:B27)</f>
+        <v>400</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B30" s="4">
         <f>B23</f>
         <v>750</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B31" s="4">
         <f>B17+B9</f>
         <v>2305</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="4">
-        <f>B26+B25</f>
-        <v>3055</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="4">
-        <v>3703</v>
-      </c>
-      <c r="C29" t="s">
-        <v>299</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="4">
-        <v>6471</v>
-      </c>
-      <c r="C30" t="s">
-        <v>300</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="4">
-        <f>SUM(B29:B30)</f>
-        <v>10174</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B32" s="4">
+        <f>B31+B30</f>
+        <v>3055</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="2" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1580</v>
-      </c>
-      <c r="C33" t="s">
-        <v>293</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>366</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B34" s="4">
-        <v>5010</v>
+        <v>3703</v>
       </c>
       <c r="C34" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>367</v>
+        <v>22</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>366</v>
@@ -6795,76 +7213,76 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B35" s="4">
-        <f>B33+B34</f>
-        <v>6590</v>
-      </c>
-      <c r="C35" s="4"/>
+        <v>6471</v>
+      </c>
+      <c r="C35" t="s">
+        <v>300</v>
+      </c>
       <c r="D35" s="4" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B36" s="4">
+        <f>SUM(B34:B35)</f>
+        <v>10174</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="4">
-        <v>1560</v>
-      </c>
-      <c r="C37" t="s">
-        <v>296</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>366</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B38" s="4">
-        <v>2416</v>
+        <v>1580</v>
       </c>
       <c r="C38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>367</v>
+        <v>49</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>366</v>
@@ -6872,210 +7290,290 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4">
-        <f>B38+B37</f>
-        <v>3976</v>
+        <v>5010</v>
+      </c>
+      <c r="C39" t="s">
+        <v>294</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B38+B39</f>
+        <v>6590</v>
+      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="4">
-        <f>B30+B34+B38</f>
-        <v>13897</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>13</v>
+      <c r="A41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="4" t="s">
-        <v>367</v>
-      </c>
+      <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>78</v>
+      <c r="A42" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B42" s="4">
-        <f>B29+B33+B37</f>
-        <v>6843</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="4"/>
+        <v>1560</v>
+      </c>
+      <c r="C42" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="F42" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>75</v>
+      <c r="A43" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B43" s="4">
-        <f>SUM(B41:B42)</f>
-        <v>20740</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+        <v>2416</v>
+      </c>
+      <c r="C43" t="s">
+        <v>295</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>367</v>
+      </c>
       <c r="G43" s="2" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="B44" s="4">
+        <f>B43+B42</f>
+        <v>3976</v>
+      </c>
       <c r="D44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="4">
+        <f>B35+B39+B43</f>
+        <v>13897</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="4">
+        <f>B34+B38+B42</f>
+        <v>6843</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="4">
+        <f>SUM(B46:B47)</f>
+        <v>20740</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B50" s="4">
         <f>regional_profile!B9</f>
         <v>16202</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C50" t="s">
         <v>291</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="D50" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B51" s="4">
         <f>regional_profile!B10</f>
         <v>7593</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C51" t="s">
         <v>292</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="D51" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="4">
-        <f>B46+B45</f>
+      <c r="B52" s="4">
+        <f>B51+B50</f>
         <v>23795</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C52" t="s">
         <v>290</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="D48" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="D64" s="4"/>
     </row>
@@ -7141,53 +7639,58 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
@@ -7282,6 +7785,21 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7289,7 +7807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7414,7 +7932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7681,7 +8199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7899,11 +8417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8374,71 +8892,178 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" t="s">
+        <v>392</v>
+      </c>
+      <c r="C25" t="s">
+        <v>393</v>
+      </c>
+      <c r="D25" t="s">
+        <v>394</v>
+      </c>
+      <c r="E25" t="s">
+        <v>395</v>
+      </c>
+      <c r="F25" t="s">
+        <v>379</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" t="s">
+        <v>396</v>
+      </c>
+      <c r="C26" t="s">
+        <v>397</v>
+      </c>
+      <c r="D26" t="s">
+        <v>398</v>
+      </c>
+      <c r="E26" t="s">
+        <v>399</v>
+      </c>
+      <c r="F26" t="s">
+        <v>383</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B27" t="s">
+        <v>400</v>
+      </c>
+      <c r="C27" t="s">
+        <v>401</v>
+      </c>
+      <c r="D27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E27" t="s">
+        <v>403</v>
+      </c>
+      <c r="F27" t="s">
+        <v>387</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>390</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>83</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
         <v>99</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C30" t="s">
         <v>100</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D30" t="s">
         <v>101</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E30" t="s">
         <v>102</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F30" t="s">
         <v>103</v>
       </c>
-      <c r="G25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>84</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>94</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" t="s">
         <v>95</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D31" t="s">
         <v>96</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E31" t="s">
         <v>97</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F31" t="s">
         <v>98</v>
       </c>
-      <c r="G26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>85</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>89</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" t="s">
         <v>90</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D32" t="s">
         <v>91</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E32" t="s">
         <v>92</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F32" t="s">
         <v>93</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G32" t="s">
         <v>5</v>
       </c>
     </row>

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wrldc_remc_reports_generator\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB145CE-F6A9-4DD0-B274-918BEB311C22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="15"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_config" sheetId="18" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ists_gen!$A$1:$I$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">remc_graph_data!$A$1:$C$56</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1272,7 +1273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1325,7 +1326,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1636,7 +1637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1683,7 +1684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2142,7 +2143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2588,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2848,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3302,7 +3303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3554,7 +3555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3650,10 +3651,10 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -4030,7 +4031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4308,7 +4309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4950,7 +4951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -5058,11 +5059,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5176,7 +5177,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="4">
-        <v>7593</v>
+        <v>8013</v>
       </c>
       <c r="C10" t="s">
         <v>154</v>
@@ -5197,7 +5198,7 @@
       </c>
       <c r="B11" s="4">
         <f>B10+B9</f>
-        <v>23795</v>
+        <v>24215</v>
       </c>
       <c r="C11" t="s">
         <v>149</v>
@@ -5234,11 +5235,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5928,11 +5929,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6563,7 +6564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -7500,7 +7501,7 @@
       </c>
       <c r="B51" s="4">
         <f>regional_profile!B10</f>
-        <v>7593</v>
+        <v>8013</v>
       </c>
       <c r="C51" t="s">
         <v>292</v>
@@ -7515,7 +7516,7 @@
       </c>
       <c r="B52" s="4">
         <f>B51+B50</f>
-        <v>23795</v>
+        <v>24215</v>
       </c>
       <c r="C52" t="s">
         <v>290</v>
@@ -7807,7 +7808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7932,7 +7933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8199,7 +8200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8417,7 +8418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/config/remc_report_config.xlsx
+++ b/config/remc_report_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.100.60\d$\wrldc_remc_reports_generator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB145CE-F6A9-4DD0-B274-918BEB311C22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4D3444-42B3-479E-9F5B-8DC19A50B648}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5063,7 +5063,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5157,7 +5157,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="4">
-        <v>16202</v>
+        <v>16233</v>
       </c>
       <c r="C9" t="s">
         <v>159</v>
@@ -5177,7 +5177,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="4">
-        <v>8013</v>
+        <v>7612</v>
       </c>
       <c r="C10" t="s">
         <v>154</v>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="B11" s="4">
         <f>B10+B9</f>
-        <v>24215</v>
+        <v>23845</v>
       </c>
       <c r="C11" t="s">
         <v>149</v>
@@ -5238,7 +5238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -6017,7 +6017,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="4">
-        <v>3703</v>
+        <v>3150</v>
       </c>
       <c r="C6" t="s">
         <v>184</v>
@@ -6046,7 +6046,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="4">
-        <v>6471</v>
+        <v>6494</v>
       </c>
       <c r="C7" t="s">
         <v>189</v>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B8" s="4">
         <f>SUM(B6:B7)</f>
-        <v>10174</v>
+        <v>9644</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>26</v>
@@ -6181,7 +6181,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="4">
-        <v>1580</v>
+        <v>1560</v>
       </c>
       <c r="C14" t="s">
         <v>164</v>
@@ -6210,7 +6210,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="4">
-        <v>2416</v>
+        <v>2424</v>
       </c>
       <c r="C15" t="s">
         <v>169</v>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="B16" s="4">
         <f>B15+B14</f>
-        <v>3996</v>
+        <v>3984</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>26</v>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="B18" s="4">
         <f>B7+B11+B15</f>
-        <v>13897</v>
+        <v>13928</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="B19" s="4">
         <f>B6+B10+B14</f>
-        <v>6863</v>
+        <v>6290</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B20" s="4">
         <f>SUM(B18:B19)</f>
-        <v>20760</v>
+        <v>20218</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>74</v>
@@ -6568,7 +6568,7 @@
   <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7194,7 +7194,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="4">
-        <v>3703</v>
+        <v>3150</v>
       </c>
       <c r="C34" t="s">
         <v>299</v>
@@ -7217,7 +7217,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="4">
-        <v>6471</v>
+        <v>6494</v>
       </c>
       <c r="C35" t="s">
         <v>300</v>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B36" s="4">
         <f>SUM(B34:B35)</f>
-        <v>10174</v>
+        <v>9644</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
@@ -7371,7 +7371,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="4">
-        <v>2416</v>
+        <v>2424</v>
       </c>
       <c r="C43" t="s">
         <v>295</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B44" s="4">
         <f>B43+B42</f>
-        <v>3976</v>
+        <v>3984</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>76</v>
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B46" s="4">
         <f>B35+B39+B43</f>
-        <v>13897</v>
+        <v>13928</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>13</v>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="B47" s="4">
         <f>B34+B38+B42</f>
-        <v>6843</v>
+        <v>6290</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>13</v>
@@ -7458,7 +7458,7 @@
       </c>
       <c r="B48" s="4">
         <f>SUM(B46:B47)</f>
-        <v>20740</v>
+        <v>20218</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>74</v>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="B50" s="4">
         <f>regional_profile!B9</f>
-        <v>16202</v>
+        <v>16233</v>
       </c>
       <c r="C50" t="s">
         <v>291</v>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="B51" s="4">
         <f>regional_profile!B10</f>
-        <v>8013</v>
+        <v>7612</v>
       </c>
       <c r="C51" t="s">
         <v>292</v>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B52" s="4">
         <f>B51+B50</f>
-        <v>24215</v>
+        <v>23845</v>
       </c>
       <c r="C52" t="s">
     